--- a/Model Parametrization.xlsx
+++ b/Model Parametrization.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gareyes3\Documents\GitHub\CPS-Farm-to-Facility_L_T\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{053DD829-ED9B-46DB-9E2B-2F8F5A13B7BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE59AB81-F3A6-4C5F-B282-BD33ED5D4D18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A7FC8448-A2FF-4BB1-802F-01EED4E56C52}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{A7FC8448-A2FF-4BB1-802F-01EED4E56C52}"/>
   </bookViews>
   <sheets>
-    <sheet name="Growth Survival Model" sheetId="2" r:id="rId1"/>
-    <sheet name="Waxing" sheetId="4" r:id="rId2"/>
-    <sheet name="Transfer Coefficients" sheetId="1" r:id="rId3"/>
-    <sheet name="Temperature &amp; RH Calculations" sheetId="3" r:id="rId4"/>
+    <sheet name="Flume Washing" sheetId="5" r:id="rId1"/>
+    <sheet name="Transfer Coefficients" sheetId="1" r:id="rId2"/>
+    <sheet name="Growth Survival Model" sheetId="2" r:id="rId3"/>
+    <sheet name="Waxing" sheetId="4" r:id="rId4"/>
+    <sheet name="Temperature &amp; RH Calculations" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="183">
   <si>
     <t>Parameters</t>
   </si>
@@ -306,17 +307,297 @@
     <t>https://meridian.allenpress.com/jfp/article/84/3/456/446920/Quantification-of-Survival-and-Transfer-of</t>
   </si>
   <si>
-    <t>https://meridian.allenpress.com/jfp/article/58/8/829/167303/Growth-and-Survival-of-Salmonella-montevideo-on</t>
-  </si>
-  <si>
     <t>https://meridian.allenpress.com/jfp/article/65/2/274/168073/Survival-of-Salmonella-on-Tomatoes-Stored-at-High</t>
+  </si>
+  <si>
+    <t>Survival on skin</t>
+  </si>
+  <si>
+    <t>2.85-3.86 overnight
+higher concentration survival after 9.48 CFU/g innoculation</t>
+  </si>
+  <si>
+    <t>Wei et al, 1995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salmonella motevideo </t>
+  </si>
+  <si>
+    <t>Does not provide enough datas to be able to assess or model salmonella dieoff As a function of temperature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salkmonella motevideo, michigan, Poona, Hartford, </t>
+  </si>
+  <si>
+    <t>Wash_Red</t>
+  </si>
+  <si>
+    <t>Washing reduction when Fc levels are under 10 mg/L</t>
+  </si>
+  <si>
+    <t>Washing Reduction when FC levels are over 10 mg/L</t>
+  </si>
+  <si>
+    <t>log CFU/g</t>
+  </si>
+  <si>
+    <t>y = 0.0056x + 0.5952</t>
+  </si>
+  <si>
+    <t>y = 0.04+0.3</t>
+  </si>
+  <si>
+    <t>Maffei, 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salmonella reduction in leafy green when exposed to chlorinated wash. </t>
+  </si>
+  <si>
+    <t>Log_red_SD</t>
+  </si>
+  <si>
+    <t>Log reduction standard deviation</t>
+  </si>
+  <si>
+    <t>CC_Upper</t>
+  </si>
+  <si>
+    <t>Log % Transfer to non_ contmianted portions Upper</t>
+  </si>
+  <si>
+    <t>CC_Lower</t>
+  </si>
+  <si>
+    <t>Log % Transfer to non contmianated portion lower</t>
+  </si>
+  <si>
+    <t>y=-0.6798*x-0.6</t>
+  </si>
+  <si>
+    <t>y=-1.3596*x-0.6</t>
+  </si>
+  <si>
+    <t>Log_CC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using distributio for log CC </t>
+  </si>
+  <si>
+    <t>Uniform(CC_Lower, CC_Uper)</t>
+  </si>
+  <si>
+    <t>Other Washing</t>
+  </si>
+  <si>
+    <t>2 min dump tank approx 1/10 ratio</t>
+  </si>
+  <si>
+    <t>log reduction</t>
+  </si>
+  <si>
+    <t>log redution</t>
+  </si>
+  <si>
+    <t>Wang and Rye, 2014</t>
+  </si>
+  <si>
+    <t>40 ppm chlorine + T-128</t>
+  </si>
+  <si>
+    <t>Overhead Pray Wash with Rollers</t>
+  </si>
+  <si>
+    <t>25 ppm NaOCl, 15s</t>
+  </si>
+  <si>
+    <t>25 ppm NaOCl, 30 s</t>
+  </si>
+  <si>
+    <t>25 ppm NaOCl, 60 s</t>
+  </si>
+  <si>
+    <t>Chang and Schneider, 2012</t>
+  </si>
+  <si>
+    <t>50 ppm NaOCl, 15s</t>
+  </si>
+  <si>
+    <t>50 ppm NaOCl, 30 s</t>
+  </si>
+  <si>
+    <t>50 ppm NaOCl, 60 s</t>
+  </si>
+  <si>
+    <t>FC levels</t>
+  </si>
+  <si>
+    <t>Log Red</t>
+  </si>
+  <si>
+    <t>Min CC Levels</t>
+  </si>
+  <si>
+    <t>Max CC Levels</t>
+  </si>
+  <si>
+    <t>100 ppm NaOCl, 15s</t>
+  </si>
+  <si>
+    <t>100 ppm NaOCl, 30 s</t>
+  </si>
+  <si>
+    <t>100 ppm NaOCl, 60 s</t>
+  </si>
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>100ppm NaOCl</t>
+  </si>
+  <si>
+    <t>simulated flume treatment (10L), 15s</t>
+  </si>
+  <si>
+    <t>simulated flume treatment (10L), 30s</t>
+  </si>
+  <si>
+    <t>simulated flume treatment (10L), 60s</t>
+  </si>
+  <si>
+    <t>40 ppm chlorine with electrolized water</t>
+  </si>
+  <si>
+    <t>Zhuang, Beuchat and Angulo, 1995</t>
+  </si>
+  <si>
+    <t>60ppm free chlorine, pH 7.1</t>
+  </si>
+  <si>
+    <t>110ppm free chlorine, pH 7.1</t>
+  </si>
+  <si>
+    <t>210ppm free chlorine, pH 7.1</t>
+  </si>
+  <si>
+    <t>320ppm free chlorine, pH 7.1</t>
+  </si>
+  <si>
+    <t>submerged for 2min, 37C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bolten et al. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bolten et al., Nou </t>
+  </si>
+  <si>
+    <t>dump tank 30kg, 30L for 30 min</t>
+  </si>
+  <si>
+    <t>1.22 +- 0.51</t>
+  </si>
+  <si>
+    <t>2.29  +- 0.30</t>
+  </si>
+  <si>
+    <t>2.45  +- 0.16</t>
+  </si>
+  <si>
+    <t>Cross Contmaination</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very low. And non existent at high chlorine levels. </t>
+  </si>
+  <si>
+    <t>0 ppm FC 6.5 pH</t>
+  </si>
+  <si>
+    <t>25 ppm FC pH</t>
+  </si>
+  <si>
+    <t>50 ppm FC pH</t>
+  </si>
+  <si>
+    <t>100 ppm FC pH</t>
+  </si>
+  <si>
+    <t>150 ppm FC pH</t>
+  </si>
+  <si>
+    <t>Chl_levels _Wash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">observed below we see between 25 and 200 ppm which is the limit for sodium hypochlorite. Therefore we decided to fit a triangular distribution of chlorine levels between with a lowest value of 25, med value of 100, and max value of 200 top simulate a variety of washing efficacies. </t>
+  </si>
+  <si>
+    <t>Triangular (25,100,200)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maffei, Chang and Shneider, BoltenYuk and Bartz. </t>
+  </si>
+  <si>
+    <t>Tr_Tomato_Brush</t>
+  </si>
+  <si>
+    <t>Tr_Brush Tomato</t>
+  </si>
+  <si>
+    <t>Decco Mineral Oil</t>
+  </si>
+  <si>
+    <t>EU (veg oil)</t>
+  </si>
+  <si>
+    <t>Dura (petrolium)</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>run</t>
+  </si>
+  <si>
+    <t>Inoculated-unwaxed cucumber</t>
+  </si>
+  <si>
+    <t>Decco (mineral oil)</t>
+  </si>
+  <si>
+    <t>CFU/cucumber</t>
+  </si>
+  <si>
+    <t>% transfer</t>
+  </si>
+  <si>
+    <t>log % transfer</t>
+  </si>
+  <si>
+    <t>CFU/brush</t>
+  </si>
+  <si>
+    <t>Brush-decco</t>
+  </si>
+  <si>
+    <t>Brush-eu</t>
+  </si>
+  <si>
+    <t>Brush-dura</t>
+  </si>
+  <si>
+    <t>log Tr</t>
+  </si>
+  <si>
+    <t>% Tr</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -338,8 +619,28 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF2E2E2E"/>
+      <name val="Georgia"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -352,8 +653,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -541,11 +848,129 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -599,8 +1024,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -912,281 +1367,814 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A962840E-0617-46DB-9403-031DC4CD311E}">
-  <dimension ref="A1:G17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E6AF4F1-701C-4DEC-AB88-26A27A997BD3}">
+  <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.28515625" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
     <col min="6" max="6" width="41" customWidth="1"/>
-    <col min="7" max="7" width="38.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" s="16">
-        <v>72.400000000000006</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" s="16">
-        <v>22.1</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="C6" s="17">
-        <v>90</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="C7" s="16">
-        <v>20</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
+    </row>
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C6" t="s">
+        <v>110</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C9" t="s">
+        <v>162</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="20"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>128</v>
+      </c>
+      <c r="B17" t="s">
+        <v>129</v>
+      </c>
+      <c r="C17" t="s">
+        <v>130</v>
+      </c>
+      <c r="D17" t="s">
+        <v>130</v>
+      </c>
+      <c r="E17" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>0</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B18">
+        <f>(0*0.04)+0.3</f>
+        <v>0.3</v>
+      </c>
+      <c r="C18">
+        <f>-1.3596*0-0.6</f>
+        <v>-0.6</v>
+      </c>
+      <c r="D18">
+        <f>10^C18</f>
+        <v>0.25118864315095801</v>
+      </c>
+      <c r="E18">
+        <f>-0.6798*A18-0.6</f>
+        <v>-0.6</v>
+      </c>
+      <c r="F18">
+        <f>10^E18</f>
+        <v>0.25118864315095801</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>25</v>
+      </c>
+      <c r="B19">
+        <f>(25*0.0056)+0.5952</f>
+        <v>0.73519999999999996</v>
+      </c>
+      <c r="C19">
+        <f>-1.3596*25-0.6</f>
+        <v>-34.589999999999996</v>
+      </c>
+      <c r="D19">
+        <f t="shared" ref="D19:F23" si="0">10^C19</f>
+        <v>2.5703957827688728E-35</v>
+      </c>
+      <c r="E19">
+        <f t="shared" ref="E19:E23" si="1">-0.6798*A19-0.6</f>
+        <v>-17.594999999999999</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>2.5409727055492989E-18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>50</v>
+      </c>
+      <c r="B20">
+        <f>(50*0.0056)+0.5952</f>
+        <v>0.87519999999999998</v>
+      </c>
+      <c r="C20">
+        <f>-1.3596*50-0.6</f>
+        <v>-68.579999999999984</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>2.6302679918954604E-69</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>-34.589999999999996</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>2.5703957827688728E-35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>100</v>
+      </c>
+      <c r="B21">
+        <f>(100*0.0056)+0.5952</f>
+        <v>1.1551999999999998</v>
+      </c>
+      <c r="C21">
+        <f>-1.3596*100-0.6</f>
+        <v>-136.55999999999997</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>2.754228703338315E-137</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>-68.579999999999984</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>2.6302679918954604E-69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>150</v>
+      </c>
+      <c r="B22">
+        <f>(150*0.0056)+0.5952</f>
+        <v>1.4352</v>
+      </c>
+      <c r="C22">
+        <f>-1.3596*150-0.6</f>
+        <v>-204.54</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>2.8840315031265033E-205</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>-102.57</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>2.6915348039268759E-103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>200</v>
+      </c>
+      <c r="B23">
+        <f>(A23*0.0056)+0.5952</f>
+        <v>1.7151999999999998</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="1"/>
+        <v>-136.55999999999997</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>2.754228703338315E-137</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="C26" s="21">
+        <v>2</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="F26" s="21" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="C27" s="21">
+        <v>2.1</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="F27" s="21" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>120</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28" t="s">
+        <v>116</v>
+      </c>
+      <c r="E28" t="s">
+        <v>124</v>
+      </c>
+      <c r="F28" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>120</v>
+      </c>
+      <c r="C29">
+        <v>2.5</v>
+      </c>
+      <c r="D29" t="s">
+        <v>117</v>
+      </c>
+      <c r="E29" t="s">
+        <v>124</v>
+      </c>
+      <c r="F29" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>120</v>
+      </c>
+      <c r="C30">
+        <v>4.5</v>
+      </c>
+      <c r="D30" t="s">
+        <v>116</v>
+      </c>
+      <c r="E30" t="s">
+        <v>124</v>
+      </c>
+      <c r="F30" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>120</v>
+      </c>
+      <c r="C31">
+        <v>2.8</v>
+      </c>
+      <c r="D31" t="s">
+        <v>116</v>
+      </c>
+      <c r="E31" t="s">
+        <v>124</v>
+      </c>
+      <c r="F31" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>120</v>
+      </c>
+      <c r="C32">
+        <v>4.2</v>
+      </c>
+      <c r="D32" t="s">
+        <v>117</v>
+      </c>
+      <c r="E32" t="s">
+        <v>124</v>
+      </c>
+      <c r="F32" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>120</v>
+      </c>
+      <c r="C33">
         <v>5</v>
       </c>
-      <c r="C11" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C12" s="1">
-        <v>3.1</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C13" s="1">
-        <v>3.9</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-    </row>
-    <row r="14" spans="1:7" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C14" s="1">
+      <c r="D33" t="s">
+        <v>116</v>
+      </c>
+      <c r="E33" t="s">
+        <v>124</v>
+      </c>
+      <c r="F33" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>120</v>
+      </c>
+      <c r="C34">
+        <v>3.5</v>
+      </c>
+      <c r="D34" t="s">
+        <v>116</v>
+      </c>
+      <c r="E34" t="s">
+        <v>124</v>
+      </c>
+      <c r="F34" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>120</v>
+      </c>
+      <c r="C35">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D35" t="s">
+        <v>117</v>
+      </c>
+      <c r="E35" t="s">
+        <v>124</v>
+      </c>
+      <c r="F35" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>120</v>
+      </c>
+      <c r="C36">
+        <v>5.5</v>
+      </c>
+      <c r="D36" t="s">
+        <v>116</v>
+      </c>
+      <c r="E36" t="s">
+        <v>124</v>
+      </c>
+      <c r="F36" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>120</v>
+      </c>
+      <c r="C37">
         <v>3.2</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>89</v>
+      <c r="D37" t="s">
+        <v>116</v>
+      </c>
+      <c r="E37" t="s">
+        <v>124</v>
+      </c>
+      <c r="F37" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>120</v>
+      </c>
+      <c r="C38">
+        <v>3.4</v>
+      </c>
+      <c r="D38" t="s">
+        <v>117</v>
+      </c>
+      <c r="E38" t="s">
+        <v>124</v>
+      </c>
+      <c r="F38" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>120</v>
+      </c>
+      <c r="C39">
+        <v>3.8</v>
+      </c>
+      <c r="D39" t="s">
+        <v>116</v>
+      </c>
+      <c r="E39" t="s">
+        <v>124</v>
+      </c>
+      <c r="F39" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B40" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="C40" s="21">
+        <v>1.3</v>
+      </c>
+      <c r="D40" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="E40" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="F40" s="21" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B41" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="C41" s="21">
+        <v>3.2</v>
+      </c>
+      <c r="D41" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="E41" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="F41" s="21" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B42" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="C42" s="21">
+        <v>3.3</v>
+      </c>
+      <c r="D42" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="E42" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="F42" s="21" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B43" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="C43" s="21">
+        <v>1</v>
+      </c>
+      <c r="D43" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="E43" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="F43" s="21" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B44" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="C44" s="21">
+        <v>1.4</v>
+      </c>
+      <c r="D44" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="E44" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="F44" s="21" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B45" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="C45" s="21">
+        <v>1.3</v>
+      </c>
+      <c r="D45" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="E45" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="F45" s="21" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>146</v>
+      </c>
+      <c r="C46">
+        <v>0.6</v>
+      </c>
+      <c r="D46" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="E46" t="s">
+        <v>141</v>
+      </c>
+      <c r="F46" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>146</v>
+      </c>
+      <c r="C47">
+        <v>1.2</v>
+      </c>
+      <c r="D47" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="E47" t="s">
+        <v>141</v>
+      </c>
+      <c r="F47" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>146</v>
+      </c>
+      <c r="C48">
+        <v>1.2</v>
+      </c>
+      <c r="D48" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="E48" t="s">
+        <v>141</v>
+      </c>
+      <c r="F48" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>146</v>
+      </c>
+      <c r="C49">
+        <v>1.4</v>
+      </c>
+      <c r="D49" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="E49" t="s">
+        <v>141</v>
+      </c>
+      <c r="F49" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>149</v>
+      </c>
+      <c r="C50" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="E50" t="s">
+        <v>148</v>
+      </c>
+      <c r="F50" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>149</v>
+      </c>
+      <c r="C51" s="22"/>
+      <c r="E51" t="s">
+        <v>148</v>
+      </c>
+      <c r="F51" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>149</v>
+      </c>
+      <c r="C52" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="E52" t="s">
+        <v>148</v>
+      </c>
+      <c r="F52" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>149</v>
+      </c>
+      <c r="C53" s="22"/>
+      <c r="E53" t="s">
+        <v>148</v>
+      </c>
+      <c r="F53" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>149</v>
+      </c>
+      <c r="C54" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="E54" t="s">
+        <v>148</v>
+      </c>
+      <c r="F54" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>153</v>
+      </c>
+      <c r="E56" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="F12:F14"/>
-  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40B4F63B-9E4A-4577-8E0F-8659496532A7}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57209929-C0F9-4A0B-B20C-FFEA9B426D53}">
   <dimension ref="A1:F4"/>
   <sheetViews>
@@ -1274,7 +2262,1661 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A962840E-0617-46DB-9403-031DC4CD311E}">
+  <dimension ref="A1:G20"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" width="35.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.28515625" customWidth="1"/>
+    <col min="6" max="6" width="41" customWidth="1"/>
+    <col min="7" max="7" width="38.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="16">
+        <v>72.400000000000006</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="16">
+        <v>22.1</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="17">
+        <v>90</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="16">
+        <v>20</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+    </row>
+    <row r="14" spans="1:7" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="19" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>89</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E19" t="s">
+        <v>91</v>
+      </c>
+      <c r="F19" t="s">
+        <v>93</v>
+      </c>
+      <c r="G19" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G20" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="F12:F14"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A17" r:id="rId1" xr:uid="{45BC8776-2DA0-4267-8E4A-BE9F129B0D3C}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40B4F63B-9E4A-4577-8E0F-8659496532A7}">
+  <dimension ref="A1:S37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B3">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="C3">
+        <v>1.77</v>
+      </c>
+      <c r="E3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B4">
+        <v>1.62</v>
+      </c>
+      <c r="C4">
+        <v>3.23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B5">
+        <v>0.71</v>
+      </c>
+      <c r="C5">
+        <v>5.95</v>
+      </c>
+      <c r="E5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>165</v>
+      </c>
+      <c r="B6">
+        <v>1.81</v>
+      </c>
+      <c r="C6">
+        <v>2.4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B7">
+        <v>0.42</v>
+      </c>
+      <c r="C7">
+        <v>1.96</v>
+      </c>
+      <c r="E7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>165</v>
+      </c>
+      <c r="B8">
+        <v>3.12</v>
+      </c>
+      <c r="C8">
+        <v>7.93</v>
+      </c>
+      <c r="E8" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F12" t="s">
+        <v>169</v>
+      </c>
+      <c r="I12" t="s">
+        <v>170</v>
+      </c>
+      <c r="L12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="C13" s="25"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="F13" s="25"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="I13" s="25"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="L13" s="25"/>
+      <c r="M13" s="26"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="27"/>
+      <c r="B14" t="s">
+        <v>174</v>
+      </c>
+      <c r="C14" t="s">
+        <v>175</v>
+      </c>
+      <c r="D14" t="s">
+        <v>176</v>
+      </c>
+      <c r="E14" t="s">
+        <v>177</v>
+      </c>
+      <c r="F14" t="s">
+        <v>175</v>
+      </c>
+      <c r="G14" t="s">
+        <v>176</v>
+      </c>
+      <c r="H14" t="s">
+        <v>177</v>
+      </c>
+      <c r="I14" t="s">
+        <v>175</v>
+      </c>
+      <c r="J14" t="s">
+        <v>176</v>
+      </c>
+      <c r="K14" t="s">
+        <v>177</v>
+      </c>
+      <c r="L14" t="s">
+        <v>175</v>
+      </c>
+      <c r="M14" s="28" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="29">
+        <v>1</v>
+      </c>
+      <c r="B15" s="29">
+        <v>740000</v>
+      </c>
+      <c r="C15" s="30">
+        <f>(B15/B15)*100</f>
+        <v>100</v>
+      </c>
+      <c r="D15" s="30">
+        <f>LOG(C15)</f>
+        <v>2</v>
+      </c>
+      <c r="E15" s="29">
+        <v>2530</v>
+      </c>
+      <c r="F15" s="30">
+        <f>(E15/B15)*100</f>
+        <v>0.3418918918918919</v>
+      </c>
+      <c r="G15" s="30">
+        <f>LOG(F15)</f>
+        <v>-0.46611119855515826</v>
+      </c>
+      <c r="H15" s="29">
+        <v>77000</v>
+      </c>
+      <c r="I15" s="30">
+        <f>(H15/B15)*100</f>
+        <v>10.405405405405405</v>
+      </c>
+      <c r="J15" s="30">
+        <f>LOG(I15)</f>
+        <v>1.0172590054415056</v>
+      </c>
+      <c r="K15" s="29">
+        <v>2900</v>
+      </c>
+      <c r="L15" s="30">
+        <f>(K15/B15)*100</f>
+        <v>0.39189189189189189</v>
+      </c>
+      <c r="M15" s="31">
+        <f>LOG(L15)</f>
+        <v>-0.4068337218320201</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="32">
+        <v>2</v>
+      </c>
+      <c r="B16" s="32">
+        <v>740000</v>
+      </c>
+      <c r="C16">
+        <f t="shared" ref="C16:C23" si="0">(B16/B16)*100</f>
+        <v>100</v>
+      </c>
+      <c r="D16">
+        <f t="shared" ref="D16:D23" si="1">LOG(C16)</f>
+        <v>2</v>
+      </c>
+      <c r="E16" s="32">
+        <v>4270</v>
+      </c>
+      <c r="F16">
+        <f t="shared" ref="F16:F23" si="2">(E16/B16)*100</f>
+        <v>0.57702702702702702</v>
+      </c>
+      <c r="G16">
+        <f t="shared" ref="G16:G23" si="3">LOG(F16)</f>
+        <v>-0.23880384470595234</v>
+      </c>
+      <c r="H16" s="32">
+        <v>46000</v>
+      </c>
+      <c r="I16">
+        <f t="shared" ref="I16:I23" si="4">(H16/B16)*100</f>
+        <v>6.2162162162162167</v>
+      </c>
+      <c r="J16">
+        <f t="shared" ref="J16:J23" si="5">LOG(I16)</f>
+        <v>0.79352611195059797</v>
+      </c>
+      <c r="K16" s="32">
+        <v>890</v>
+      </c>
+      <c r="L16">
+        <f t="shared" ref="L16:L23" si="6">(K16/B16)*100</f>
+        <v>0.12027027027027026</v>
+      </c>
+      <c r="M16" s="28">
+        <f t="shared" ref="M16:M23" si="7">LOG(L16)</f>
+        <v>-0.91984171308606344</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="32">
+        <v>3</v>
+      </c>
+      <c r="B17" s="32">
+        <v>740000</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E17" s="32">
+        <v>1470</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="2"/>
+        <v>0.19864864864864865</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="3"/>
+        <v>-0.70191438498280012</v>
+      </c>
+      <c r="H17" s="32">
+        <v>14200</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="4"/>
+        <v>1.9189189189189189</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="5"/>
+        <v>0.28305662465208026</v>
+      </c>
+      <c r="K17" s="32">
+        <v>3020</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="6"/>
+        <v>0.40810810810810816</v>
+      </c>
+      <c r="M17" s="28">
+        <f t="shared" si="7"/>
+        <v>-0.3892247767738255</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="32">
+        <v>4</v>
+      </c>
+      <c r="B18" s="32">
+        <v>203000</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E18" s="32">
+        <v>5800</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="2"/>
+        <v>2.8571428571428572</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="3"/>
+        <v>0.45593195564972439</v>
+      </c>
+      <c r="H18" s="32">
+        <v>12800</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="4"/>
+        <v>6.3054187192118221</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="5"/>
+        <v>0.79971393173465544</v>
+      </c>
+      <c r="K18" s="32">
+        <v>2020</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="6"/>
+        <v>0.99507389162561588</v>
+      </c>
+      <c r="M18" s="28">
+        <f t="shared" si="7"/>
+        <v>-2.1446684665890974E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="32">
+        <v>5</v>
+      </c>
+      <c r="B19" s="32">
+        <v>203000</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E19" s="32">
+        <v>6100</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="2"/>
+        <v>3.0049261083743843</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="3"/>
+        <v>0.47783379709755414</v>
+      </c>
+      <c r="H19" s="32">
+        <v>17300</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="4"/>
+        <v>8.5221674876847295</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="5"/>
+        <v>0.93055006521558248</v>
+      </c>
+      <c r="K19" s="32">
+        <v>14100</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="6"/>
+        <v>6.945812807881774</v>
+      </c>
+      <c r="M19" s="28">
+        <f t="shared" si="7"/>
+        <v>0.84172307474216701</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="32">
+        <v>6</v>
+      </c>
+      <c r="B20" s="32">
+        <v>203000</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E20" s="32">
+        <v>10200</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="2"/>
+        <v>5.0246305418719208</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="3"/>
+        <v>0.70110413384870462</v>
+      </c>
+      <c r="H20" s="32">
+        <v>20000</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="4"/>
+        <v>9.8522167487684733</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="5"/>
+        <v>0.99353395775076825</v>
+      </c>
+      <c r="K20" s="32">
+        <v>5100</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="6"/>
+        <v>2.5123152709359604</v>
+      </c>
+      <c r="M20" s="28">
+        <f t="shared" si="7"/>
+        <v>0.40007413818472343</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" s="32">
+        <v>7</v>
+      </c>
+      <c r="B21" s="32">
+        <v>46000</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E21" s="32">
+        <v>790</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="2"/>
+        <v>1.7173913043478262</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="3"/>
+        <v>0.23486925960886737</v>
+      </c>
+      <c r="H21" s="32">
+        <v>1470</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="4"/>
+        <v>3.195652173913043</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="5"/>
+        <v>0.50455950306660191</v>
+      </c>
+      <c r="K21" s="32">
+        <v>650</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="6"/>
+        <v>1.4130434782608696</v>
+      </c>
+      <c r="M21" s="28">
+        <f t="shared" si="7"/>
+        <v>0.15015552496128151</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" s="32">
+        <v>8</v>
+      </c>
+      <c r="B22" s="32">
+        <v>46000</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E22" s="32">
+        <v>480</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="2"/>
+        <v>1.0434782608695654</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="3"/>
+        <v>1.8483405694013223E-2</v>
+      </c>
+      <c r="H22" s="32">
+        <v>1640</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="4"/>
+        <v>3.5652173913043477</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="5"/>
+        <v>0.55208601636612376</v>
+      </c>
+      <c r="K22" s="32">
+        <v>1380</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="M22" s="28">
+        <f t="shared" si="7"/>
+        <v>0.47712125471966244</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" s="33">
+        <v>9</v>
+      </c>
+      <c r="B23" s="33">
+        <v>46000</v>
+      </c>
+      <c r="C23" s="34">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="D23" s="34">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E23" s="33">
+        <v>560</v>
+      </c>
+      <c r="F23" s="34">
+        <f t="shared" si="2"/>
+        <v>1.2173913043478262</v>
+      </c>
+      <c r="G23" s="34">
+        <f t="shared" si="3"/>
+        <v>8.5430195324626368E-2</v>
+      </c>
+      <c r="H23" s="33">
+        <v>1670</v>
+      </c>
+      <c r="I23" s="34">
+        <f t="shared" si="4"/>
+        <v>3.6304347826086958</v>
+      </c>
+      <c r="J23" s="34">
+        <f t="shared" si="5"/>
+        <v>0.55995863946600921</v>
+      </c>
+      <c r="K23" s="33">
+        <v>870</v>
+      </c>
+      <c r="L23" s="34">
+        <f t="shared" si="6"/>
+        <v>1.8913043478260869</v>
+      </c>
+      <c r="M23" s="35">
+        <f t="shared" si="7"/>
+        <v>0.27676142093704442</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="B27" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="C27" s="25"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="F27" s="25"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="I27" s="25"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="L27" s="25"/>
+      <c r="M27" s="26"/>
+      <c r="N27" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="O27" s="25"/>
+      <c r="P27" s="26"/>
+      <c r="Q27" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="R27" s="25"/>
+      <c r="S27" s="26"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" s="27"/>
+      <c r="B28" t="s">
+        <v>177</v>
+      </c>
+      <c r="C28" t="s">
+        <v>175</v>
+      </c>
+      <c r="D28" t="s">
+        <v>176</v>
+      </c>
+      <c r="E28" t="s">
+        <v>174</v>
+      </c>
+      <c r="F28" t="s">
+        <v>175</v>
+      </c>
+      <c r="G28" t="s">
+        <v>176</v>
+      </c>
+      <c r="H28" t="s">
+        <v>177</v>
+      </c>
+      <c r="I28" t="s">
+        <v>175</v>
+      </c>
+      <c r="J28" t="s">
+        <v>176</v>
+      </c>
+      <c r="K28" t="s">
+        <v>174</v>
+      </c>
+      <c r="L28" t="s">
+        <v>175</v>
+      </c>
+      <c r="M28" t="s">
+        <v>176</v>
+      </c>
+      <c r="N28" t="s">
+        <v>177</v>
+      </c>
+      <c r="O28" t="s">
+        <v>175</v>
+      </c>
+      <c r="P28" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>174</v>
+      </c>
+      <c r="R28" t="s">
+        <v>175</v>
+      </c>
+      <c r="S28" s="28" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" s="29">
+        <v>1</v>
+      </c>
+      <c r="B29" s="29">
+        <v>2530</v>
+      </c>
+      <c r="C29" s="30">
+        <f>(B29/B29)*100</f>
+        <v>100</v>
+      </c>
+      <c r="D29" s="30">
+        <f>LOG(C29)</f>
+        <v>2</v>
+      </c>
+      <c r="E29" s="29">
+        <v>30</v>
+      </c>
+      <c r="F29" s="30">
+        <f>(E29/B29)*100</f>
+        <v>1.1857707509881421</v>
+      </c>
+      <c r="G29" s="30">
+        <f>LOG(F29)</f>
+        <v>7.4000733543844455E-2</v>
+      </c>
+      <c r="H29" s="29">
+        <v>77000</v>
+      </c>
+      <c r="I29" s="30">
+        <f>(H29/H29)*100</f>
+        <v>100</v>
+      </c>
+      <c r="J29" s="30">
+        <f>LOG(I29)</f>
+        <v>2</v>
+      </c>
+      <c r="K29" s="29">
+        <v>20</v>
+      </c>
+      <c r="L29" s="30">
+        <f>(K29/B29)*100</f>
+        <v>0.79051383399209485</v>
+      </c>
+      <c r="M29" s="30">
+        <f>LOG(L29)</f>
+        <v>-0.10209052551183673</v>
+      </c>
+      <c r="N29" s="29">
+        <v>2900</v>
+      </c>
+      <c r="O29" s="30">
+        <f>(N29/N29)*100</f>
+        <v>100</v>
+      </c>
+      <c r="P29" s="30">
+        <f>LOG(O29)</f>
+        <v>2</v>
+      </c>
+      <c r="Q29" s="29">
+        <v>10</v>
+      </c>
+      <c r="R29" s="30">
+        <f>(Q29/B29)*100</f>
+        <v>0.39525691699604742</v>
+      </c>
+      <c r="S29" s="31">
+        <f>LOG(R29)</f>
+        <v>-0.40312052117581793</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30" s="32">
+        <v>2</v>
+      </c>
+      <c r="B30" s="32">
+        <v>4270</v>
+      </c>
+      <c r="C30">
+        <f t="shared" ref="C30:C37" si="8">(B30/B30)*100</f>
+        <v>100</v>
+      </c>
+      <c r="D30">
+        <f t="shared" ref="D30:D37" si="9">LOG(C30)</f>
+        <v>2</v>
+      </c>
+      <c r="E30" s="32">
+        <v>20</v>
+      </c>
+      <c r="F30">
+        <f t="shared" ref="F30:F37" si="10">(E30/B30)*100</f>
+        <v>0.46838407494145201</v>
+      </c>
+      <c r="G30">
+        <f t="shared" ref="G30:G37" si="11">LOG(F30)</f>
+        <v>-0.32939787936104264</v>
+      </c>
+      <c r="H30" s="32">
+        <v>46000</v>
+      </c>
+      <c r="I30">
+        <f t="shared" ref="I30:I37" si="12">(H30/H30)*100</f>
+        <v>100</v>
+      </c>
+      <c r="J30">
+        <f t="shared" ref="J30:J37" si="13">LOG(I30)</f>
+        <v>2</v>
+      </c>
+      <c r="K30" s="32">
+        <v>10</v>
+      </c>
+      <c r="L30">
+        <f t="shared" ref="L30:L37" si="14">(K30/B30)*100</f>
+        <v>0.23419203747072601</v>
+      </c>
+      <c r="M30">
+        <f t="shared" ref="M30:M37" si="15">LOG(L30)</f>
+        <v>-0.63042787502502384</v>
+      </c>
+      <c r="N30" s="32">
+        <v>890</v>
+      </c>
+      <c r="O30">
+        <f t="shared" ref="O30:O37" si="16">(N30/N30)*100</f>
+        <v>100</v>
+      </c>
+      <c r="P30">
+        <f t="shared" ref="P30:P37" si="17">LOG(O30)</f>
+        <v>2</v>
+      </c>
+      <c r="Q30" s="32">
+        <v>30</v>
+      </c>
+      <c r="R30">
+        <f t="shared" ref="R30:R37" si="18">(Q30/B30)*100</f>
+        <v>0.70257611241217799</v>
+      </c>
+      <c r="S30" s="28">
+        <f t="shared" ref="S30:S37" si="19">LOG(R30)</f>
+        <v>-0.15330662030536144</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31" s="32">
+        <v>3</v>
+      </c>
+      <c r="B31" s="32">
+        <v>1470</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="8"/>
+        <v>100</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="E31" s="32">
+        <v>20</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="10"/>
+        <v>1.3605442176870748</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="11"/>
+        <v>0.13371266091580508</v>
+      </c>
+      <c r="H31" s="32">
+        <v>14200</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="12"/>
+        <v>100</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="K31" s="32">
+        <v>10</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="14"/>
+        <v>0.68027210884353739</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="15"/>
+        <v>-0.16731733474817612</v>
+      </c>
+      <c r="N31" s="32">
+        <v>3020</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="16"/>
+        <v>100</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="Q31" s="32">
+        <v>30</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="18"/>
+        <v>2.0408163265306123</v>
+      </c>
+      <c r="S31" s="28">
+        <f t="shared" si="19"/>
+        <v>0.30980391997148637</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A32" s="32">
+        <v>4</v>
+      </c>
+      <c r="B32" s="32">
+        <v>5800</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="8"/>
+        <v>100</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="E32" s="32">
+        <v>20</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="10"/>
+        <v>0.34482758620689657</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="11"/>
+        <v>-0.46239799789895608</v>
+      </c>
+      <c r="H32" s="32">
+        <v>12800</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="12"/>
+        <v>100</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="K32" s="32">
+        <v>130</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="14"/>
+        <v>2.2413793103448274</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="15"/>
+        <v>0.35051535874389944</v>
+      </c>
+      <c r="N32" s="32">
+        <v>2020</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="16"/>
+        <v>100</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="Q32" s="32">
+        <v>10</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="18"/>
+        <v>0.17241379310344829</v>
+      </c>
+      <c r="S32" s="28">
+        <f t="shared" si="19"/>
+        <v>-0.76342799356293722</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A33" s="32">
+        <v>5</v>
+      </c>
+      <c r="B33" s="32">
+        <v>6100</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="8"/>
+        <v>100</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="E33" s="32">
+        <v>50</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="10"/>
+        <v>0.81967213114754101</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="11"/>
+        <v>-8.6359830674748214E-2</v>
+      </c>
+      <c r="H33" s="32">
+        <v>17300</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="12"/>
+        <v>100</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="K33" s="32">
+        <v>180</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="14"/>
+        <v>2.9508196721311477</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="15"/>
+        <v>0.46994267009253904</v>
+      </c>
+      <c r="N33" s="32">
+        <v>14100</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="16"/>
+        <v>100</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="Q33" s="32">
+        <v>150</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="18"/>
+        <v>2.459016393442623</v>
+      </c>
+      <c r="S33" s="28">
+        <f t="shared" si="19"/>
+        <v>0.39076142404491421</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A34" s="32">
+        <v>6</v>
+      </c>
+      <c r="B34" s="32">
+        <v>10200</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="8"/>
+        <v>100</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="E34" s="32">
+        <v>60</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="10"/>
+        <v>0.58823529411764708</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="11"/>
+        <v>-0.23044892137827391</v>
+      </c>
+      <c r="H34" s="32">
+        <v>20000</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="12"/>
+        <v>100</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="K34" s="32">
+        <v>210</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="14"/>
+        <v>2.0588235294117645</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="15"/>
+        <v>0.31361912297200167</v>
+      </c>
+      <c r="N34" s="32">
+        <v>5100</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="16"/>
+        <v>100</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="Q34" s="32">
+        <v>70</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="18"/>
+        <v>0.68627450980392157</v>
+      </c>
+      <c r="S34" s="28">
+        <f t="shared" si="19"/>
+        <v>-0.16350213174766073</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A35" s="32">
+        <v>7</v>
+      </c>
+      <c r="B35" s="32">
+        <v>790</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="8"/>
+        <v>100</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="E35" s="32">
+        <v>30</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="10"/>
+        <v>3.79746835443038</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="11"/>
+        <v>0.579494163429221</v>
+      </c>
+      <c r="H35" s="32">
+        <v>1470</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="12"/>
+        <v>100</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="K35" s="32">
+        <v>20</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="14"/>
+        <v>2.5316455696202533</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="15"/>
+        <v>0.40340290437353982</v>
+      </c>
+      <c r="N35" s="32">
+        <v>650</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="16"/>
+        <v>100</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="Q35" s="32">
+        <v>90</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="18"/>
+        <v>11.39240506329114</v>
+      </c>
+      <c r="S35" s="28">
+        <f t="shared" si="19"/>
+        <v>1.0566154181488834</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A36" s="32">
+        <v>8</v>
+      </c>
+      <c r="B36" s="32">
+        <v>480</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="8"/>
+        <v>100</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="E36" s="32">
+        <v>30</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="10"/>
+        <v>6.25</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="11"/>
+        <v>0.79588001734407521</v>
+      </c>
+      <c r="H36" s="32">
+        <v>1640</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="12"/>
+        <v>100</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="K36" s="32">
+        <v>40</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="14"/>
+        <v>8.3333333333333321</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="15"/>
+        <v>0.92081875395237511</v>
+      </c>
+      <c r="N36" s="32">
+        <v>1380</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="16"/>
+        <v>100</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="Q36" s="32">
+        <v>120</v>
+      </c>
+      <c r="R36">
+        <f t="shared" si="18"/>
+        <v>25</v>
+      </c>
+      <c r="S36" s="28">
+        <f t="shared" si="19"/>
+        <v>1.3979400086720377</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A37" s="33">
+        <v>9</v>
+      </c>
+      <c r="B37" s="33">
+        <v>560</v>
+      </c>
+      <c r="C37" s="34">
+        <f t="shared" si="8"/>
+        <v>100</v>
+      </c>
+      <c r="D37" s="34">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="E37" s="33">
+        <v>80</v>
+      </c>
+      <c r="F37" s="34">
+        <f t="shared" si="10"/>
+        <v>14.285714285714285</v>
+      </c>
+      <c r="G37" s="34">
+        <f t="shared" si="11"/>
+        <v>1.1549019599857431</v>
+      </c>
+      <c r="H37" s="33">
+        <v>1670</v>
+      </c>
+      <c r="I37" s="34">
+        <f t="shared" si="12"/>
+        <v>100</v>
+      </c>
+      <c r="J37" s="34">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="K37" s="33">
+        <v>10</v>
+      </c>
+      <c r="L37" s="34">
+        <f t="shared" si="14"/>
+        <v>1.7857142857142856</v>
+      </c>
+      <c r="M37" s="34">
+        <f t="shared" si="15"/>
+        <v>0.25181197299379954</v>
+      </c>
+      <c r="N37" s="33">
+        <v>870</v>
+      </c>
+      <c r="O37" s="34">
+        <f t="shared" si="16"/>
+        <v>100</v>
+      </c>
+      <c r="P37" s="34">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="Q37" s="33">
+        <v>160</v>
+      </c>
+      <c r="R37" s="34">
+        <f t="shared" si="18"/>
+        <v>28.571428571428569</v>
+      </c>
+      <c r="S37" s="35">
+        <f t="shared" si="19"/>
+        <v>1.4559319556497243</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="N27:P27"/>
+    <mergeCell ref="Q27:S27"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="K27:M27"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{DEE8A500-0CE2-4AE3-9B98-3E7458DC21EA}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD17FDFB-F49C-4B99-87DE-D5B1B6521CCE}">
   <dimension ref="A1:AC41"/>
   <sheetViews>

--- a/Model Parametrization.xlsx
+++ b/Model Parametrization.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gareyes3\Documents\GitHub\CPS-Farm-to-Facility_L_T\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE59AB81-F3A6-4C5F-B282-BD33ED5D4D18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF09EAA1-4988-44E0-A48B-3949104EA20E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{A7FC8448-A2FF-4BB1-802F-01EED4E56C52}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{A7FC8448-A2FF-4BB1-802F-01EED4E56C52}"/>
   </bookViews>
   <sheets>
     <sheet name="Flume Washing" sheetId="5" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Growth Survival Model" sheetId="2" r:id="rId3"/>
     <sheet name="Waxing" sheetId="4" r:id="rId4"/>
     <sheet name="Temperature &amp; RH Calculations" sheetId="3" r:id="rId5"/>
+    <sheet name="Freshcut-Dicing" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="183">
   <si>
     <t>Parameters</t>
   </si>
@@ -1021,17 +1022,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1042,17 +1048,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1368,10 +1369,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E6AF4F1-701C-4DEC-AB88-26A27A997BD3}">
+  <sheetPr>
+    <tabColor theme="4"/>
+  </sheetPr>
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P47" sqref="P47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1514,7 +1518,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="20"/>
+      <c r="B12" s="19"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -1681,36 +1685,36 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="C26" s="21">
+      <c r="C26" s="20">
         <v>2</v>
       </c>
-      <c r="D26" s="21" t="s">
+      <c r="D26" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="E26" s="21" t="s">
+      <c r="E26" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="F26" s="21" t="s">
+      <c r="F26" s="20" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="C27" s="21">
+      <c r="C27" s="20">
         <v>2.1</v>
       </c>
-      <c r="D27" s="21" t="s">
+      <c r="D27" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="E27" s="21" t="s">
+      <c r="E27" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="F27" s="21" t="s">
+      <c r="F27" s="20" t="s">
         <v>140</v>
       </c>
     </row>
@@ -1919,104 +1923,104 @@
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B40" s="21" t="s">
+      <c r="B40" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="C40" s="21">
+      <c r="C40" s="20">
         <v>1.3</v>
       </c>
-      <c r="D40" s="21" t="s">
+      <c r="D40" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="E40" s="21" t="s">
+      <c r="E40" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="F40" s="21" t="s">
+      <c r="F40" s="20" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B41" s="21" t="s">
+      <c r="B41" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="C41" s="21">
+      <c r="C41" s="20">
         <v>3.2</v>
       </c>
-      <c r="D41" s="21" t="s">
+      <c r="D41" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="E41" s="21" t="s">
+      <c r="E41" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="F41" s="21" t="s">
+      <c r="F41" s="20" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B42" s="21" t="s">
+      <c r="B42" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="C42" s="21">
+      <c r="C42" s="20">
         <v>3.3</v>
       </c>
-      <c r="D42" s="21" t="s">
+      <c r="D42" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="E42" s="21" t="s">
+      <c r="E42" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="F42" s="21" t="s">
+      <c r="F42" s="20" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B43" s="21" t="s">
+      <c r="B43" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="C43" s="21">
+      <c r="C43" s="20">
         <v>1</v>
       </c>
-      <c r="D43" s="21" t="s">
+      <c r="D43" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="E43" s="21" t="s">
+      <c r="E43" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="F43" s="21" t="s">
+      <c r="F43" s="20" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B44" s="21" t="s">
+      <c r="B44" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="C44" s="21">
+      <c r="C44" s="20">
         <v>1.4</v>
       </c>
-      <c r="D44" s="21" t="s">
+      <c r="D44" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="E44" s="21" t="s">
+      <c r="E44" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="F44" s="21" t="s">
+      <c r="F44" s="20" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B45" s="21" t="s">
+      <c r="B45" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="C45" s="21">
+      <c r="C45" s="20">
         <v>1.3</v>
       </c>
-      <c r="D45" s="21" t="s">
+      <c r="D45" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="E45" s="21" t="s">
+      <c r="E45" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="F45" s="21" t="s">
+      <c r="F45" s="20" t="s">
         <v>135</v>
       </c>
     </row>
@@ -2027,7 +2031,7 @@
       <c r="C46">
         <v>0.6</v>
       </c>
-      <c r="D46" s="21" t="s">
+      <c r="D46" s="20" t="s">
         <v>116</v>
       </c>
       <c r="E46" t="s">
@@ -2044,7 +2048,7 @@
       <c r="C47">
         <v>1.2</v>
       </c>
-      <c r="D47" s="21" t="s">
+      <c r="D47" s="20" t="s">
         <v>116</v>
       </c>
       <c r="E47" t="s">
@@ -2061,7 +2065,7 @@
       <c r="C48">
         <v>1.2</v>
       </c>
-      <c r="D48" s="21" t="s">
+      <c r="D48" s="20" t="s">
         <v>116</v>
       </c>
       <c r="E48" t="s">
@@ -2078,7 +2082,7 @@
       <c r="C49">
         <v>1.4</v>
       </c>
-      <c r="D49" s="21" t="s">
+      <c r="D49" s="20" t="s">
         <v>116</v>
       </c>
       <c r="E49" t="s">
@@ -2092,7 +2096,7 @@
       <c r="B50" t="s">
         <v>149</v>
       </c>
-      <c r="C50" s="22" t="s">
+      <c r="C50" s="21" t="s">
         <v>150</v>
       </c>
       <c r="E50" t="s">
@@ -2106,7 +2110,7 @@
       <c r="B51" t="s">
         <v>149</v>
       </c>
-      <c r="C51" s="22"/>
+      <c r="C51" s="21"/>
       <c r="E51" t="s">
         <v>148</v>
       </c>
@@ -2118,7 +2122,7 @@
       <c r="B52" t="s">
         <v>149</v>
       </c>
-      <c r="C52" s="22" t="s">
+      <c r="C52" s="21" t="s">
         <v>151</v>
       </c>
       <c r="E52" t="s">
@@ -2132,7 +2136,7 @@
       <c r="B53" t="s">
         <v>149</v>
       </c>
-      <c r="C53" s="22"/>
+      <c r="C53" s="21"/>
       <c r="E53" t="s">
         <v>148</v>
       </c>
@@ -2144,7 +2148,7 @@
       <c r="B54" t="s">
         <v>149</v>
       </c>
-      <c r="C54" s="22" t="s">
+      <c r="C54" s="21" t="s">
         <v>152</v>
       </c>
       <c r="E54" t="s">
@@ -2176,10 +2180,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57209929-C0F9-4A0B-B20C-FFEA9B426D53}">
+  <sheetPr>
+    <tabColor theme="4"/>
+  </sheetPr>
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2264,10 +2271,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A962840E-0617-46DB-9403-031DC4CD311E}">
+  <sheetPr>
+    <tabColor theme="4"/>
+  </sheetPr>
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="P47" sqref="P47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2462,10 +2472,10 @@
       <c r="D12" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="F12" s="18" t="s">
+      <c r="F12" s="30" t="s">
         <v>85</v>
       </c>
       <c r="G12" s="1" t="s">
@@ -2482,8 +2492,8 @@
       <c r="D13" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
     </row>
     <row r="14" spans="1:7" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
@@ -2495,11 +2505,11 @@
       <c r="D14" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="18" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2539,10 +2549,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40B4F63B-9E4A-4577-8E0F-8659496532A7}">
+  <sheetPr>
+    <tabColor theme="4"/>
+  </sheetPr>
   <dimension ref="A1:S37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P47" sqref="P47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2551,7 +2564,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>87</v>
       </c>
     </row>
@@ -2659,32 +2672,32 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="34" t="s">
         <v>171</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="31" t="s">
         <v>172</v>
       </c>
-      <c r="C13" s="25"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="24" t="s">
+      <c r="C13" s="32"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="31" t="s">
         <v>173</v>
       </c>
-      <c r="F13" s="25"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="24" t="s">
+      <c r="F13" s="32"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="31" t="s">
         <v>167</v>
       </c>
-      <c r="I13" s="25"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="24" t="s">
+      <c r="I13" s="32"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="31" t="s">
         <v>168</v>
       </c>
-      <c r="L13" s="25"/>
-      <c r="M13" s="26"/>
+      <c r="L13" s="32"/>
+      <c r="M13" s="33"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
+      <c r="A14" s="35"/>
       <c r="B14" t="s">
         <v>174</v>
       </c>
@@ -2718,64 +2731,64 @@
       <c r="L14" t="s">
         <v>175</v>
       </c>
-      <c r="M14" s="28" t="s">
+      <c r="M14" s="22" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="29">
+      <c r="A15" s="23">
         <v>1</v>
       </c>
-      <c r="B15" s="29">
+      <c r="B15" s="23">
         <v>740000</v>
       </c>
-      <c r="C15" s="30">
+      <c r="C15" s="24">
         <f>(B15/B15)*100</f>
         <v>100</v>
       </c>
-      <c r="D15" s="30">
+      <c r="D15" s="24">
         <f>LOG(C15)</f>
         <v>2</v>
       </c>
-      <c r="E15" s="29">
+      <c r="E15" s="23">
         <v>2530</v>
       </c>
-      <c r="F15" s="30">
+      <c r="F15" s="24">
         <f>(E15/B15)*100</f>
         <v>0.3418918918918919</v>
       </c>
-      <c r="G15" s="30">
+      <c r="G15" s="24">
         <f>LOG(F15)</f>
         <v>-0.46611119855515826</v>
       </c>
-      <c r="H15" s="29">
+      <c r="H15" s="23">
         <v>77000</v>
       </c>
-      <c r="I15" s="30">
+      <c r="I15" s="24">
         <f>(H15/B15)*100</f>
         <v>10.405405405405405</v>
       </c>
-      <c r="J15" s="30">
+      <c r="J15" s="24">
         <f>LOG(I15)</f>
         <v>1.0172590054415056</v>
       </c>
-      <c r="K15" s="29">
+      <c r="K15" s="23">
         <v>2900</v>
       </c>
-      <c r="L15" s="30">
+      <c r="L15" s="24">
         <f>(K15/B15)*100</f>
         <v>0.39189189189189189</v>
       </c>
-      <c r="M15" s="31">
+      <c r="M15" s="25">
         <f>LOG(L15)</f>
         <v>-0.4068337218320201</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="32">
+      <c r="A16" s="26">
         <v>2</v>
       </c>
-      <c r="B16" s="32">
+      <c r="B16" s="26">
         <v>740000</v>
       </c>
       <c r="C16">
@@ -2786,7 +2799,7 @@
         <f t="shared" ref="D16:D23" si="1">LOG(C16)</f>
         <v>2</v>
       </c>
-      <c r="E16" s="32">
+      <c r="E16" s="26">
         <v>4270</v>
       </c>
       <c r="F16">
@@ -2797,7 +2810,7 @@
         <f t="shared" ref="G16:G23" si="3">LOG(F16)</f>
         <v>-0.23880384470595234</v>
       </c>
-      <c r="H16" s="32">
+      <c r="H16" s="26">
         <v>46000</v>
       </c>
       <c r="I16">
@@ -2808,23 +2821,23 @@
         <f t="shared" ref="J16:J23" si="5">LOG(I16)</f>
         <v>0.79352611195059797</v>
       </c>
-      <c r="K16" s="32">
+      <c r="K16" s="26">
         <v>890</v>
       </c>
       <c r="L16">
         <f t="shared" ref="L16:L23" si="6">(K16/B16)*100</f>
         <v>0.12027027027027026</v>
       </c>
-      <c r="M16" s="28">
+      <c r="M16" s="22">
         <f t="shared" ref="M16:M23" si="7">LOG(L16)</f>
         <v>-0.91984171308606344</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="32">
+      <c r="A17" s="26">
         <v>3</v>
       </c>
-      <c r="B17" s="32">
+      <c r="B17" s="26">
         <v>740000</v>
       </c>
       <c r="C17">
@@ -2835,7 +2848,7 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="E17" s="32">
+      <c r="E17" s="26">
         <v>1470</v>
       </c>
       <c r="F17">
@@ -2846,7 +2859,7 @@
         <f t="shared" si="3"/>
         <v>-0.70191438498280012</v>
       </c>
-      <c r="H17" s="32">
+      <c r="H17" s="26">
         <v>14200</v>
       </c>
       <c r="I17">
@@ -2857,23 +2870,23 @@
         <f t="shared" si="5"/>
         <v>0.28305662465208026</v>
       </c>
-      <c r="K17" s="32">
+      <c r="K17" s="26">
         <v>3020</v>
       </c>
       <c r="L17">
         <f t="shared" si="6"/>
         <v>0.40810810810810816</v>
       </c>
-      <c r="M17" s="28">
+      <c r="M17" s="22">
         <f t="shared" si="7"/>
         <v>-0.3892247767738255</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="32">
+      <c r="A18" s="26">
         <v>4</v>
       </c>
-      <c r="B18" s="32">
+      <c r="B18" s="26">
         <v>203000</v>
       </c>
       <c r="C18">
@@ -2884,7 +2897,7 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="E18" s="32">
+      <c r="E18" s="26">
         <v>5800</v>
       </c>
       <c r="F18">
@@ -2895,7 +2908,7 @@
         <f t="shared" si="3"/>
         <v>0.45593195564972439</v>
       </c>
-      <c r="H18" s="32">
+      <c r="H18" s="26">
         <v>12800</v>
       </c>
       <c r="I18">
@@ -2906,23 +2919,23 @@
         <f t="shared" si="5"/>
         <v>0.79971393173465544</v>
       </c>
-      <c r="K18" s="32">
+      <c r="K18" s="26">
         <v>2020</v>
       </c>
       <c r="L18">
         <f t="shared" si="6"/>
         <v>0.99507389162561588</v>
       </c>
-      <c r="M18" s="28">
+      <c r="M18" s="22">
         <f t="shared" si="7"/>
         <v>-2.1446684665890974E-3</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="32">
+      <c r="A19" s="26">
         <v>5</v>
       </c>
-      <c r="B19" s="32">
+      <c r="B19" s="26">
         <v>203000</v>
       </c>
       <c r="C19">
@@ -2933,7 +2946,7 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="E19" s="32">
+      <c r="E19" s="26">
         <v>6100</v>
       </c>
       <c r="F19">
@@ -2944,7 +2957,7 @@
         <f t="shared" si="3"/>
         <v>0.47783379709755414</v>
       </c>
-      <c r="H19" s="32">
+      <c r="H19" s="26">
         <v>17300</v>
       </c>
       <c r="I19">
@@ -2955,23 +2968,23 @@
         <f t="shared" si="5"/>
         <v>0.93055006521558248</v>
       </c>
-      <c r="K19" s="32">
+      <c r="K19" s="26">
         <v>14100</v>
       </c>
       <c r="L19">
         <f t="shared" si="6"/>
         <v>6.945812807881774</v>
       </c>
-      <c r="M19" s="28">
+      <c r="M19" s="22">
         <f t="shared" si="7"/>
         <v>0.84172307474216701</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="32">
+      <c r="A20" s="26">
         <v>6</v>
       </c>
-      <c r="B20" s="32">
+      <c r="B20" s="26">
         <v>203000</v>
       </c>
       <c r="C20">
@@ -2982,7 +2995,7 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="E20" s="32">
+      <c r="E20" s="26">
         <v>10200</v>
       </c>
       <c r="F20">
@@ -2993,7 +3006,7 @@
         <f t="shared" si="3"/>
         <v>0.70110413384870462</v>
       </c>
-      <c r="H20" s="32">
+      <c r="H20" s="26">
         <v>20000</v>
       </c>
       <c r="I20">
@@ -3004,23 +3017,23 @@
         <f t="shared" si="5"/>
         <v>0.99353395775076825</v>
       </c>
-      <c r="K20" s="32">
+      <c r="K20" s="26">
         <v>5100</v>
       </c>
       <c r="L20">
         <f t="shared" si="6"/>
         <v>2.5123152709359604</v>
       </c>
-      <c r="M20" s="28">
+      <c r="M20" s="22">
         <f t="shared" si="7"/>
         <v>0.40007413818472343</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="32">
+      <c r="A21" s="26">
         <v>7</v>
       </c>
-      <c r="B21" s="32">
+      <c r="B21" s="26">
         <v>46000</v>
       </c>
       <c r="C21">
@@ -3031,7 +3044,7 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="E21" s="32">
+      <c r="E21" s="26">
         <v>790</v>
       </c>
       <c r="F21">
@@ -3042,7 +3055,7 @@
         <f t="shared" si="3"/>
         <v>0.23486925960886737</v>
       </c>
-      <c r="H21" s="32">
+      <c r="H21" s="26">
         <v>1470</v>
       </c>
       <c r="I21">
@@ -3053,23 +3066,23 @@
         <f t="shared" si="5"/>
         <v>0.50455950306660191</v>
       </c>
-      <c r="K21" s="32">
+      <c r="K21" s="26">
         <v>650</v>
       </c>
       <c r="L21">
         <f t="shared" si="6"/>
         <v>1.4130434782608696</v>
       </c>
-      <c r="M21" s="28">
+      <c r="M21" s="22">
         <f t="shared" si="7"/>
         <v>0.15015552496128151</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="32">
+      <c r="A22" s="26">
         <v>8</v>
       </c>
-      <c r="B22" s="32">
+      <c r="B22" s="26">
         <v>46000</v>
       </c>
       <c r="C22">
@@ -3080,7 +3093,7 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="E22" s="32">
+      <c r="E22" s="26">
         <v>480</v>
       </c>
       <c r="F22">
@@ -3091,7 +3104,7 @@
         <f t="shared" si="3"/>
         <v>1.8483405694013223E-2</v>
       </c>
-      <c r="H22" s="32">
+      <c r="H22" s="26">
         <v>1640</v>
       </c>
       <c r="I22">
@@ -3102,104 +3115,104 @@
         <f t="shared" si="5"/>
         <v>0.55208601636612376</v>
       </c>
-      <c r="K22" s="32">
+      <c r="K22" s="26">
         <v>1380</v>
       </c>
       <c r="L22">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="M22" s="28">
+      <c r="M22" s="22">
         <f t="shared" si="7"/>
         <v>0.47712125471966244</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="33">
+      <c r="A23" s="27">
         <v>9</v>
       </c>
-      <c r="B23" s="33">
+      <c r="B23" s="27">
         <v>46000</v>
       </c>
-      <c r="C23" s="34">
+      <c r="C23" s="28">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="D23" s="34">
+      <c r="D23" s="28">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="E23" s="33">
+      <c r="E23" s="27">
         <v>560</v>
       </c>
-      <c r="F23" s="34">
+      <c r="F23" s="28">
         <f t="shared" si="2"/>
         <v>1.2173913043478262</v>
       </c>
-      <c r="G23" s="34">
+      <c r="G23" s="28">
         <f t="shared" si="3"/>
         <v>8.5430195324626368E-2</v>
       </c>
-      <c r="H23" s="33">
+      <c r="H23" s="27">
         <v>1670</v>
       </c>
-      <c r="I23" s="34">
+      <c r="I23" s="28">
         <f t="shared" si="4"/>
         <v>3.6304347826086958</v>
       </c>
-      <c r="J23" s="34">
+      <c r="J23" s="28">
         <f t="shared" si="5"/>
         <v>0.55995863946600921</v>
       </c>
-      <c r="K23" s="33">
+      <c r="K23" s="27">
         <v>870</v>
       </c>
-      <c r="L23" s="34">
+      <c r="L23" s="28">
         <f t="shared" si="6"/>
         <v>1.8913043478260869</v>
       </c>
-      <c r="M23" s="35">
+      <c r="M23" s="29">
         <f t="shared" si="7"/>
         <v>0.27676142093704442</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="23" t="s">
+      <c r="A27" s="34" t="s">
         <v>171</v>
       </c>
-      <c r="B27" s="24" t="s">
+      <c r="B27" s="31" t="s">
         <v>178</v>
       </c>
-      <c r="C27" s="25"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="24" t="s">
+      <c r="C27" s="32"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="31" t="s">
         <v>173</v>
       </c>
-      <c r="F27" s="25"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="24" t="s">
+      <c r="F27" s="32"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="31" t="s">
         <v>179</v>
       </c>
-      <c r="I27" s="25"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="24" t="s">
+      <c r="I27" s="32"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="31" t="s">
         <v>167</v>
       </c>
-      <c r="L27" s="25"/>
-      <c r="M27" s="26"/>
-      <c r="N27" s="24" t="s">
+      <c r="L27" s="32"/>
+      <c r="M27" s="33"/>
+      <c r="N27" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="O27" s="25"/>
-      <c r="P27" s="26"/>
-      <c r="Q27" s="24" t="s">
+      <c r="O27" s="32"/>
+      <c r="P27" s="33"/>
+      <c r="Q27" s="31" t="s">
         <v>168</v>
       </c>
-      <c r="R27" s="25"/>
-      <c r="S27" s="26"/>
+      <c r="R27" s="32"/>
+      <c r="S27" s="33"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="27"/>
+      <c r="A28" s="35"/>
       <c r="B28" t="s">
         <v>177</v>
       </c>
@@ -3251,86 +3264,86 @@
       <c r="R28" t="s">
         <v>175</v>
       </c>
-      <c r="S28" s="28" t="s">
+      <c r="S28" s="22" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="29">
+      <c r="A29" s="23">
         <v>1</v>
       </c>
-      <c r="B29" s="29">
+      <c r="B29" s="23">
         <v>2530</v>
       </c>
-      <c r="C29" s="30">
+      <c r="C29" s="24">
         <f>(B29/B29)*100</f>
         <v>100</v>
       </c>
-      <c r="D29" s="30">
+      <c r="D29" s="24">
         <f>LOG(C29)</f>
         <v>2</v>
       </c>
-      <c r="E29" s="29">
+      <c r="E29" s="23">
         <v>30</v>
       </c>
-      <c r="F29" s="30">
+      <c r="F29" s="24">
         <f>(E29/B29)*100</f>
         <v>1.1857707509881421</v>
       </c>
-      <c r="G29" s="30">
+      <c r="G29" s="24">
         <f>LOG(F29)</f>
         <v>7.4000733543844455E-2</v>
       </c>
-      <c r="H29" s="29">
+      <c r="H29" s="23">
         <v>77000</v>
       </c>
-      <c r="I29" s="30">
+      <c r="I29" s="24">
         <f>(H29/H29)*100</f>
         <v>100</v>
       </c>
-      <c r="J29" s="30">
+      <c r="J29" s="24">
         <f>LOG(I29)</f>
         <v>2</v>
       </c>
-      <c r="K29" s="29">
+      <c r="K29" s="23">
         <v>20</v>
       </c>
-      <c r="L29" s="30">
+      <c r="L29" s="24">
         <f>(K29/B29)*100</f>
         <v>0.79051383399209485</v>
       </c>
-      <c r="M29" s="30">
+      <c r="M29" s="24">
         <f>LOG(L29)</f>
         <v>-0.10209052551183673</v>
       </c>
-      <c r="N29" s="29">
+      <c r="N29" s="23">
         <v>2900</v>
       </c>
-      <c r="O29" s="30">
+      <c r="O29" s="24">
         <f>(N29/N29)*100</f>
         <v>100</v>
       </c>
-      <c r="P29" s="30">
+      <c r="P29" s="24">
         <f>LOG(O29)</f>
         <v>2</v>
       </c>
-      <c r="Q29" s="29">
+      <c r="Q29" s="23">
         <v>10</v>
       </c>
-      <c r="R29" s="30">
+      <c r="R29" s="24">
         <f>(Q29/B29)*100</f>
         <v>0.39525691699604742</v>
       </c>
-      <c r="S29" s="31">
+      <c r="S29" s="25">
         <f>LOG(R29)</f>
         <v>-0.40312052117581793</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="32">
+      <c r="A30" s="26">
         <v>2</v>
       </c>
-      <c r="B30" s="32">
+      <c r="B30" s="26">
         <v>4270</v>
       </c>
       <c r="C30">
@@ -3341,7 +3354,7 @@
         <f t="shared" ref="D30:D37" si="9">LOG(C30)</f>
         <v>2</v>
       </c>
-      <c r="E30" s="32">
+      <c r="E30" s="26">
         <v>20</v>
       </c>
       <c r="F30">
@@ -3352,7 +3365,7 @@
         <f t="shared" ref="G30:G37" si="11">LOG(F30)</f>
         <v>-0.32939787936104264</v>
       </c>
-      <c r="H30" s="32">
+      <c r="H30" s="26">
         <v>46000</v>
       </c>
       <c r="I30">
@@ -3363,7 +3376,7 @@
         <f t="shared" ref="J30:J37" si="13">LOG(I30)</f>
         <v>2</v>
       </c>
-      <c r="K30" s="32">
+      <c r="K30" s="26">
         <v>10</v>
       </c>
       <c r="L30">
@@ -3374,7 +3387,7 @@
         <f t="shared" ref="M30:M37" si="15">LOG(L30)</f>
         <v>-0.63042787502502384</v>
       </c>
-      <c r="N30" s="32">
+      <c r="N30" s="26">
         <v>890</v>
       </c>
       <c r="O30">
@@ -3385,23 +3398,23 @@
         <f t="shared" ref="P30:P37" si="17">LOG(O30)</f>
         <v>2</v>
       </c>
-      <c r="Q30" s="32">
+      <c r="Q30" s="26">
         <v>30</v>
       </c>
       <c r="R30">
         <f t="shared" ref="R30:R37" si="18">(Q30/B30)*100</f>
         <v>0.70257611241217799</v>
       </c>
-      <c r="S30" s="28">
+      <c r="S30" s="22">
         <f t="shared" ref="S30:S37" si="19">LOG(R30)</f>
         <v>-0.15330662030536144</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="32">
+      <c r="A31" s="26">
         <v>3</v>
       </c>
-      <c r="B31" s="32">
+      <c r="B31" s="26">
         <v>1470</v>
       </c>
       <c r="C31">
@@ -3412,7 +3425,7 @@
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="E31" s="32">
+      <c r="E31" s="26">
         <v>20</v>
       </c>
       <c r="F31">
@@ -3423,7 +3436,7 @@
         <f t="shared" si="11"/>
         <v>0.13371266091580508</v>
       </c>
-      <c r="H31" s="32">
+      <c r="H31" s="26">
         <v>14200</v>
       </c>
       <c r="I31">
@@ -3434,7 +3447,7 @@
         <f t="shared" si="13"/>
         <v>2</v>
       </c>
-      <c r="K31" s="32">
+      <c r="K31" s="26">
         <v>10</v>
       </c>
       <c r="L31">
@@ -3445,7 +3458,7 @@
         <f t="shared" si="15"/>
         <v>-0.16731733474817612</v>
       </c>
-      <c r="N31" s="32">
+      <c r="N31" s="26">
         <v>3020</v>
       </c>
       <c r="O31">
@@ -3456,23 +3469,23 @@
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
-      <c r="Q31" s="32">
+      <c r="Q31" s="26">
         <v>30</v>
       </c>
       <c r="R31">
         <f t="shared" si="18"/>
         <v>2.0408163265306123</v>
       </c>
-      <c r="S31" s="28">
+      <c r="S31" s="22">
         <f t="shared" si="19"/>
         <v>0.30980391997148637</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="32">
+      <c r="A32" s="26">
         <v>4</v>
       </c>
-      <c r="B32" s="32">
+      <c r="B32" s="26">
         <v>5800</v>
       </c>
       <c r="C32">
@@ -3483,7 +3496,7 @@
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="E32" s="32">
+      <c r="E32" s="26">
         <v>20</v>
       </c>
       <c r="F32">
@@ -3494,7 +3507,7 @@
         <f t="shared" si="11"/>
         <v>-0.46239799789895608</v>
       </c>
-      <c r="H32" s="32">
+      <c r="H32" s="26">
         <v>12800</v>
       </c>
       <c r="I32">
@@ -3505,7 +3518,7 @@
         <f t="shared" si="13"/>
         <v>2</v>
       </c>
-      <c r="K32" s="32">
+      <c r="K32" s="26">
         <v>130</v>
       </c>
       <c r="L32">
@@ -3516,7 +3529,7 @@
         <f t="shared" si="15"/>
         <v>0.35051535874389944</v>
       </c>
-      <c r="N32" s="32">
+      <c r="N32" s="26">
         <v>2020</v>
       </c>
       <c r="O32">
@@ -3527,23 +3540,23 @@
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
-      <c r="Q32" s="32">
+      <c r="Q32" s="26">
         <v>10</v>
       </c>
       <c r="R32">
         <f t="shared" si="18"/>
         <v>0.17241379310344829</v>
       </c>
-      <c r="S32" s="28">
+      <c r="S32" s="22">
         <f t="shared" si="19"/>
         <v>-0.76342799356293722</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="32">
+      <c r="A33" s="26">
         <v>5</v>
       </c>
-      <c r="B33" s="32">
+      <c r="B33" s="26">
         <v>6100</v>
       </c>
       <c r="C33">
@@ -3554,7 +3567,7 @@
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="E33" s="32">
+      <c r="E33" s="26">
         <v>50</v>
       </c>
       <c r="F33">
@@ -3565,7 +3578,7 @@
         <f t="shared" si="11"/>
         <v>-8.6359830674748214E-2</v>
       </c>
-      <c r="H33" s="32">
+      <c r="H33" s="26">
         <v>17300</v>
       </c>
       <c r="I33">
@@ -3576,7 +3589,7 @@
         <f t="shared" si="13"/>
         <v>2</v>
       </c>
-      <c r="K33" s="32">
+      <c r="K33" s="26">
         <v>180</v>
       </c>
       <c r="L33">
@@ -3587,7 +3600,7 @@
         <f t="shared" si="15"/>
         <v>0.46994267009253904</v>
       </c>
-      <c r="N33" s="32">
+      <c r="N33" s="26">
         <v>14100</v>
       </c>
       <c r="O33">
@@ -3598,23 +3611,23 @@
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
-      <c r="Q33" s="32">
+      <c r="Q33" s="26">
         <v>150</v>
       </c>
       <c r="R33">
         <f t="shared" si="18"/>
         <v>2.459016393442623</v>
       </c>
-      <c r="S33" s="28">
+      <c r="S33" s="22">
         <f t="shared" si="19"/>
         <v>0.39076142404491421</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34" s="32">
+      <c r="A34" s="26">
         <v>6</v>
       </c>
-      <c r="B34" s="32">
+      <c r="B34" s="26">
         <v>10200</v>
       </c>
       <c r="C34">
@@ -3625,7 +3638,7 @@
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="E34" s="32">
+      <c r="E34" s="26">
         <v>60</v>
       </c>
       <c r="F34">
@@ -3636,7 +3649,7 @@
         <f t="shared" si="11"/>
         <v>-0.23044892137827391</v>
       </c>
-      <c r="H34" s="32">
+      <c r="H34" s="26">
         <v>20000</v>
       </c>
       <c r="I34">
@@ -3647,7 +3660,7 @@
         <f t="shared" si="13"/>
         <v>2</v>
       </c>
-      <c r="K34" s="32">
+      <c r="K34" s="26">
         <v>210</v>
       </c>
       <c r="L34">
@@ -3658,7 +3671,7 @@
         <f t="shared" si="15"/>
         <v>0.31361912297200167</v>
       </c>
-      <c r="N34" s="32">
+      <c r="N34" s="26">
         <v>5100</v>
       </c>
       <c r="O34">
@@ -3669,23 +3682,23 @@
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
-      <c r="Q34" s="32">
+      <c r="Q34" s="26">
         <v>70</v>
       </c>
       <c r="R34">
         <f t="shared" si="18"/>
         <v>0.68627450980392157</v>
       </c>
-      <c r="S34" s="28">
+      <c r="S34" s="22">
         <f t="shared" si="19"/>
         <v>-0.16350213174766073</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="32">
+      <c r="A35" s="26">
         <v>7</v>
       </c>
-      <c r="B35" s="32">
+      <c r="B35" s="26">
         <v>790</v>
       </c>
       <c r="C35">
@@ -3696,7 +3709,7 @@
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="E35" s="32">
+      <c r="E35" s="26">
         <v>30</v>
       </c>
       <c r="F35">
@@ -3707,7 +3720,7 @@
         <f t="shared" si="11"/>
         <v>0.579494163429221</v>
       </c>
-      <c r="H35" s="32">
+      <c r="H35" s="26">
         <v>1470</v>
       </c>
       <c r="I35">
@@ -3718,7 +3731,7 @@
         <f t="shared" si="13"/>
         <v>2</v>
       </c>
-      <c r="K35" s="32">
+      <c r="K35" s="26">
         <v>20</v>
       </c>
       <c r="L35">
@@ -3729,7 +3742,7 @@
         <f t="shared" si="15"/>
         <v>0.40340290437353982</v>
       </c>
-      <c r="N35" s="32">
+      <c r="N35" s="26">
         <v>650</v>
       </c>
       <c r="O35">
@@ -3740,23 +3753,23 @@
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
-      <c r="Q35" s="32">
+      <c r="Q35" s="26">
         <v>90</v>
       </c>
       <c r="R35">
         <f t="shared" si="18"/>
         <v>11.39240506329114</v>
       </c>
-      <c r="S35" s="28">
+      <c r="S35" s="22">
         <f t="shared" si="19"/>
         <v>1.0566154181488834</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="32">
+      <c r="A36" s="26">
         <v>8</v>
       </c>
-      <c r="B36" s="32">
+      <c r="B36" s="26">
         <v>480</v>
       </c>
       <c r="C36">
@@ -3767,7 +3780,7 @@
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="E36" s="32">
+      <c r="E36" s="26">
         <v>30</v>
       </c>
       <c r="F36">
@@ -3778,7 +3791,7 @@
         <f t="shared" si="11"/>
         <v>0.79588001734407521</v>
       </c>
-      <c r="H36" s="32">
+      <c r="H36" s="26">
         <v>1640</v>
       </c>
       <c r="I36">
@@ -3789,7 +3802,7 @@
         <f t="shared" si="13"/>
         <v>2</v>
       </c>
-      <c r="K36" s="32">
+      <c r="K36" s="26">
         <v>40</v>
       </c>
       <c r="L36">
@@ -3800,7 +3813,7 @@
         <f t="shared" si="15"/>
         <v>0.92081875395237511</v>
       </c>
-      <c r="N36" s="32">
+      <c r="N36" s="26">
         <v>1380</v>
       </c>
       <c r="O36">
@@ -3811,85 +3824,85 @@
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
-      <c r="Q36" s="32">
+      <c r="Q36" s="26">
         <v>120</v>
       </c>
       <c r="R36">
         <f t="shared" si="18"/>
         <v>25</v>
       </c>
-      <c r="S36" s="28">
+      <c r="S36" s="22">
         <f t="shared" si="19"/>
         <v>1.3979400086720377</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" s="33">
+      <c r="A37" s="27">
         <v>9</v>
       </c>
-      <c r="B37" s="33">
+      <c r="B37" s="27">
         <v>560</v>
       </c>
-      <c r="C37" s="34">
+      <c r="C37" s="28">
         <f t="shared" si="8"/>
         <v>100</v>
       </c>
-      <c r="D37" s="34">
+      <c r="D37" s="28">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="E37" s="33">
+      <c r="E37" s="27">
         <v>80</v>
       </c>
-      <c r="F37" s="34">
+      <c r="F37" s="28">
         <f t="shared" si="10"/>
         <v>14.285714285714285</v>
       </c>
-      <c r="G37" s="34">
+      <c r="G37" s="28">
         <f t="shared" si="11"/>
         <v>1.1549019599857431</v>
       </c>
-      <c r="H37" s="33">
+      <c r="H37" s="27">
         <v>1670</v>
       </c>
-      <c r="I37" s="34">
+      <c r="I37" s="28">
         <f t="shared" si="12"/>
         <v>100</v>
       </c>
-      <c r="J37" s="34">
+      <c r="J37" s="28">
         <f t="shared" si="13"/>
         <v>2</v>
       </c>
-      <c r="K37" s="33">
+      <c r="K37" s="27">
         <v>10</v>
       </c>
-      <c r="L37" s="34">
+      <c r="L37" s="28">
         <f t="shared" si="14"/>
         <v>1.7857142857142856</v>
       </c>
-      <c r="M37" s="34">
+      <c r="M37" s="28">
         <f t="shared" si="15"/>
         <v>0.25181197299379954</v>
       </c>
-      <c r="N37" s="33">
+      <c r="N37" s="27">
         <v>870</v>
       </c>
-      <c r="O37" s="34">
+      <c r="O37" s="28">
         <f t="shared" si="16"/>
         <v>100</v>
       </c>
-      <c r="P37" s="34">
+      <c r="P37" s="28">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
-      <c r="Q37" s="33">
+      <c r="Q37" s="27">
         <v>160</v>
       </c>
-      <c r="R37" s="34">
+      <c r="R37" s="28">
         <f t="shared" si="18"/>
         <v>28.571428571428569</v>
       </c>
-      <c r="S37" s="35">
+      <c r="S37" s="29">
         <f t="shared" si="19"/>
         <v>1.4559319556497243</v>
       </c>
@@ -3918,10 +3931,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD17FDFB-F49C-4B99-87DE-D5B1B6521CCE}">
+  <sheetPr>
+    <tabColor theme="4"/>
+  </sheetPr>
   <dimension ref="A1:AC41"/>
   <sheetViews>
     <sheetView topLeftCell="B14" workbookViewId="0">
-      <selection activeCell="O41" sqref="O41"/>
+      <selection activeCell="P47" sqref="P47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6076,4 +6092,87 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{608A327F-C009-4889-893D-98B2B73A63AD}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" customWidth="1"/>
+    <col min="6" max="6" width="27.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f xml:space="preserve"> 3.4*EXP(A14/-8.31)</f>
+        <v>3.0145135931139957</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f>10^5</f>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2511</v>
+      </c>
+      <c r="B19">
+        <f>A19/A18</f>
+        <v>2.511E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <f>10^3.4</f>
+        <v>2511.8864315095811</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Model Parametrization.xlsx
+++ b/Model Parametrization.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gareyes3\Documents\GitHub\CPS-Farm-to-Facility_L_T\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF09EAA1-4988-44E0-A48B-3949104EA20E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5AE42D6-C9BD-4771-B571-A7E512876B9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{A7FC8448-A2FF-4BB1-802F-01EED4E56C52}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{A7FC8448-A2FF-4BB1-802F-01EED4E56C52}"/>
   </bookViews>
   <sheets>
     <sheet name="Flume Washing" sheetId="5" r:id="rId1"/>
@@ -2276,7 +2276,7 @@
   </sheetPr>
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A24" workbookViewId="0">
       <selection activeCell="P47" sqref="P47"/>
     </sheetView>
   </sheetViews>
@@ -6099,23 +6099,23 @@
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:J67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" customWidth="1"/>
     <col min="3" max="3" width="19.140625" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" customWidth="1"/>
     <col min="5" max="5" width="22.28515625" customWidth="1"/>
     <col min="6" max="6" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6135,29 +6135,140 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f>10^3.4</f>
+        <v>2511.8864315095811</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1000</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <f xml:space="preserve"> 3.4*EXP(A14/-8.31)</f>
         <v>3.0145135931139957</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <f xml:space="preserve"> A15*EXP(B14/-8.31)</f>
+        <v>2.6727330009026624</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ref="C15:J15" si="0" xml:space="preserve"> B15*EXP(C14/-8.31)</f>
+        <v>2.3697029299957166</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>2.1010299100335739</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>1.8628185950986129</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>1.651615287185378</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>1.4643578628868228</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>1.2983313773104965</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>1.1511287015496787</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>1.0206156230132855</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f>10^A15</f>
+        <v>1033.9834634362355</v>
+      </c>
+      <c r="B16">
+        <f>10^B15</f>
+        <v>470.68786410993704</v>
+      </c>
+      <c r="C16">
+        <f t="shared" ref="C16:J16" si="1">10^C15</f>
+        <v>234.2625843215493</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>126.19144401470525</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>72.915287931742711</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>44.834805202665621</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>29.131165657955101</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="1"/>
+        <v>19.876109346554582</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="1"/>
+        <v>14.1621340733692</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="1"/>
+        <v>10.486139308241533</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <f>10^5</f>
         <v>100000</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2511</v>
       </c>
@@ -6166,10 +6277,698 @@
         <v>2.511E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B21">
         <f>10^3.4</f>
         <v>2511.8864315095811</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>0.25</v>
+      </c>
+      <c r="B26">
+        <v>0.25</v>
+      </c>
+      <c r="C26">
+        <v>0.25</v>
+      </c>
+      <c r="D26">
+        <v>0.25</v>
+      </c>
+      <c r="E26">
+        <v>0.25</v>
+      </c>
+      <c r="F26">
+        <v>0.25</v>
+      </c>
+      <c r="G26">
+        <v>0.25</v>
+      </c>
+      <c r="H26">
+        <v>0.25</v>
+      </c>
+      <c r="I26">
+        <v>0.25</v>
+      </c>
+      <c r="J26">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f xml:space="preserve"> 3.4*EXP(A26/-8.31)</f>
+        <v>3.2992368883014542</v>
+      </c>
+      <c r="B27">
+        <f xml:space="preserve"> A27*EXP(B26/-8.31)</f>
+        <v>3.201460013273254</v>
+      </c>
+      <c r="C27">
+        <f t="shared" ref="C27" si="2" xml:space="preserve"> B27*EXP(C26/-8.31)</f>
+        <v>3.1065808741803482</v>
+      </c>
+      <c r="D27">
+        <f t="shared" ref="D27" si="3" xml:space="preserve"> C27*EXP(D26/-8.31)</f>
+        <v>3.0145135931139952</v>
+      </c>
+      <c r="E27">
+        <f t="shared" ref="E27" si="4" xml:space="preserve"> D27*EXP(E26/-8.31)</f>
+        <v>2.9251748372611335</v>
+      </c>
+      <c r="F27">
+        <f t="shared" ref="F27" si="5" xml:space="preserve"> E27*EXP(F26/-8.31)</f>
+        <v>2.8384837434773926</v>
+      </c>
+      <c r="G27">
+        <f t="shared" ref="G27" si="6" xml:space="preserve"> F27*EXP(G26/-8.31)</f>
+        <v>2.7543618450954757</v>
+      </c>
+      <c r="H27">
+        <f t="shared" ref="H27" si="7" xml:space="preserve"> G27*EXP(H26/-8.31)</f>
+        <v>2.6727330009026615</v>
+      </c>
+      <c r="I27">
+        <f t="shared" ref="I27" si="8" xml:space="preserve"> H27*EXP(I26/-8.31)</f>
+        <v>2.5935233262231487</v>
+      </c>
+      <c r="J27">
+        <f t="shared" ref="J27" si="9" xml:space="preserve"> I27*EXP(J26/-8.31)</f>
+        <v>2.5166611260428526</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f>10^A27</f>
+        <v>1991.7594588402533</v>
+      </c>
+      <c r="B28">
+        <f>10^B27</f>
+        <v>1590.2302600639791</v>
+      </c>
+      <c r="C28">
+        <f t="shared" ref="C28" si="10">10^C27</f>
+        <v>1278.147203571915</v>
+      </c>
+      <c r="D28">
+        <f t="shared" ref="D28" si="11">10^D27</f>
+        <v>1033.9834634362346</v>
+      </c>
+      <c r="E28">
+        <f t="shared" ref="E28" si="12">10^E27</f>
+        <v>841.73393673295914</v>
+      </c>
+      <c r="F28">
+        <f t="shared" ref="F28" si="13">10^F27</f>
+        <v>689.41978630813094</v>
+      </c>
+      <c r="G28">
+        <f t="shared" ref="G28" si="14">10^G27</f>
+        <v>568.01766877093269</v>
+      </c>
+      <c r="H28">
+        <f t="shared" ref="H28" si="15">10^H27</f>
+        <v>470.68786410993619</v>
+      </c>
+      <c r="I28">
+        <f t="shared" ref="I28" si="16">10^I27</f>
+        <v>392.21421183294348</v>
+      </c>
+      <c r="J28">
+        <f t="shared" ref="J28" si="17">10^J27</f>
+        <v>328.59513259620854</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>3.4</v>
+      </c>
+      <c r="C30">
+        <f>10^B30*4</f>
+        <v>10047.545726038325</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>0.25</v>
+      </c>
+      <c r="B31">
+        <f xml:space="preserve"> B30*EXP(A31/-8.31)</f>
+        <v>3.2992368883014542</v>
+      </c>
+      <c r="C31">
+        <f>10^B31</f>
+        <v>1991.7594588402533</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <f>3.4*EXP(F31/-8.31)</f>
+        <v>3.0145135931139957</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>0.5</v>
+      </c>
+      <c r="B32">
+        <f xml:space="preserve"> B31*EXP(A32/-8.31)</f>
+        <v>3.1065808741803482</v>
+      </c>
+      <c r="C32">
+        <f t="shared" ref="C32:C67" si="18">10^B32</f>
+        <v>1278.147203571915</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+      <c r="G32">
+        <f t="shared" ref="G32:G40" si="19">3.4*EXP(F32/-8.31)</f>
+        <v>2.6727330009026629</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>0.75</v>
+      </c>
+      <c r="B33">
+        <f t="shared" ref="B32:D42" si="20" xml:space="preserve"> B32*EXP(A33/-8.31)</f>
+        <v>2.8384837434773935</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="18"/>
+        <v>689.41978630813287</v>
+      </c>
+      <c r="F33">
+        <v>3</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="19"/>
+        <v>2.3697029299957171</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="20"/>
+        <v>2.5166611260428535</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="18"/>
+        <v>328.59513259620911</v>
+      </c>
+      <c r="D34">
+        <f xml:space="preserve"> 3.4*EXP(1/-8.31)</f>
+        <v>3.0145135931139957</v>
+      </c>
+      <c r="E34">
+        <f>10^D34*1000</f>
+        <v>1033983.4634362356</v>
+      </c>
+      <c r="F34">
+        <v>4</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="19"/>
+        <v>2.1010299100335743</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>1.25</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="20"/>
+        <v>2.1651981764158315</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="18"/>
+        <v>146.2844544564561</v>
+      </c>
+      <c r="F35">
+        <v>5</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="19"/>
+        <v>1.8628185950986134</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>1.5</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="20"/>
+        <v>1.8076117132833045</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="18"/>
+        <v>64.211337066559281</v>
+      </c>
+      <c r="F36">
+        <v>6</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="19"/>
+        <v>1.6516152871853784</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>1.75</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="20"/>
+        <v>1.464357862886823</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="18"/>
+        <v>29.131165657955126</v>
+      </c>
+      <c r="F37">
+        <v>7</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="19"/>
+        <v>1.4643578628868232</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>2</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="20"/>
+        <v>1.1511287015496789</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="18"/>
+        <v>14.162134073369213</v>
+      </c>
+      <c r="F38">
+        <v>8</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="19"/>
+        <v>1.298331377310497</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>2.25</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="20"/>
+        <v>0.87808209969237028</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="18"/>
+        <v>7.5523498494687749</v>
+      </c>
+      <c r="F39">
+        <v>9</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="19"/>
+        <v>1.1511287015496792</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>2.5</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="20"/>
+        <v>0.64995149581466882</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="18"/>
+        <v>4.466337070734391</v>
+      </c>
+      <c r="F40">
+        <v>10</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="19"/>
+        <v>1.0206156230132859</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>2.75</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="20"/>
+        <v>0.46683279077303741</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="18"/>
+        <v>2.9297650290649111</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>3</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="20"/>
+        <v>0.32536912709204246</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="18"/>
+        <v>2.1152861561506566</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>3.25</v>
+      </c>
+      <c r="B43">
+        <f xml:space="preserve"> B42*EXP(A43/-8.31)</f>
+        <v>0.22005230042570928</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="18"/>
+        <v>1.6597867771847232</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>3.5</v>
+      </c>
+      <c r="B44">
+        <f t="shared" ref="B44:B67" si="21" xml:space="preserve"> B43*EXP(A44/-8.31)</f>
+        <v>0.14441425569873181</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="18"/>
+        <v>1.3944863120767688</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>3.75</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="21"/>
+        <v>9.1966318555101123E-2</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="18"/>
+        <v>1.235851584008431</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>4</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="21"/>
+        <v>5.6830584117630339E-2</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="18"/>
+        <v>1.1398050691539598</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>4.25</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="21"/>
+        <v>3.4077679980750397E-2</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="18"/>
+        <v>1.0816273990282326</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>4.5</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="21"/>
+        <v>1.9828620592720593E-2</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="18"/>
+        <v>1.046715416238464</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>4.75</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="21"/>
+        <v>1.1195656573266415E-2</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="18"/>
+        <v>1.0261141028623695</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>5</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="21"/>
+        <v>6.1339638967702059E-3</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="18"/>
+        <v>1.0142241884015266</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>5.25</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="21"/>
+        <v>3.2611249966643316E-3</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="18"/>
+        <v>1.0075372811769989</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>5.5</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="21"/>
+        <v>1.6823961178906827E-3</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="18"/>
+        <v>1.0038813733165015</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>5.75</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="21"/>
+        <v>8.4221631895008565E-4</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="18"/>
+        <v>1.0019411563504741</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>6</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="21"/>
+        <v>4.0912274926322296E-4</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="18"/>
+        <v>1.0009424838026526</v>
+      </c>
+      <c r="D54">
+        <f>260/454</f>
+        <v>0.57268722466960353</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>6.25</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="21"/>
+        <v>1.9284935401127907E-4</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="18"/>
+        <v>1.0004441506534452</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>6.5</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="21"/>
+        <v>8.8209900085657369E-5</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="18"/>
+        <v>1.0002031314293871</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>6.75</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="21"/>
+        <v>3.9151738765079837E-5</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="18"/>
+        <v>1.0000901542736975</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>7</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="21"/>
+        <v>1.6862398972451619E-5</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="18"/>
+        <v>1.000038827862288</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>7.25</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="21"/>
+        <v>7.0472917233930182E-6</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="18"/>
+        <v>1.0000162271205266</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>7.5</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="21"/>
+        <v>2.8579835236445184E-6</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="18"/>
+        <v>1.0000065807719107</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>7.75</v>
+      </c>
+      <c r="B61">
+        <f t="shared" si="21"/>
+        <v>1.1246872565414444E-6</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="18"/>
+        <v>1.0000025896914644</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>8</v>
+      </c>
+      <c r="B62">
+        <f t="shared" si="21"/>
+        <v>4.294755161261817E-7</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="18"/>
+        <v>1.0000009889044101</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>8.25</v>
+      </c>
+      <c r="B63">
+        <f t="shared" si="21"/>
+        <v>1.5914010072444976E-7</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="18"/>
+        <v>1.0000003664336907</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>8.5</v>
+      </c>
+      <c r="B64">
+        <f t="shared" si="21"/>
+        <v>5.722099815456452E-8</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="18"/>
+        <v>1.0000001317562259</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>8.75</v>
+      </c>
+      <c r="B65">
+        <f t="shared" si="21"/>
+        <v>1.9964839002800925E-8</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="18"/>
+        <v>1.0000000459707417</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>9</v>
+      </c>
+      <c r="B66">
+        <f t="shared" si="21"/>
+        <v>6.7594409405713589E-9</v>
+      </c>
+      <c r="C66">
+        <f t="shared" si="18"/>
+        <v>1.0000000155641882</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>9.25</v>
+      </c>
+      <c r="B67">
+        <f t="shared" si="21"/>
+        <v>2.2207022144894104E-9</v>
+      </c>
+      <c r="C67">
+        <f t="shared" si="18"/>
+        <v>1.0000000051133557</v>
       </c>
     </row>
   </sheetData>

--- a/Model Parametrization.xlsx
+++ b/Model Parametrization.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gareyes3\Documents\GitHub\CPS-Farm-to-Facility_L_T\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5AE42D6-C9BD-4771-B571-A7E512876B9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D65CC2F3-E4E8-435C-A2F5-9C8471ABA954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{A7FC8448-A2FF-4BB1-802F-01EED4E56C52}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="4" xr2:uid="{A7FC8448-A2FF-4BB1-802F-01EED4E56C52}"/>
   </bookViews>
   <sheets>
     <sheet name="Flume Washing" sheetId="5" r:id="rId1"/>
@@ -19,6 +19,8 @@
     <sheet name="Waxing" sheetId="4" r:id="rId4"/>
     <sheet name="Temperature &amp; RH Calculations" sheetId="3" r:id="rId5"/>
     <sheet name="Freshcut-Dicing" sheetId="7" r:id="rId6"/>
+    <sheet name="FreshCut-CC" sheetId="8" r:id="rId7"/>
+    <sheet name="FreshCut-Washing" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="192">
   <si>
     <t>Parameters</t>
   </si>
@@ -592,13 +594,46 @@
   </si>
   <si>
     <t>% Tr</t>
+  </si>
+  <si>
+    <t>Ryser and Wang, 2020</t>
+  </si>
+  <si>
+    <t>Peroxyacetic Acid (PAA), 80 ppm
+120 Sec Wash</t>
+  </si>
+  <si>
+    <t>Log Reduction</t>
+  </si>
+  <si>
+    <t>D_Wash_Eff</t>
+  </si>
+  <si>
+    <t>2.42  ± 0.14</t>
+  </si>
+  <si>
+    <t>Chlorine, 80 ppm (1.1 pp, FC)
+120 Sec Wash</t>
+  </si>
+  <si>
+    <t>Mixed Peracid, 80 ppm (1.1 pp, FC)
+120 Sec Wash</t>
+  </si>
+  <si>
+    <t>2.35  ± 0.39</t>
+  </si>
+  <si>
+    <t>2.31  ± 0.35</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -613,12 +648,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF2C2A29"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -639,6 +668,20 @@
       <color rgb="FF2E2E2E"/>
       <name val="Georgia"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF2C2A29"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -967,11 +1010,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -979,51 +1023,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1054,8 +1062,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1070,6 +1118,2445 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Validation Plot</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Freshcut-Dicing'!$A$70:$A$110</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.75</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.25</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.25</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.75</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.25</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.75</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6.75</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7.25</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7.75</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8.25</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8.75</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9.25</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9.75</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Freshcut-Dicing'!$C$70:$C$110</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.2992368883014542</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.201460013273254</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1065808741803482</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.0145135931139952</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.9251748372611335</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.8384837434773926</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.7543618450954757</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.6727330009026615</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5935233262231487</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.5166611260428526</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.4420768301161342</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.3697029299957157</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.2994739179287955</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.2313262275640451</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.1651981764158306</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.101029910033573</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.0387633478257206</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.9783421304892901</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9197115689973987</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.862818595098612</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.8076117132833034</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.7540409541735491</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.7020578292943689</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.6516152871853771</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.6026676708131167</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.5551706762455315</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.5090813125511695</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.4643578628868221</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.4209598467383786</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.3788479832807177</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.3379841558234737</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.2983313773104959</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.2598537568417711</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.2225164671875124</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.1862857132650046</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.1511287015496781</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.1170136103927215</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.0839095612183693</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.0517865905747905</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.0206156230132846</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-84FF-41A9-B3DE-B168BD35134E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1369630112"/>
+        <c:axId val="1369648832"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1369630112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1369648832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1369648832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1369630112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Contamination Plot due to trasnfer</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Freshcut-Dicing'!$A$70:$A$110</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.75</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.25</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.25</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.75</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.25</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.75</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6.75</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7.25</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7.75</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8.25</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8.75</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9.25</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9.75</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Freshcut-Dicing'!$E$70:$E$109</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>130031.74316733191</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100382.29969406856</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>78020.764123016037</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>61040.935033920076</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>48062.381675818877</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>38078.537606207043</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30350.52938429956</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24332.451165249135</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19618.41306924817</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15904.769809183737</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12963.003586737614</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10620.133481927303</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8744.4755857162381</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7235.230655380401</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6014.8262251766209</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5023.2526104376993</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4213.8505297326519</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3550.1614616447987</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3003.560275711945</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2551.466753651217</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2175.9877162958546</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1862.8810752684858</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1600.7617459334324</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1380.4901447714874</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1194.6991695855395</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1037.4266946295247</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>903.8288208282238</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>789.95520113433213</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>692.57228538103391</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>609.02371094656701</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>537.11960474926764</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>475.04847677326052</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>421.30683517621856</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>374.64275542631822</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>334.01047750114139</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>298.53375019266286</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>267.47613781977589</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>240.21688789804602</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>216.23125538136173</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>195.07441018273403</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-37C5-4B08-8077-1BA7F3FDE3F8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="579072016"/>
+        <c:axId val="579068272"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="579072016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="579068272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="579068272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="579072016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B634832-2DFB-678D-89E1-71A56A56D47E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>333374</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>146539</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{080797C1-0A5D-534B-C060-60B9C4A319DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9020174" y="7629525"/>
+          <a:ext cx="4600576" cy="3185014"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>346301</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>8844</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>374876</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>85044</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFB80D53-B2B8-14E7-1160-B864D2296326}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>546885</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>139580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>408215</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>155934</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{427A0E31-4AF9-EDFB-8CBA-009DA6E6C8BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13800242" y="4902080"/>
+          <a:ext cx="4759902" cy="2683354"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>489857</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>54430</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>292019</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>122465</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8EBCBD5-2709-44FB-EF75-6770992B2EDD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13743214" y="11484430"/>
+          <a:ext cx="5313055" cy="3116035"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1518,7 +4005,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="19"/>
+      <c r="B12" s="7"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -1685,36 +4172,36 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="C26" s="20">
+      <c r="C26" s="8">
         <v>2</v>
       </c>
-      <c r="D26" s="20" t="s">
+      <c r="D26" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="E26" s="20" t="s">
+      <c r="E26" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="F26" s="20" t="s">
+      <c r="F26" s="8" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="C27" s="20">
+      <c r="C27" s="8">
         <v>2.1</v>
       </c>
-      <c r="D27" s="20" t="s">
+      <c r="D27" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="E27" s="20" t="s">
+      <c r="E27" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="F27" s="20" t="s">
+      <c r="F27" s="8" t="s">
         <v>140</v>
       </c>
     </row>
@@ -1923,104 +4410,104 @@
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B40" s="20" t="s">
+      <c r="B40" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="C40" s="20">
+      <c r="C40" s="8">
         <v>1.3</v>
       </c>
-      <c r="D40" s="20" t="s">
+      <c r="D40" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="E40" s="20" t="s">
+      <c r="E40" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="F40" s="20" t="s">
+      <c r="F40" s="8" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B41" s="20" t="s">
+      <c r="B41" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="C41" s="20">
+      <c r="C41" s="8">
         <v>3.2</v>
       </c>
-      <c r="D41" s="20" t="s">
+      <c r="D41" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="E41" s="20" t="s">
+      <c r="E41" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="F41" s="20" t="s">
+      <c r="F41" s="8" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B42" s="20" t="s">
+      <c r="B42" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="C42" s="20">
+      <c r="C42" s="8">
         <v>3.3</v>
       </c>
-      <c r="D42" s="20" t="s">
+      <c r="D42" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="E42" s="20" t="s">
+      <c r="E42" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="F42" s="20" t="s">
+      <c r="F42" s="8" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B43" s="20" t="s">
+      <c r="B43" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="C43" s="20">
+      <c r="C43" s="8">
         <v>1</v>
       </c>
-      <c r="D43" s="20" t="s">
+      <c r="D43" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="E43" s="20" t="s">
+      <c r="E43" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="F43" s="20" t="s">
+      <c r="F43" s="8" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B44" s="20" t="s">
+      <c r="B44" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="C44" s="20">
+      <c r="C44" s="8">
         <v>1.4</v>
       </c>
-      <c r="D44" s="20" t="s">
+      <c r="D44" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="E44" s="20" t="s">
+      <c r="E44" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="F44" s="20" t="s">
+      <c r="F44" s="8" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B45" s="20" t="s">
+      <c r="B45" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="C45" s="20">
+      <c r="C45" s="8">
         <v>1.3</v>
       </c>
-      <c r="D45" s="20" t="s">
+      <c r="D45" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="E45" s="20" t="s">
+      <c r="E45" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="F45" s="20" t="s">
+      <c r="F45" s="8" t="s">
         <v>135</v>
       </c>
     </row>
@@ -2031,7 +4518,7 @@
       <c r="C46">
         <v>0.6</v>
       </c>
-      <c r="D46" s="20" t="s">
+      <c r="D46" s="8" t="s">
         <v>116</v>
       </c>
       <c r="E46" t="s">
@@ -2048,7 +4535,7 @@
       <c r="C47">
         <v>1.2</v>
       </c>
-      <c r="D47" s="20" t="s">
+      <c r="D47" s="8" t="s">
         <v>116</v>
       </c>
       <c r="E47" t="s">
@@ -2065,7 +4552,7 @@
       <c r="C48">
         <v>1.2</v>
       </c>
-      <c r="D48" s="20" t="s">
+      <c r="D48" s="8" t="s">
         <v>116</v>
       </c>
       <c r="E48" t="s">
@@ -2082,7 +4569,7 @@
       <c r="C49">
         <v>1.4</v>
       </c>
-      <c r="D49" s="20" t="s">
+      <c r="D49" s="8" t="s">
         <v>116</v>
       </c>
       <c r="E49" t="s">
@@ -2096,7 +4583,7 @@
       <c r="B50" t="s">
         <v>149</v>
       </c>
-      <c r="C50" s="21" t="s">
+      <c r="C50" s="9" t="s">
         <v>150</v>
       </c>
       <c r="E50" t="s">
@@ -2110,7 +4597,7 @@
       <c r="B51" t="s">
         <v>149</v>
       </c>
-      <c r="C51" s="21"/>
+      <c r="C51" s="9"/>
       <c r="E51" t="s">
         <v>148</v>
       </c>
@@ -2122,7 +4609,7 @@
       <c r="B52" t="s">
         <v>149</v>
       </c>
-      <c r="C52" s="21" t="s">
+      <c r="C52" s="9" t="s">
         <v>151</v>
       </c>
       <c r="E52" t="s">
@@ -2136,7 +4623,7 @@
       <c r="B53" t="s">
         <v>149</v>
       </c>
-      <c r="C53" s="21"/>
+      <c r="C53" s="9"/>
       <c r="E53" t="s">
         <v>148</v>
       </c>
@@ -2148,7 +4635,7 @@
       <c r="B54" t="s">
         <v>149</v>
       </c>
-      <c r="C54" s="21" t="s">
+      <c r="C54" s="9" t="s">
         <v>152</v>
       </c>
       <c r="E54" t="s">
@@ -2172,7 +4659,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2276,8 +4763,8 @@
   </sheetPr>
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="P47" sqref="P47"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2297,140 +4784,140 @@
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="4">
         <v>72.400000000000006</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="4">
         <v>22.1</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="5">
         <v>90</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="4">
         <v>20</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="4" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2440,25 +4927,25 @@
       </c>
     </row>
     <row r="11" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="G11" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2472,10 +4959,10 @@
       <c r="D12" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E12" s="30" t="s">
+      <c r="E12" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="F12" s="30" t="s">
+      <c r="F12" s="18" t="s">
         <v>85</v>
       </c>
       <c r="G12" s="1" t="s">
@@ -2492,8 +4979,8 @@
       <c r="D13" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
     </row>
     <row r="14" spans="1:7" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
@@ -2505,11 +4992,11 @@
       <c r="D14" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="6" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2564,7 +5051,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="6" t="s">
         <v>87</v>
       </c>
     </row>
@@ -2672,32 +5159,32 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="19" t="s">
         <v>172</v>
       </c>
-      <c r="C13" s="32"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="31" t="s">
+      <c r="C13" s="20"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="F13" s="32"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="31" t="s">
+      <c r="F13" s="20"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="I13" s="32"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="31" t="s">
+      <c r="I13" s="20"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="L13" s="32"/>
-      <c r="M13" s="33"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="21"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="35"/>
+      <c r="A14" s="23"/>
       <c r="B14" t="s">
         <v>174</v>
       </c>
@@ -2731,64 +5218,64 @@
       <c r="L14" t="s">
         <v>175</v>
       </c>
-      <c r="M14" s="22" t="s">
+      <c r="M14" s="10" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="23">
+      <c r="A15" s="11">
         <v>1</v>
       </c>
-      <c r="B15" s="23">
+      <c r="B15" s="11">
         <v>740000</v>
       </c>
-      <c r="C15" s="24">
+      <c r="C15" s="12">
         <f>(B15/B15)*100</f>
         <v>100</v>
       </c>
-      <c r="D15" s="24">
+      <c r="D15" s="12">
         <f>LOG(C15)</f>
         <v>2</v>
       </c>
-      <c r="E15" s="23">
+      <c r="E15" s="11">
         <v>2530</v>
       </c>
-      <c r="F15" s="24">
+      <c r="F15" s="12">
         <f>(E15/B15)*100</f>
         <v>0.3418918918918919</v>
       </c>
-      <c r="G15" s="24">
+      <c r="G15" s="12">
         <f>LOG(F15)</f>
         <v>-0.46611119855515826</v>
       </c>
-      <c r="H15" s="23">
+      <c r="H15" s="11">
         <v>77000</v>
       </c>
-      <c r="I15" s="24">
+      <c r="I15" s="12">
         <f>(H15/B15)*100</f>
         <v>10.405405405405405</v>
       </c>
-      <c r="J15" s="24">
+      <c r="J15" s="12">
         <f>LOG(I15)</f>
         <v>1.0172590054415056</v>
       </c>
-      <c r="K15" s="23">
+      <c r="K15" s="11">
         <v>2900</v>
       </c>
-      <c r="L15" s="24">
+      <c r="L15" s="12">
         <f>(K15/B15)*100</f>
         <v>0.39189189189189189</v>
       </c>
-      <c r="M15" s="25">
+      <c r="M15" s="13">
         <f>LOG(L15)</f>
         <v>-0.4068337218320201</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="26">
+      <c r="A16" s="14">
         <v>2</v>
       </c>
-      <c r="B16" s="26">
+      <c r="B16" s="14">
         <v>740000</v>
       </c>
       <c r="C16">
@@ -2799,7 +5286,7 @@
         <f t="shared" ref="D16:D23" si="1">LOG(C16)</f>
         <v>2</v>
       </c>
-      <c r="E16" s="26">
+      <c r="E16" s="14">
         <v>4270</v>
       </c>
       <c r="F16">
@@ -2810,7 +5297,7 @@
         <f t="shared" ref="G16:G23" si="3">LOG(F16)</f>
         <v>-0.23880384470595234</v>
       </c>
-      <c r="H16" s="26">
+      <c r="H16" s="14">
         <v>46000</v>
       </c>
       <c r="I16">
@@ -2821,23 +5308,23 @@
         <f t="shared" ref="J16:J23" si="5">LOG(I16)</f>
         <v>0.79352611195059797</v>
       </c>
-      <c r="K16" s="26">
+      <c r="K16" s="14">
         <v>890</v>
       </c>
       <c r="L16">
         <f t="shared" ref="L16:L23" si="6">(K16/B16)*100</f>
         <v>0.12027027027027026</v>
       </c>
-      <c r="M16" s="22">
+      <c r="M16" s="10">
         <f t="shared" ref="M16:M23" si="7">LOG(L16)</f>
         <v>-0.91984171308606344</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="26">
+      <c r="A17" s="14">
         <v>3</v>
       </c>
-      <c r="B17" s="26">
+      <c r="B17" s="14">
         <v>740000</v>
       </c>
       <c r="C17">
@@ -2848,7 +5335,7 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="E17" s="26">
+      <c r="E17" s="14">
         <v>1470</v>
       </c>
       <c r="F17">
@@ -2859,7 +5346,7 @@
         <f t="shared" si="3"/>
         <v>-0.70191438498280012</v>
       </c>
-      <c r="H17" s="26">
+      <c r="H17" s="14">
         <v>14200</v>
       </c>
       <c r="I17">
@@ -2870,23 +5357,23 @@
         <f t="shared" si="5"/>
         <v>0.28305662465208026</v>
       </c>
-      <c r="K17" s="26">
+      <c r="K17" s="14">
         <v>3020</v>
       </c>
       <c r="L17">
         <f t="shared" si="6"/>
         <v>0.40810810810810816</v>
       </c>
-      <c r="M17" s="22">
+      <c r="M17" s="10">
         <f t="shared" si="7"/>
         <v>-0.3892247767738255</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="26">
+      <c r="A18" s="14">
         <v>4</v>
       </c>
-      <c r="B18" s="26">
+      <c r="B18" s="14">
         <v>203000</v>
       </c>
       <c r="C18">
@@ -2897,7 +5384,7 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="E18" s="26">
+      <c r="E18" s="14">
         <v>5800</v>
       </c>
       <c r="F18">
@@ -2908,7 +5395,7 @@
         <f t="shared" si="3"/>
         <v>0.45593195564972439</v>
       </c>
-      <c r="H18" s="26">
+      <c r="H18" s="14">
         <v>12800</v>
       </c>
       <c r="I18">
@@ -2919,23 +5406,23 @@
         <f t="shared" si="5"/>
         <v>0.79971393173465544</v>
       </c>
-      <c r="K18" s="26">
+      <c r="K18" s="14">
         <v>2020</v>
       </c>
       <c r="L18">
         <f t="shared" si="6"/>
         <v>0.99507389162561588</v>
       </c>
-      <c r="M18" s="22">
+      <c r="M18" s="10">
         <f t="shared" si="7"/>
         <v>-2.1446684665890974E-3</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="26">
+      <c r="A19" s="14">
         <v>5</v>
       </c>
-      <c r="B19" s="26">
+      <c r="B19" s="14">
         <v>203000</v>
       </c>
       <c r="C19">
@@ -2946,7 +5433,7 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="E19" s="26">
+      <c r="E19" s="14">
         <v>6100</v>
       </c>
       <c r="F19">
@@ -2957,7 +5444,7 @@
         <f t="shared" si="3"/>
         <v>0.47783379709755414</v>
       </c>
-      <c r="H19" s="26">
+      <c r="H19" s="14">
         <v>17300</v>
       </c>
       <c r="I19">
@@ -2968,23 +5455,23 @@
         <f t="shared" si="5"/>
         <v>0.93055006521558248</v>
       </c>
-      <c r="K19" s="26">
+      <c r="K19" s="14">
         <v>14100</v>
       </c>
       <c r="L19">
         <f t="shared" si="6"/>
         <v>6.945812807881774</v>
       </c>
-      <c r="M19" s="22">
+      <c r="M19" s="10">
         <f t="shared" si="7"/>
         <v>0.84172307474216701</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="26">
+      <c r="A20" s="14">
         <v>6</v>
       </c>
-      <c r="B20" s="26">
+      <c r="B20" s="14">
         <v>203000</v>
       </c>
       <c r="C20">
@@ -2995,7 +5482,7 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="E20" s="26">
+      <c r="E20" s="14">
         <v>10200</v>
       </c>
       <c r="F20">
@@ -3006,7 +5493,7 @@
         <f t="shared" si="3"/>
         <v>0.70110413384870462</v>
       </c>
-      <c r="H20" s="26">
+      <c r="H20" s="14">
         <v>20000</v>
       </c>
       <c r="I20">
@@ -3017,23 +5504,23 @@
         <f t="shared" si="5"/>
         <v>0.99353395775076825</v>
       </c>
-      <c r="K20" s="26">
+      <c r="K20" s="14">
         <v>5100</v>
       </c>
       <c r="L20">
         <f t="shared" si="6"/>
         <v>2.5123152709359604</v>
       </c>
-      <c r="M20" s="22">
+      <c r="M20" s="10">
         <f t="shared" si="7"/>
         <v>0.40007413818472343</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="26">
+      <c r="A21" s="14">
         <v>7</v>
       </c>
-      <c r="B21" s="26">
+      <c r="B21" s="14">
         <v>46000</v>
       </c>
       <c r="C21">
@@ -3044,7 +5531,7 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="E21" s="26">
+      <c r="E21" s="14">
         <v>790</v>
       </c>
       <c r="F21">
@@ -3055,7 +5542,7 @@
         <f t="shared" si="3"/>
         <v>0.23486925960886737</v>
       </c>
-      <c r="H21" s="26">
+      <c r="H21" s="14">
         <v>1470</v>
       </c>
       <c r="I21">
@@ -3066,23 +5553,23 @@
         <f t="shared" si="5"/>
         <v>0.50455950306660191</v>
       </c>
-      <c r="K21" s="26">
+      <c r="K21" s="14">
         <v>650</v>
       </c>
       <c r="L21">
         <f t="shared" si="6"/>
         <v>1.4130434782608696</v>
       </c>
-      <c r="M21" s="22">
+      <c r="M21" s="10">
         <f t="shared" si="7"/>
         <v>0.15015552496128151</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="26">
+      <c r="A22" s="14">
         <v>8</v>
       </c>
-      <c r="B22" s="26">
+      <c r="B22" s="14">
         <v>46000</v>
       </c>
       <c r="C22">
@@ -3093,7 +5580,7 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="E22" s="26">
+      <c r="E22" s="14">
         <v>480</v>
       </c>
       <c r="F22">
@@ -3104,7 +5591,7 @@
         <f t="shared" si="3"/>
         <v>1.8483405694013223E-2</v>
       </c>
-      <c r="H22" s="26">
+      <c r="H22" s="14">
         <v>1640</v>
       </c>
       <c r="I22">
@@ -3115,104 +5602,104 @@
         <f t="shared" si="5"/>
         <v>0.55208601636612376</v>
       </c>
-      <c r="K22" s="26">
+      <c r="K22" s="14">
         <v>1380</v>
       </c>
       <c r="L22">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="M22" s="22">
+      <c r="M22" s="10">
         <f t="shared" si="7"/>
         <v>0.47712125471966244</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="27">
+      <c r="A23" s="15">
         <v>9</v>
       </c>
-      <c r="B23" s="27">
+      <c r="B23" s="15">
         <v>46000</v>
       </c>
-      <c r="C23" s="28">
+      <c r="C23" s="16">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="D23" s="28">
+      <c r="D23" s="16">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="E23" s="27">
+      <c r="E23" s="15">
         <v>560</v>
       </c>
-      <c r="F23" s="28">
+      <c r="F23" s="16">
         <f t="shared" si="2"/>
         <v>1.2173913043478262</v>
       </c>
-      <c r="G23" s="28">
+      <c r="G23" s="16">
         <f t="shared" si="3"/>
         <v>8.5430195324626368E-2</v>
       </c>
-      <c r="H23" s="27">
+      <c r="H23" s="15">
         <v>1670</v>
       </c>
-      <c r="I23" s="28">
+      <c r="I23" s="16">
         <f t="shared" si="4"/>
         <v>3.6304347826086958</v>
       </c>
-      <c r="J23" s="28">
+      <c r="J23" s="16">
         <f t="shared" si="5"/>
         <v>0.55995863946600921</v>
       </c>
-      <c r="K23" s="27">
+      <c r="K23" s="15">
         <v>870</v>
       </c>
-      <c r="L23" s="28">
+      <c r="L23" s="16">
         <f t="shared" si="6"/>
         <v>1.8913043478260869</v>
       </c>
-      <c r="M23" s="29">
+      <c r="M23" s="17">
         <f t="shared" si="7"/>
         <v>0.27676142093704442</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="34" t="s">
+      <c r="A27" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="B27" s="31" t="s">
+      <c r="B27" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="C27" s="32"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="31" t="s">
+      <c r="C27" s="20"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="F27" s="32"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="31" t="s">
+      <c r="F27" s="20"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="I27" s="32"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="31" t="s">
+      <c r="I27" s="20"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="L27" s="32"/>
-      <c r="M27" s="33"/>
-      <c r="N27" s="31" t="s">
+      <c r="L27" s="20"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="O27" s="32"/>
-      <c r="P27" s="33"/>
-      <c r="Q27" s="31" t="s">
+      <c r="O27" s="20"/>
+      <c r="P27" s="21"/>
+      <c r="Q27" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="R27" s="32"/>
-      <c r="S27" s="33"/>
+      <c r="R27" s="20"/>
+      <c r="S27" s="21"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="35"/>
+      <c r="A28" s="23"/>
       <c r="B28" t="s">
         <v>177</v>
       </c>
@@ -3264,86 +5751,86 @@
       <c r="R28" t="s">
         <v>175</v>
       </c>
-      <c r="S28" s="22" t="s">
+      <c r="S28" s="10" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="23">
+      <c r="A29" s="11">
         <v>1</v>
       </c>
-      <c r="B29" s="23">
+      <c r="B29" s="11">
         <v>2530</v>
       </c>
-      <c r="C29" s="24">
+      <c r="C29" s="12">
         <f>(B29/B29)*100</f>
         <v>100</v>
       </c>
-      <c r="D29" s="24">
+      <c r="D29" s="12">
         <f>LOG(C29)</f>
         <v>2</v>
       </c>
-      <c r="E29" s="23">
+      <c r="E29" s="11">
         <v>30</v>
       </c>
-      <c r="F29" s="24">
+      <c r="F29" s="12">
         <f>(E29/B29)*100</f>
         <v>1.1857707509881421</v>
       </c>
-      <c r="G29" s="24">
+      <c r="G29" s="12">
         <f>LOG(F29)</f>
         <v>7.4000733543844455E-2</v>
       </c>
-      <c r="H29" s="23">
+      <c r="H29" s="11">
         <v>77000</v>
       </c>
-      <c r="I29" s="24">
+      <c r="I29" s="12">
         <f>(H29/H29)*100</f>
         <v>100</v>
       </c>
-      <c r="J29" s="24">
+      <c r="J29" s="12">
         <f>LOG(I29)</f>
         <v>2</v>
       </c>
-      <c r="K29" s="23">
+      <c r="K29" s="11">
         <v>20</v>
       </c>
-      <c r="L29" s="24">
+      <c r="L29" s="12">
         <f>(K29/B29)*100</f>
         <v>0.79051383399209485</v>
       </c>
-      <c r="M29" s="24">
+      <c r="M29" s="12">
         <f>LOG(L29)</f>
         <v>-0.10209052551183673</v>
       </c>
-      <c r="N29" s="23">
+      <c r="N29" s="11">
         <v>2900</v>
       </c>
-      <c r="O29" s="24">
+      <c r="O29" s="12">
         <f>(N29/N29)*100</f>
         <v>100</v>
       </c>
-      <c r="P29" s="24">
+      <c r="P29" s="12">
         <f>LOG(O29)</f>
         <v>2</v>
       </c>
-      <c r="Q29" s="23">
+      <c r="Q29" s="11">
         <v>10</v>
       </c>
-      <c r="R29" s="24">
+      <c r="R29" s="12">
         <f>(Q29/B29)*100</f>
         <v>0.39525691699604742</v>
       </c>
-      <c r="S29" s="25">
+      <c r="S29" s="13">
         <f>LOG(R29)</f>
         <v>-0.40312052117581793</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="26">
+      <c r="A30" s="14">
         <v>2</v>
       </c>
-      <c r="B30" s="26">
+      <c r="B30" s="14">
         <v>4270</v>
       </c>
       <c r="C30">
@@ -3354,7 +5841,7 @@
         <f t="shared" ref="D30:D37" si="9">LOG(C30)</f>
         <v>2</v>
       </c>
-      <c r="E30" s="26">
+      <c r="E30" s="14">
         <v>20</v>
       </c>
       <c r="F30">
@@ -3365,7 +5852,7 @@
         <f t="shared" ref="G30:G37" si="11">LOG(F30)</f>
         <v>-0.32939787936104264</v>
       </c>
-      <c r="H30" s="26">
+      <c r="H30" s="14">
         <v>46000</v>
       </c>
       <c r="I30">
@@ -3376,7 +5863,7 @@
         <f t="shared" ref="J30:J37" si="13">LOG(I30)</f>
         <v>2</v>
       </c>
-      <c r="K30" s="26">
+      <c r="K30" s="14">
         <v>10</v>
       </c>
       <c r="L30">
@@ -3387,7 +5874,7 @@
         <f t="shared" ref="M30:M37" si="15">LOG(L30)</f>
         <v>-0.63042787502502384</v>
       </c>
-      <c r="N30" s="26">
+      <c r="N30" s="14">
         <v>890</v>
       </c>
       <c r="O30">
@@ -3398,23 +5885,23 @@
         <f t="shared" ref="P30:P37" si="17">LOG(O30)</f>
         <v>2</v>
       </c>
-      <c r="Q30" s="26">
+      <c r="Q30" s="14">
         <v>30</v>
       </c>
       <c r="R30">
         <f t="shared" ref="R30:R37" si="18">(Q30/B30)*100</f>
         <v>0.70257611241217799</v>
       </c>
-      <c r="S30" s="22">
+      <c r="S30" s="10">
         <f t="shared" ref="S30:S37" si="19">LOG(R30)</f>
         <v>-0.15330662030536144</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="26">
+      <c r="A31" s="14">
         <v>3</v>
       </c>
-      <c r="B31" s="26">
+      <c r="B31" s="14">
         <v>1470</v>
       </c>
       <c r="C31">
@@ -3425,7 +5912,7 @@
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="E31" s="26">
+      <c r="E31" s="14">
         <v>20</v>
       </c>
       <c r="F31">
@@ -3436,7 +5923,7 @@
         <f t="shared" si="11"/>
         <v>0.13371266091580508</v>
       </c>
-      <c r="H31" s="26">
+      <c r="H31" s="14">
         <v>14200</v>
       </c>
       <c r="I31">
@@ -3447,7 +5934,7 @@
         <f t="shared" si="13"/>
         <v>2</v>
       </c>
-      <c r="K31" s="26">
+      <c r="K31" s="14">
         <v>10</v>
       </c>
       <c r="L31">
@@ -3458,7 +5945,7 @@
         <f t="shared" si="15"/>
         <v>-0.16731733474817612</v>
       </c>
-      <c r="N31" s="26">
+      <c r="N31" s="14">
         <v>3020</v>
       </c>
       <c r="O31">
@@ -3469,23 +5956,23 @@
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
-      <c r="Q31" s="26">
+      <c r="Q31" s="14">
         <v>30</v>
       </c>
       <c r="R31">
         <f t="shared" si="18"/>
         <v>2.0408163265306123</v>
       </c>
-      <c r="S31" s="22">
+      <c r="S31" s="10">
         <f t="shared" si="19"/>
         <v>0.30980391997148637</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="26">
+      <c r="A32" s="14">
         <v>4</v>
       </c>
-      <c r="B32" s="26">
+      <c r="B32" s="14">
         <v>5800</v>
       </c>
       <c r="C32">
@@ -3496,7 +5983,7 @@
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="E32" s="26">
+      <c r="E32" s="14">
         <v>20</v>
       </c>
       <c r="F32">
@@ -3507,7 +5994,7 @@
         <f t="shared" si="11"/>
         <v>-0.46239799789895608</v>
       </c>
-      <c r="H32" s="26">
+      <c r="H32" s="14">
         <v>12800</v>
       </c>
       <c r="I32">
@@ -3518,7 +6005,7 @@
         <f t="shared" si="13"/>
         <v>2</v>
       </c>
-      <c r="K32" s="26">
+      <c r="K32" s="14">
         <v>130</v>
       </c>
       <c r="L32">
@@ -3529,7 +6016,7 @@
         <f t="shared" si="15"/>
         <v>0.35051535874389944</v>
       </c>
-      <c r="N32" s="26">
+      <c r="N32" s="14">
         <v>2020</v>
       </c>
       <c r="O32">
@@ -3540,23 +6027,23 @@
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
-      <c r="Q32" s="26">
+      <c r="Q32" s="14">
         <v>10</v>
       </c>
       <c r="R32">
         <f t="shared" si="18"/>
         <v>0.17241379310344829</v>
       </c>
-      <c r="S32" s="22">
+      <c r="S32" s="10">
         <f t="shared" si="19"/>
         <v>-0.76342799356293722</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="26">
+      <c r="A33" s="14">
         <v>5</v>
       </c>
-      <c r="B33" s="26">
+      <c r="B33" s="14">
         <v>6100</v>
       </c>
       <c r="C33">
@@ -3567,7 +6054,7 @@
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="E33" s="26">
+      <c r="E33" s="14">
         <v>50</v>
       </c>
       <c r="F33">
@@ -3578,7 +6065,7 @@
         <f t="shared" si="11"/>
         <v>-8.6359830674748214E-2</v>
       </c>
-      <c r="H33" s="26">
+      <c r="H33" s="14">
         <v>17300</v>
       </c>
       <c r="I33">
@@ -3589,7 +6076,7 @@
         <f t="shared" si="13"/>
         <v>2</v>
       </c>
-      <c r="K33" s="26">
+      <c r="K33" s="14">
         <v>180</v>
       </c>
       <c r="L33">
@@ -3600,7 +6087,7 @@
         <f t="shared" si="15"/>
         <v>0.46994267009253904</v>
       </c>
-      <c r="N33" s="26">
+      <c r="N33" s="14">
         <v>14100</v>
       </c>
       <c r="O33">
@@ -3611,23 +6098,23 @@
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
-      <c r="Q33" s="26">
+      <c r="Q33" s="14">
         <v>150</v>
       </c>
       <c r="R33">
         <f t="shared" si="18"/>
         <v>2.459016393442623</v>
       </c>
-      <c r="S33" s="22">
+      <c r="S33" s="10">
         <f t="shared" si="19"/>
         <v>0.39076142404491421</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34" s="26">
+      <c r="A34" s="14">
         <v>6</v>
       </c>
-      <c r="B34" s="26">
+      <c r="B34" s="14">
         <v>10200</v>
       </c>
       <c r="C34">
@@ -3638,7 +6125,7 @@
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="E34" s="26">
+      <c r="E34" s="14">
         <v>60</v>
       </c>
       <c r="F34">
@@ -3649,7 +6136,7 @@
         <f t="shared" si="11"/>
         <v>-0.23044892137827391</v>
       </c>
-      <c r="H34" s="26">
+      <c r="H34" s="14">
         <v>20000</v>
       </c>
       <c r="I34">
@@ -3660,7 +6147,7 @@
         <f t="shared" si="13"/>
         <v>2</v>
       </c>
-      <c r="K34" s="26">
+      <c r="K34" s="14">
         <v>210</v>
       </c>
       <c r="L34">
@@ -3671,7 +6158,7 @@
         <f t="shared" si="15"/>
         <v>0.31361912297200167</v>
       </c>
-      <c r="N34" s="26">
+      <c r="N34" s="14">
         <v>5100</v>
       </c>
       <c r="O34">
@@ -3682,23 +6169,23 @@
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
-      <c r="Q34" s="26">
+      <c r="Q34" s="14">
         <v>70</v>
       </c>
       <c r="R34">
         <f t="shared" si="18"/>
         <v>0.68627450980392157</v>
       </c>
-      <c r="S34" s="22">
+      <c r="S34" s="10">
         <f t="shared" si="19"/>
         <v>-0.16350213174766073</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="26">
+      <c r="A35" s="14">
         <v>7</v>
       </c>
-      <c r="B35" s="26">
+      <c r="B35" s="14">
         <v>790</v>
       </c>
       <c r="C35">
@@ -3709,7 +6196,7 @@
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="E35" s="26">
+      <c r="E35" s="14">
         <v>30</v>
       </c>
       <c r="F35">
@@ -3720,7 +6207,7 @@
         <f t="shared" si="11"/>
         <v>0.579494163429221</v>
       </c>
-      <c r="H35" s="26">
+      <c r="H35" s="14">
         <v>1470</v>
       </c>
       <c r="I35">
@@ -3731,7 +6218,7 @@
         <f t="shared" si="13"/>
         <v>2</v>
       </c>
-      <c r="K35" s="26">
+      <c r="K35" s="14">
         <v>20</v>
       </c>
       <c r="L35">
@@ -3742,7 +6229,7 @@
         <f t="shared" si="15"/>
         <v>0.40340290437353982</v>
       </c>
-      <c r="N35" s="26">
+      <c r="N35" s="14">
         <v>650</v>
       </c>
       <c r="O35">
@@ -3753,23 +6240,23 @@
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
-      <c r="Q35" s="26">
+      <c r="Q35" s="14">
         <v>90</v>
       </c>
       <c r="R35">
         <f t="shared" si="18"/>
         <v>11.39240506329114</v>
       </c>
-      <c r="S35" s="22">
+      <c r="S35" s="10">
         <f t="shared" si="19"/>
         <v>1.0566154181488834</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="26">
+      <c r="A36" s="14">
         <v>8</v>
       </c>
-      <c r="B36" s="26">
+      <c r="B36" s="14">
         <v>480</v>
       </c>
       <c r="C36">
@@ -3780,7 +6267,7 @@
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="E36" s="26">
+      <c r="E36" s="14">
         <v>30</v>
       </c>
       <c r="F36">
@@ -3791,7 +6278,7 @@
         <f t="shared" si="11"/>
         <v>0.79588001734407521</v>
       </c>
-      <c r="H36" s="26">
+      <c r="H36" s="14">
         <v>1640</v>
       </c>
       <c r="I36">
@@ -3802,7 +6289,7 @@
         <f t="shared" si="13"/>
         <v>2</v>
       </c>
-      <c r="K36" s="26">
+      <c r="K36" s="14">
         <v>40</v>
       </c>
       <c r="L36">
@@ -3813,7 +6300,7 @@
         <f t="shared" si="15"/>
         <v>0.92081875395237511</v>
       </c>
-      <c r="N36" s="26">
+      <c r="N36" s="14">
         <v>1380</v>
       </c>
       <c r="O36">
@@ -3824,85 +6311,85 @@
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
-      <c r="Q36" s="26">
+      <c r="Q36" s="14">
         <v>120</v>
       </c>
       <c r="R36">
         <f t="shared" si="18"/>
         <v>25</v>
       </c>
-      <c r="S36" s="22">
+      <c r="S36" s="10">
         <f t="shared" si="19"/>
         <v>1.3979400086720377</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" s="27">
+      <c r="A37" s="15">
         <v>9</v>
       </c>
-      <c r="B37" s="27">
+      <c r="B37" s="15">
         <v>560</v>
       </c>
-      <c r="C37" s="28">
+      <c r="C37" s="16">
         <f t="shared" si="8"/>
         <v>100</v>
       </c>
-      <c r="D37" s="28">
+      <c r="D37" s="16">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="E37" s="27">
+      <c r="E37" s="15">
         <v>80</v>
       </c>
-      <c r="F37" s="28">
+      <c r="F37" s="16">
         <f t="shared" si="10"/>
         <v>14.285714285714285</v>
       </c>
-      <c r="G37" s="28">
+      <c r="G37" s="16">
         <f t="shared" si="11"/>
         <v>1.1549019599857431</v>
       </c>
-      <c r="H37" s="27">
+      <c r="H37" s="15">
         <v>1670</v>
       </c>
-      <c r="I37" s="28">
+      <c r="I37" s="16">
         <f t="shared" si="12"/>
         <v>100</v>
       </c>
-      <c r="J37" s="28">
+      <c r="J37" s="16">
         <f t="shared" si="13"/>
         <v>2</v>
       </c>
-      <c r="K37" s="27">
+      <c r="K37" s="15">
         <v>10</v>
       </c>
-      <c r="L37" s="28">
+      <c r="L37" s="16">
         <f t="shared" si="14"/>
         <v>1.7857142857142856</v>
       </c>
-      <c r="M37" s="28">
+      <c r="M37" s="16">
         <f t="shared" si="15"/>
         <v>0.25181197299379954</v>
       </c>
-      <c r="N37" s="27">
+      <c r="N37" s="15">
         <v>870</v>
       </c>
-      <c r="O37" s="28">
+      <c r="O37" s="16">
         <f t="shared" si="16"/>
         <v>100</v>
       </c>
-      <c r="P37" s="28">
+      <c r="P37" s="16">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
-      <c r="Q37" s="27">
+      <c r="Q37" s="15">
         <v>160</v>
       </c>
-      <c r="R37" s="28">
+      <c r="R37" s="16">
         <f t="shared" si="18"/>
         <v>28.571428571428569</v>
       </c>
-      <c r="S37" s="29">
+      <c r="S37" s="17">
         <f t="shared" si="19"/>
         <v>1.4559319556497243</v>
       </c>
@@ -3936,2154 +6423,2168 @@
   </sheetPr>
   <dimension ref="A1:AC41"/>
   <sheetViews>
-    <sheetView topLeftCell="B14" workbookViewId="0">
-      <selection activeCell="P47" sqref="P47"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="AC39" sqref="AC39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="26"/>
+    <col min="2" max="2" width="5" style="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="4.5703125" style="26" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.140625" style="26" bestFit="1" customWidth="1"/>
+    <col min="6" max="12" width="5" style="26" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.140625" style="26" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5" style="26" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12" style="26" bestFit="1" customWidth="1"/>
+    <col min="16" max="27" width="3" style="26" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12" style="26" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="3" style="26" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="26"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:29" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="28">
         <v>42</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="28">
         <v>42</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="28">
         <v>85</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="28">
         <v>66</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="28">
         <v>86</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="28">
         <v>65</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="28">
         <v>86</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="28">
         <v>65</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="28">
         <v>86</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2" s="28">
         <v>64</v>
       </c>
-      <c r="L2" s="5">
+      <c r="L2" s="28">
         <v>85</v>
       </c>
-      <c r="M2" s="5">
+      <c r="M2" s="28">
         <v>65</v>
       </c>
-      <c r="N2" s="5">
+      <c r="N2" s="28">
         <v>85</v>
       </c>
-      <c r="O2" s="5">
+      <c r="O2" s="28">
         <v>67</v>
       </c>
-      <c r="P2" s="5">
+      <c r="P2" s="28">
         <v>86</v>
       </c>
-      <c r="Q2" s="5">
+      <c r="Q2" s="28">
         <v>71</v>
       </c>
-      <c r="R2" s="5">
+      <c r="R2" s="28">
         <v>88</v>
       </c>
-      <c r="S2" s="5">
+      <c r="S2" s="28">
         <v>75</v>
       </c>
-      <c r="T2" s="5">
+      <c r="T2" s="28">
         <v>88</v>
       </c>
-      <c r="U2" s="5">
+      <c r="U2" s="28">
         <v>69</v>
       </c>
-      <c r="V2" s="5">
+      <c r="V2" s="28">
         <v>86</v>
       </c>
-      <c r="W2" s="5">
+      <c r="W2" s="28">
         <v>62</v>
       </c>
-      <c r="X2" s="5">
+      <c r="X2" s="28">
         <v>85</v>
       </c>
-      <c r="Y2" s="5">
+      <c r="Y2" s="28">
         <v>63</v>
       </c>
-      <c r="Z2" s="5">
+      <c r="Z2" s="28">
         <v>86</v>
       </c>
-      <c r="AA2" s="5">
+      <c r="AA2" s="28">
         <v>67</v>
       </c>
-      <c r="AB2" s="5">
+      <c r="AB2" s="28">
         <v>67</v>
       </c>
-      <c r="AC2" s="6">
+      <c r="AC2" s="29">
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="31">
         <v>61</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="31">
         <v>61</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="31">
         <v>88</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="31">
         <v>59</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="31">
         <v>87</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="31">
         <v>57</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="31">
         <v>87</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="31">
         <v>56</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="31">
         <v>86</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="31">
         <v>53</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L3" s="31">
         <v>85</v>
       </c>
-      <c r="M3" s="3">
+      <c r="M3" s="31">
         <v>57</v>
       </c>
-      <c r="N3" s="3">
+      <c r="N3" s="31">
         <v>87</v>
       </c>
-      <c r="O3" s="3">
+      <c r="O3" s="31">
         <v>63</v>
       </c>
-      <c r="P3" s="3">
+      <c r="P3" s="31">
         <v>89</v>
       </c>
-      <c r="Q3" s="3">
+      <c r="Q3" s="31">
         <v>64</v>
       </c>
-      <c r="R3" s="3">
+      <c r="R3" s="31">
         <v>91</v>
       </c>
-      <c r="S3" s="3">
+      <c r="S3" s="31">
         <v>67</v>
       </c>
-      <c r="T3" s="3">
+      <c r="T3" s="31">
         <v>90</v>
       </c>
-      <c r="U3" s="3">
+      <c r="U3" s="31">
         <v>67</v>
       </c>
-      <c r="V3" s="3">
+      <c r="V3" s="31">
         <v>87</v>
       </c>
-      <c r="W3" s="3">
+      <c r="W3" s="31">
         <v>63</v>
       </c>
-      <c r="X3" s="3">
+      <c r="X3" s="31">
         <v>88</v>
       </c>
-      <c r="Y3" s="3">
+      <c r="Y3" s="31">
         <v>60</v>
       </c>
-      <c r="Z3" s="3">
+      <c r="Z3" s="31">
         <v>88</v>
       </c>
-      <c r="AA3" s="3">
+      <c r="AA3" s="31">
         <v>61</v>
       </c>
-      <c r="AB3" s="3">
+      <c r="AB3" s="31">
         <v>88</v>
       </c>
-      <c r="AC3" s="8">
+      <c r="AC3" s="32">
         <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="31">
         <v>61</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="31">
         <v>61</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="31">
         <v>89</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="31">
         <v>57</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="31">
         <v>89</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="31">
         <v>55</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="31">
         <v>89</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="31">
         <v>52</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="31">
         <v>88</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="31">
         <v>48</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4" s="31">
         <v>88</v>
       </c>
-      <c r="M4" s="3">
+      <c r="M4" s="31">
         <v>50</v>
       </c>
-      <c r="N4" s="3">
+      <c r="N4" s="31">
         <v>89</v>
       </c>
-      <c r="O4" s="3">
+      <c r="O4" s="31">
         <v>58</v>
       </c>
-      <c r="P4" s="3">
+      <c r="P4" s="31">
         <v>89</v>
       </c>
-      <c r="Q4" s="3">
+      <c r="Q4" s="31">
         <v>60</v>
       </c>
-      <c r="R4" s="3">
+      <c r="R4" s="31">
         <v>91</v>
       </c>
-      <c r="S4" s="3">
+      <c r="S4" s="31">
         <v>61</v>
       </c>
-      <c r="T4" s="3">
+      <c r="T4" s="31">
         <v>92</v>
       </c>
-      <c r="U4" s="3">
+      <c r="U4" s="31">
         <v>61</v>
       </c>
-      <c r="V4" s="3">
+      <c r="V4" s="31">
         <v>90</v>
       </c>
-      <c r="W4" s="3">
+      <c r="W4" s="31">
         <v>57</v>
       </c>
-      <c r="X4" s="3">
+      <c r="X4" s="31">
         <v>90</v>
       </c>
-      <c r="Y4" s="3">
+      <c r="Y4" s="31">
         <v>56</v>
       </c>
-      <c r="Z4" s="3">
+      <c r="Z4" s="31">
         <v>89</v>
       </c>
-      <c r="AA4" s="3">
+      <c r="AA4" s="31">
         <v>57</v>
       </c>
-      <c r="AB4" s="3">
+      <c r="AB4" s="31">
         <v>89</v>
       </c>
-      <c r="AC4" s="8">
+      <c r="AC4" s="32">
         <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:29" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="31">
         <v>22</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="31">
         <v>22</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="31">
         <v>89</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="31">
         <v>59</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="31">
         <v>89</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="31">
         <v>56</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="31">
         <v>91</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="31">
         <v>53</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="31">
         <v>90</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="31">
         <v>49</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L5" s="31">
         <v>91</v>
       </c>
-      <c r="M5" s="3">
+      <c r="M5" s="31">
         <v>50</v>
       </c>
-      <c r="N5" s="3">
+      <c r="N5" s="31">
         <v>89</v>
       </c>
-      <c r="O5" s="3">
+      <c r="O5" s="31">
         <v>57</v>
       </c>
-      <c r="P5" s="3">
+      <c r="P5" s="31">
         <v>89</v>
       </c>
-      <c r="Q5" s="3">
+      <c r="Q5" s="31">
         <v>60</v>
       </c>
-      <c r="R5" s="3">
+      <c r="R5" s="31">
         <v>91</v>
       </c>
-      <c r="S5" s="3">
+      <c r="S5" s="31">
         <v>61</v>
       </c>
-      <c r="T5" s="3">
+      <c r="T5" s="31">
         <v>95</v>
       </c>
-      <c r="U5" s="3">
+      <c r="U5" s="31">
         <v>64</v>
       </c>
-      <c r="V5" s="3">
+      <c r="V5" s="31">
         <v>93</v>
       </c>
-      <c r="W5" s="3">
+      <c r="W5" s="31">
         <v>61</v>
       </c>
-      <c r="X5" s="3">
+      <c r="X5" s="31">
         <v>93</v>
       </c>
-      <c r="Y5" s="3">
+      <c r="Y5" s="31">
         <v>59</v>
       </c>
-      <c r="Z5" s="3">
+      <c r="Z5" s="31">
         <v>91</v>
       </c>
-      <c r="AA5" s="3">
+      <c r="AA5" s="31">
         <v>60</v>
       </c>
-      <c r="AB5" s="3">
+      <c r="AB5" s="31">
         <v>91</v>
       </c>
-      <c r="AC5" s="8">
+      <c r="AC5" s="32">
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="31">
         <v>69</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="31">
         <v>69</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="31">
         <v>88</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="31">
         <v>58</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="31">
         <v>87</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="31">
         <v>54</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="31">
         <v>87</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="31">
         <v>50</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="31">
         <v>87</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="31">
         <v>48</v>
       </c>
-      <c r="L6" s="3">
+      <c r="L6" s="31">
         <v>86</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6" s="31">
         <v>51</v>
       </c>
-      <c r="N6" s="3">
+      <c r="N6" s="31">
         <v>88</v>
       </c>
-      <c r="O6" s="3">
+      <c r="O6" s="31">
         <v>57</v>
       </c>
-      <c r="P6" s="3">
+      <c r="P6" s="31">
         <v>89</v>
       </c>
-      <c r="Q6" s="3">
+      <c r="Q6" s="31">
         <v>59</v>
       </c>
-      <c r="R6" s="3">
+      <c r="R6" s="31">
         <v>92</v>
       </c>
-      <c r="S6" s="3">
+      <c r="S6" s="31">
         <v>61</v>
       </c>
-      <c r="T6" s="3">
+      <c r="T6" s="31">
         <v>92</v>
       </c>
-      <c r="U6" s="3">
+      <c r="U6" s="31">
         <v>63</v>
       </c>
-      <c r="V6" s="3">
+      <c r="V6" s="31">
         <v>91</v>
       </c>
-      <c r="W6" s="3">
+      <c r="W6" s="31">
         <v>59</v>
       </c>
-      <c r="X6" s="3">
+      <c r="X6" s="31">
         <v>90</v>
       </c>
-      <c r="Y6" s="3">
+      <c r="Y6" s="31">
         <v>57</v>
       </c>
-      <c r="Z6" s="3">
+      <c r="Z6" s="31">
         <v>89</v>
       </c>
-      <c r="AA6" s="3">
+      <c r="AA6" s="31">
         <v>59</v>
       </c>
-      <c r="AB6" s="3">
+      <c r="AB6" s="31">
         <v>89</v>
       </c>
-      <c r="AC6" s="8">
+      <c r="AC6" s="32">
         <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:29" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="31">
         <v>57</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="31">
         <v>57</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="31">
         <v>82</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="31">
         <v>69</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="31">
         <v>81</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="31">
         <v>67</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="31">
         <v>80</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="31">
         <v>66</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="31">
         <v>77</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7" s="31">
         <v>64</v>
       </c>
-      <c r="L7" s="3">
+      <c r="L7" s="31">
         <v>77</v>
       </c>
-      <c r="M7" s="3">
+      <c r="M7" s="31">
         <v>66</v>
       </c>
-      <c r="N7" s="3">
+      <c r="N7" s="31">
         <v>78</v>
       </c>
-      <c r="O7" s="3">
+      <c r="O7" s="31">
         <v>69</v>
       </c>
-      <c r="P7" s="3">
+      <c r="P7" s="31">
         <v>77</v>
       </c>
-      <c r="Q7" s="3">
+      <c r="Q7" s="31">
         <v>67</v>
       </c>
-      <c r="R7" s="3">
+      <c r="R7" s="31">
         <v>78</v>
       </c>
-      <c r="S7" s="3">
+      <c r="S7" s="31">
         <v>67</v>
       </c>
-      <c r="T7" s="3">
+      <c r="T7" s="31">
         <v>81</v>
       </c>
-      <c r="U7" s="3">
+      <c r="U7" s="31">
         <v>70</v>
       </c>
-      <c r="V7" s="3">
+      <c r="V7" s="31">
         <v>82</v>
       </c>
-      <c r="W7" s="3">
+      <c r="W7" s="31">
         <v>69</v>
       </c>
-      <c r="X7" s="3">
+      <c r="X7" s="31">
         <v>83</v>
       </c>
-      <c r="Y7" s="3">
+      <c r="Y7" s="31">
         <v>69</v>
       </c>
-      <c r="Z7" s="3">
+      <c r="Z7" s="31">
         <v>83</v>
       </c>
-      <c r="AA7" s="3">
+      <c r="AA7" s="31">
         <v>70</v>
       </c>
-      <c r="AB7" s="3">
+      <c r="AB7" s="31">
         <v>80</v>
       </c>
-      <c r="AC7" s="8">
+      <c r="AC7" s="32">
         <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="31">
         <v>41</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="31">
         <v>41</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="31">
         <v>85</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="31">
         <v>60</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="31">
         <v>84</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="31">
         <v>58</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="31">
         <v>82</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="31">
         <v>57</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="31">
         <v>79</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="31">
         <v>54</v>
       </c>
-      <c r="L8" s="3">
+      <c r="L8" s="31">
         <v>80</v>
       </c>
-      <c r="M8" s="3">
+      <c r="M8" s="31">
         <v>59</v>
       </c>
-      <c r="N8" s="3">
+      <c r="N8" s="31">
         <v>84</v>
       </c>
-      <c r="O8" s="3">
+      <c r="O8" s="31">
         <v>66</v>
       </c>
-      <c r="P8" s="3">
+      <c r="P8" s="31">
         <v>83</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="Q8" s="31">
         <v>63</v>
       </c>
-      <c r="R8" s="3">
+      <c r="R8" s="31">
         <v>85</v>
       </c>
-      <c r="S8" s="3">
+      <c r="S8" s="31">
         <v>65</v>
       </c>
-      <c r="T8" s="3">
+      <c r="T8" s="31">
         <v>87</v>
       </c>
-      <c r="U8" s="3">
+      <c r="U8" s="31">
         <v>67</v>
       </c>
-      <c r="V8" s="3">
+      <c r="V8" s="31">
         <v>86</v>
       </c>
-      <c r="W8" s="3">
+      <c r="W8" s="31">
         <v>63</v>
       </c>
-      <c r="X8" s="3">
+      <c r="X8" s="31">
         <v>84</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Y8" s="31">
         <v>62</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="Z8" s="31">
         <v>84</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AA8" s="31">
         <v>60</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AB8" s="31">
         <v>83</v>
       </c>
-      <c r="AC8" s="8">
+      <c r="AC8" s="32">
         <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:29" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="31">
         <v>42</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="31">
         <v>42</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="31">
         <v>88</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="31">
         <v>57</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="31">
         <v>88</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="31">
         <v>53</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="31">
         <v>89</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="31">
         <v>51</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="31">
         <v>88</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="31">
         <v>47</v>
       </c>
-      <c r="L9" s="3">
+      <c r="L9" s="31">
         <v>88</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M9" s="31">
         <v>50</v>
       </c>
-      <c r="N9" s="3">
+      <c r="N9" s="31">
         <v>90</v>
       </c>
-      <c r="O9" s="3">
+      <c r="O9" s="31">
         <v>58</v>
       </c>
-      <c r="P9" s="3">
+      <c r="P9" s="31">
         <v>91</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="Q9" s="31">
         <v>59</v>
       </c>
-      <c r="R9" s="3">
+      <c r="R9" s="31">
         <v>93</v>
       </c>
-      <c r="S9" s="3">
+      <c r="S9" s="31">
         <v>60</v>
       </c>
-      <c r="T9" s="3">
+      <c r="T9" s="31">
         <v>92</v>
       </c>
-      <c r="U9" s="3">
+      <c r="U9" s="31">
         <v>61</v>
       </c>
-      <c r="V9" s="3">
+      <c r="V9" s="31">
         <v>90</v>
       </c>
-      <c r="W9" s="3">
+      <c r="W9" s="31">
         <v>57</v>
       </c>
-      <c r="X9" s="3">
+      <c r="X9" s="31">
         <v>90</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Y9" s="31">
         <v>56</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="Z9" s="31">
         <v>89</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AA9" s="31">
         <v>58</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AB9" s="31">
         <v>90</v>
       </c>
-      <c r="AC9" s="8">
+      <c r="AC9" s="32">
         <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:29" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="31">
         <v>42</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="31">
         <v>42</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="31">
         <v>82</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="31">
         <v>66</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="31">
         <v>82</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="31">
         <v>63</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="31">
         <v>84</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="31">
         <v>63</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="31">
         <v>86</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="31">
         <v>62</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L10" s="31">
         <v>87</v>
       </c>
-      <c r="M10" s="3">
+      <c r="M10" s="31">
         <v>63</v>
       </c>
-      <c r="N10" s="3">
+      <c r="N10" s="31">
         <v>85</v>
       </c>
-      <c r="O10" s="3">
+      <c r="O10" s="31">
         <v>63</v>
       </c>
-      <c r="P10" s="3">
+      <c r="P10" s="31">
         <v>86</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="Q10" s="31">
         <v>67</v>
       </c>
-      <c r="R10" s="3">
+      <c r="R10" s="31">
         <v>88</v>
       </c>
-      <c r="S10" s="3">
+      <c r="S10" s="31">
         <v>68</v>
       </c>
-      <c r="T10" s="3">
+      <c r="T10" s="31">
         <v>85</v>
       </c>
-      <c r="U10" s="3">
+      <c r="U10" s="31">
         <v>64</v>
       </c>
-      <c r="V10" s="3">
+      <c r="V10" s="31">
         <v>82</v>
       </c>
-      <c r="W10" s="3">
+      <c r="W10" s="31">
         <v>59</v>
       </c>
-      <c r="X10" s="3">
+      <c r="X10" s="31">
         <v>82</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Y10" s="31">
         <v>62</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="Z10" s="31">
         <v>81</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AA10" s="31">
         <v>66</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AB10" s="31">
         <v>84</v>
       </c>
-      <c r="AC10" s="8">
+      <c r="AC10" s="32">
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:29" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+    <row r="11" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="31">
         <v>44</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="31">
         <v>44</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="31">
         <v>87</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="31">
         <v>57</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="31">
         <v>87</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="31">
         <v>54</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="31">
         <v>89</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="31">
         <v>51</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="31">
         <v>91</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K11" s="31">
         <v>47</v>
       </c>
-      <c r="L11" s="3">
+      <c r="L11" s="31">
         <v>90</v>
       </c>
-      <c r="M11" s="3">
+      <c r="M11" s="31">
         <v>50</v>
       </c>
-      <c r="N11" s="3">
+      <c r="N11" s="31">
         <v>91</v>
       </c>
-      <c r="O11" s="3">
+      <c r="O11" s="31">
         <v>56</v>
       </c>
-      <c r="P11" s="3">
+      <c r="P11" s="31">
         <v>93</v>
       </c>
-      <c r="Q11" s="3">
+      <c r="Q11" s="31">
         <v>61</v>
       </c>
-      <c r="R11" s="3">
+      <c r="R11" s="31">
         <v>94</v>
       </c>
-      <c r="S11" s="3">
+      <c r="S11" s="31">
         <v>61</v>
       </c>
-      <c r="T11" s="3">
+      <c r="T11" s="31">
         <v>93</v>
       </c>
-      <c r="U11" s="3">
+      <c r="U11" s="31">
         <v>58</v>
       </c>
-      <c r="V11" s="3">
+      <c r="V11" s="31">
         <v>91</v>
       </c>
-      <c r="W11" s="3">
+      <c r="W11" s="31">
         <v>53</v>
       </c>
-      <c r="X11" s="3">
+      <c r="X11" s="31">
         <v>90</v>
       </c>
-      <c r="Y11" s="3">
+      <c r="Y11" s="31">
         <v>54</v>
       </c>
-      <c r="Z11" s="3">
+      <c r="Z11" s="31">
         <v>88</v>
       </c>
-      <c r="AA11" s="3">
+      <c r="AA11" s="31">
         <v>57</v>
       </c>
-      <c r="AB11" s="3">
+      <c r="AB11" s="31">
         <v>90</v>
       </c>
-      <c r="AC11" s="8">
+      <c r="AC11" s="32">
         <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="31">
         <v>42</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="31">
         <v>42</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="31">
         <v>87</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="31">
         <v>60</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="31">
         <v>86</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="31">
         <v>57</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="31">
         <v>87</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="31">
         <v>56</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="31">
         <v>86</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12" s="31">
         <v>52</v>
       </c>
-      <c r="L12" s="3">
+      <c r="L12" s="31">
         <v>85</v>
       </c>
-      <c r="M12" s="3">
+      <c r="M12" s="31">
         <v>53</v>
       </c>
-      <c r="N12" s="3">
+      <c r="N12" s="31">
         <v>86</v>
       </c>
-      <c r="O12" s="3">
+      <c r="O12" s="31">
         <v>61</v>
       </c>
-      <c r="P12" s="3">
+      <c r="P12" s="31">
         <v>87</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="Q12" s="31">
         <v>64</v>
       </c>
-      <c r="R12" s="3">
+      <c r="R12" s="31">
         <v>90</v>
       </c>
-      <c r="S12" s="3">
+      <c r="S12" s="31">
         <v>65</v>
       </c>
-      <c r="T12" s="3">
+      <c r="T12" s="31">
         <v>91</v>
       </c>
-      <c r="U12" s="3">
+      <c r="U12" s="31">
         <v>63</v>
       </c>
-      <c r="V12" s="3">
+      <c r="V12" s="31">
         <v>89</v>
       </c>
-      <c r="W12" s="3">
+      <c r="W12" s="31">
         <v>58</v>
       </c>
-      <c r="X12" s="3">
+      <c r="X12" s="31">
         <v>88</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Y12" s="31">
         <v>58</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="Z12" s="31">
         <v>87</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AA12" s="31">
         <v>60</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AB12" s="31">
         <v>87</v>
       </c>
-      <c r="AC12" s="8">
+      <c r="AC12" s="32">
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:29" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+    <row r="13" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="31">
         <v>42</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="31">
         <v>42</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="31">
         <v>88</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="31">
         <v>60</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="31">
         <v>88</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="31">
         <v>56</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="31">
         <v>86</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="31">
         <v>56</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J13" s="31">
         <v>84</v>
       </c>
-      <c r="K13" s="3">
+      <c r="K13" s="31">
         <v>55</v>
       </c>
-      <c r="L13" s="3">
+      <c r="L13" s="31">
         <v>84</v>
       </c>
-      <c r="M13" s="3">
+      <c r="M13" s="31">
         <v>58</v>
       </c>
-      <c r="N13" s="3">
+      <c r="N13" s="31">
         <v>81</v>
       </c>
-      <c r="O13" s="3">
+      <c r="O13" s="31">
         <v>60</v>
       </c>
-      <c r="P13" s="3">
+      <c r="P13" s="31">
         <v>83</v>
       </c>
-      <c r="Q13" s="3">
+      <c r="Q13" s="31">
         <v>60</v>
       </c>
-      <c r="R13" s="3">
+      <c r="R13" s="31">
         <v>85</v>
       </c>
-      <c r="S13" s="3">
+      <c r="S13" s="31">
         <v>60</v>
       </c>
-      <c r="T13" s="3">
+      <c r="T13" s="31">
         <v>82</v>
       </c>
-      <c r="U13" s="3">
+      <c r="U13" s="31">
         <v>59</v>
       </c>
-      <c r="V13" s="3">
+      <c r="V13" s="31">
         <v>81</v>
       </c>
-      <c r="W13" s="3">
+      <c r="W13" s="31">
         <v>59</v>
       </c>
-      <c r="X13" s="3">
+      <c r="X13" s="31">
         <v>79</v>
       </c>
-      <c r="Y13" s="3">
+      <c r="Y13" s="31">
         <v>57</v>
       </c>
-      <c r="Z13" s="3">
+      <c r="Z13" s="31">
         <v>82</v>
       </c>
-      <c r="AA13" s="3">
+      <c r="AA13" s="31">
         <v>56</v>
       </c>
-      <c r="AB13" s="3">
+      <c r="AB13" s="31">
         <v>84</v>
       </c>
-      <c r="AC13" s="8">
+      <c r="AC13" s="32">
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:29" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
+    <row r="14" spans="1:29" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="34">
         <v>41</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="34">
         <v>41</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="34">
         <v>84</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="34">
         <v>59</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="34">
         <v>84</v>
       </c>
-      <c r="G14" s="10">
+      <c r="G14" s="34">
         <v>57</v>
       </c>
-      <c r="H14" s="10">
+      <c r="H14" s="34">
         <v>83</v>
       </c>
-      <c r="I14" s="10">
+      <c r="I14" s="34">
         <v>56</v>
       </c>
-      <c r="J14" s="10">
+      <c r="J14" s="34">
         <v>79</v>
       </c>
-      <c r="K14" s="10">
+      <c r="K14" s="34">
         <v>55</v>
       </c>
-      <c r="L14" s="10">
+      <c r="L14" s="34">
         <v>80</v>
       </c>
-      <c r="M14" s="10">
+      <c r="M14" s="34">
         <v>59</v>
       </c>
-      <c r="N14" s="10">
+      <c r="N14" s="34">
         <v>84</v>
       </c>
-      <c r="O14" s="10">
+      <c r="O14" s="34">
         <v>66</v>
       </c>
-      <c r="P14" s="10">
+      <c r="P14" s="34">
         <v>85</v>
       </c>
-      <c r="Q14" s="10">
+      <c r="Q14" s="34">
         <v>64</v>
       </c>
-      <c r="R14" s="10">
+      <c r="R14" s="34">
         <v>86</v>
       </c>
-      <c r="S14" s="10">
+      <c r="S14" s="34">
         <v>65</v>
       </c>
-      <c r="T14" s="10">
+      <c r="T14" s="34">
         <v>87</v>
       </c>
-      <c r="U14" s="10">
+      <c r="U14" s="34">
         <v>66</v>
       </c>
-      <c r="V14" s="10">
+      <c r="V14" s="34">
         <v>84</v>
       </c>
-      <c r="W14" s="10">
+      <c r="W14" s="34">
         <v>63</v>
       </c>
-      <c r="X14" s="10">
+      <c r="X14" s="34">
         <v>83</v>
       </c>
-      <c r="Y14" s="10">
+      <c r="Y14" s="34">
         <v>61</v>
       </c>
-      <c r="Z14" s="10">
+      <c r="Z14" s="34">
         <v>84</v>
       </c>
-      <c r="AA14" s="10">
+      <c r="AA14" s="34">
         <v>60</v>
       </c>
-      <c r="AB14" s="10">
+      <c r="AB14" s="34">
         <v>84</v>
       </c>
-      <c r="AC14" s="11">
+      <c r="AC14" s="35">
         <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="F16" s="14" t="s">
+      <c r="F16" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="G16" s="14" t="s">
+      <c r="G16" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="H16" s="14" t="s">
+      <c r="H16" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="I16" s="14" t="s">
+      <c r="I16" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="J16" s="14" t="s">
+      <c r="J16" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="K16" s="14" t="s">
+      <c r="K16" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="L16" s="14" t="s">
+      <c r="L16" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="M16" s="14" t="s">
+      <c r="M16" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="N16" s="14" t="s">
+      <c r="N16" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="O16" s="15" t="s">
+      <c r="O16" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="AB16" s="12">
+      <c r="AB16" s="3">
         <f>AVERAGE(AB2:AC14)</f>
         <v>72.461538461538467</v>
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="4">
+      <c r="B17" s="27">
         <v>2001</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="28">
         <v>53.1</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="28">
         <v>65.099999999999994</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="28">
         <v>64.2</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="28">
         <v>70</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="28">
         <v>74.7</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17" s="28">
         <v>80.099999999999994</v>
       </c>
-      <c r="I17" s="5">
+      <c r="I17" s="28">
         <v>81.2</v>
       </c>
-      <c r="J17" s="5">
+      <c r="J17" s="28">
         <v>81.3</v>
       </c>
-      <c r="K17" s="5">
+      <c r="K17" s="28">
         <v>77.599999999999994</v>
       </c>
-      <c r="L17" s="5">
+      <c r="L17" s="28">
         <v>71.5</v>
       </c>
-      <c r="M17" s="5">
+      <c r="M17" s="28">
         <v>68</v>
       </c>
-      <c r="N17" s="5">
+      <c r="N17" s="28">
         <v>64.400000000000006</v>
       </c>
-      <c r="O17" s="6">
+      <c r="O17" s="29">
         <v>70.900000000000006</v>
       </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B18" s="7">
+      <c r="B18" s="30">
         <v>2002</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="31">
         <v>59.3</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="31">
         <v>59.6</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="31">
         <v>66.7</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="31">
         <v>73.599999999999994</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="31">
         <v>76.599999999999994</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="31">
         <v>79.599999999999994</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="31">
         <v>81.5</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18" s="31">
         <v>81.2</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="31">
         <v>81.099999999999994</v>
       </c>
-      <c r="L18" s="3">
+      <c r="L18" s="31">
         <v>76.3</v>
       </c>
-      <c r="M18" s="3">
+      <c r="M18" s="31">
         <v>63.2</v>
       </c>
-      <c r="N18" s="3">
+      <c r="N18" s="31">
         <v>57.5</v>
       </c>
-      <c r="O18" s="8">
+      <c r="O18" s="32">
         <v>71.400000000000006</v>
       </c>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B19" s="7">
+      <c r="B19" s="30">
         <v>2003</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="31">
         <v>52.4</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="31">
         <v>61.5</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="31">
         <v>70.2</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="31">
         <v>69.5</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="31">
         <v>78.2</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19" s="31">
         <v>80.099999999999994</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I19" s="31">
         <v>81.3</v>
       </c>
-      <c r="J19" s="3">
+      <c r="J19" s="31">
         <v>81</v>
       </c>
-      <c r="K19" s="3">
+      <c r="K19" s="31">
         <v>78.900000000000006</v>
       </c>
-      <c r="L19" s="3">
+      <c r="L19" s="31">
         <v>73.400000000000006</v>
       </c>
-      <c r="M19" s="3">
+      <c r="M19" s="31">
         <v>68.7</v>
       </c>
-      <c r="N19" s="3">
+      <c r="N19" s="31">
         <v>56.4</v>
       </c>
-      <c r="O19" s="8">
+      <c r="O19" s="32">
         <v>71</v>
       </c>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B20" s="7">
+      <c r="B20" s="30">
         <v>2004</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="31">
         <v>56.9</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="31">
         <v>59.4</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="31">
         <v>65.8</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="31">
         <v>67.5</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="31">
         <v>76.099999999999994</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="31">
         <v>81.3</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="31">
         <v>81.8</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J20" s="31">
         <v>81.400000000000006</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20" s="31">
         <v>79.900000000000006</v>
       </c>
-      <c r="L20" s="3">
+      <c r="L20" s="31">
         <v>74.5</v>
       </c>
-      <c r="M20" s="3">
+      <c r="M20" s="31">
         <v>67.3</v>
       </c>
-      <c r="N20" s="3">
+      <c r="N20" s="31">
         <v>58</v>
       </c>
-      <c r="O20" s="8">
+      <c r="O20" s="32">
         <v>70.8</v>
       </c>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B21" s="7">
+      <c r="B21" s="30">
         <v>2005</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="31">
         <v>60</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="31">
         <v>60.6</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="31">
         <v>62.9</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="31">
         <v>66.599999999999994</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="31">
         <v>74.2</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="31">
         <v>79.8</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="31">
         <v>83.1</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="31">
         <v>83.1</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="31">
         <v>80.599999999999994</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="31">
         <v>73.5</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="31">
         <v>67.099999999999994</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="31">
         <v>56.9</v>
       </c>
-      <c r="O21" s="8">
+      <c r="O21" s="32">
         <v>70.7</v>
       </c>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B22" s="7">
+      <c r="B22" s="30">
         <v>2006</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="31">
         <v>60.6</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="31">
         <v>58.2</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="31">
         <v>64.599999999999994</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="31">
         <v>72.3</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="31">
         <v>75.400000000000006</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="31">
         <v>80.3</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22" s="31">
         <v>81.7</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J22" s="31">
         <v>82.5</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22" s="31">
         <v>79.2</v>
       </c>
-      <c r="L22" s="3">
+      <c r="L22" s="31">
         <v>71.900000000000006</v>
       </c>
-      <c r="M22" s="3">
+      <c r="M22" s="31">
         <v>63.4</v>
       </c>
-      <c r="N22" s="3">
+      <c r="N22" s="31">
         <v>64.3</v>
       </c>
-      <c r="O22" s="8">
+      <c r="O22" s="32">
         <v>71.2</v>
       </c>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B23" s="7">
+      <c r="B23" s="30">
         <v>2007</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="31">
         <v>61.3</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="31">
         <v>58</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="31">
         <v>66.2</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="31">
         <v>68.2</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23" s="31">
         <v>74.7</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H23" s="31">
         <v>79.8</v>
       </c>
-      <c r="I23" s="3">
+      <c r="I23" s="31">
         <v>82</v>
       </c>
-      <c r="J23" s="3">
+      <c r="J23" s="31">
         <v>83.5</v>
       </c>
-      <c r="K23" s="3">
+      <c r="K23" s="31">
         <v>80.3</v>
       </c>
-      <c r="L23" s="3">
+      <c r="L23" s="31">
         <v>76.099999999999994</v>
       </c>
-      <c r="M23" s="3">
+      <c r="M23" s="31">
         <v>64.7</v>
       </c>
-      <c r="N23" s="3">
+      <c r="N23" s="31">
         <v>64.3</v>
       </c>
-      <c r="O23" s="8">
+      <c r="O23" s="32">
         <v>71.599999999999994</v>
       </c>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B24" s="7">
+      <c r="B24" s="30">
         <v>2008</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="31">
         <v>58.1</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="31">
         <v>62.9</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="31">
         <v>64.400000000000006</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="31">
         <v>69.2</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24" s="31">
         <v>75.900000000000006</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H24" s="31">
         <v>80.5</v>
       </c>
-      <c r="I24" s="3">
+      <c r="I24" s="31">
         <v>81</v>
       </c>
-      <c r="J24" s="3">
+      <c r="J24" s="31">
         <v>81.2</v>
       </c>
-      <c r="K24" s="3">
+      <c r="K24" s="31">
         <v>79.599999999999994</v>
       </c>
-      <c r="L24" s="3">
+      <c r="L24" s="31">
         <v>71.3</v>
       </c>
-      <c r="M24" s="3">
+      <c r="M24" s="31">
         <v>61.4</v>
       </c>
-      <c r="N24" s="3">
+      <c r="N24" s="31">
         <v>62</v>
       </c>
-      <c r="O24" s="8">
+      <c r="O24" s="32">
         <v>70.599999999999994</v>
       </c>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B25" s="7">
+      <c r="B25" s="30">
         <v>2009</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="31">
         <v>57.4</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="31">
         <v>57.8</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="31">
         <v>65.5</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="31">
         <v>69.7</v>
       </c>
-      <c r="G25" s="3">
+      <c r="G25" s="31">
         <v>76.7</v>
       </c>
-      <c r="H25" s="3">
+      <c r="H25" s="31">
         <v>81.8</v>
       </c>
-      <c r="I25" s="3">
+      <c r="I25" s="31">
         <v>81.599999999999994</v>
       </c>
-      <c r="J25" s="3">
+      <c r="J25" s="31">
         <v>82</v>
       </c>
-      <c r="K25" s="3">
+      <c r="K25" s="31">
         <v>84.4</v>
       </c>
-      <c r="L25" s="3">
+      <c r="L25" s="31">
         <v>75.2</v>
       </c>
-      <c r="M25" s="3">
+      <c r="M25" s="31">
         <v>66</v>
       </c>
-      <c r="N25" s="3">
+      <c r="N25" s="31">
         <v>60.5</v>
       </c>
-      <c r="O25" s="8">
+      <c r="O25" s="32">
         <v>71.099999999999994</v>
       </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B26" s="7">
+      <c r="B26" s="30">
         <v>2010</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="31">
         <v>52.4</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="31">
         <v>52.3</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="31">
         <v>58.7</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="31">
         <v>69.5</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G26" s="31">
         <v>78.3</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H26" s="31">
         <v>83</v>
       </c>
-      <c r="I26" s="3">
+      <c r="I26" s="31">
         <v>83.3</v>
       </c>
-      <c r="J26" s="3">
+      <c r="J26" s="31">
         <v>83.6</v>
       </c>
-      <c r="K26" s="3">
+      <c r="K26" s="31">
         <v>81.099999999999994</v>
       </c>
-      <c r="L26" s="3">
+      <c r="L26" s="31">
         <v>72.2</v>
       </c>
-      <c r="M26" s="3">
+      <c r="M26" s="31">
         <v>64.900000000000006</v>
       </c>
-      <c r="N26" s="3">
+      <c r="N26" s="31">
         <v>50</v>
       </c>
-      <c r="O26" s="8">
+      <c r="O26" s="32">
         <v>69.099999999999994</v>
       </c>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B27" s="7">
+      <c r="B27" s="30">
         <v>2011</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="31">
         <v>55.1</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="31">
         <v>61.7</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="31">
         <v>66.5</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="31">
         <v>73</v>
       </c>
-      <c r="G27" s="3">
+      <c r="G27" s="31">
         <v>76</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H27" s="31">
         <v>81.900000000000006</v>
       </c>
-      <c r="I27" s="3">
+      <c r="I27" s="31">
         <v>82.4</v>
       </c>
-      <c r="J27" s="3">
+      <c r="J27" s="31">
         <v>83.6</v>
       </c>
-      <c r="K27" s="3">
+      <c r="K27" s="31">
         <v>79.7</v>
       </c>
-      <c r="L27" s="3">
+      <c r="L27" s="31">
         <v>70.599999999999994</v>
       </c>
-      <c r="M27" s="3">
+      <c r="M27" s="31">
         <v>66.7</v>
       </c>
-      <c r="N27" s="3">
+      <c r="N27" s="31">
         <v>63.7</v>
       </c>
-      <c r="O27" s="8">
+      <c r="O27" s="32">
         <v>71.7</v>
       </c>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B28" s="7">
+      <c r="B28" s="30">
         <v>2012</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="31">
         <v>59.3</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="31">
         <v>63.9</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="31">
         <v>70.2</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28" s="31">
         <v>71.099999999999994</v>
       </c>
-      <c r="G28" s="3">
+      <c r="G28" s="31">
         <v>77.400000000000006</v>
       </c>
-      <c r="H28" s="3">
+      <c r="H28" s="31">
         <v>79.400000000000006</v>
       </c>
-      <c r="I28" s="3">
+      <c r="I28" s="31">
         <v>82.2</v>
       </c>
-      <c r="J28" s="3">
+      <c r="J28" s="31">
         <v>81.599999999999994</v>
       </c>
-      <c r="K28" s="3">
+      <c r="K28" s="31">
         <v>79.5</v>
       </c>
-      <c r="L28" s="3">
+      <c r="L28" s="31">
         <v>73.3</v>
       </c>
-      <c r="M28" s="3">
+      <c r="M28" s="31">
         <v>62.3</v>
       </c>
-      <c r="N28" s="3">
+      <c r="N28" s="31">
         <v>62.2</v>
       </c>
-      <c r="O28" s="8">
+      <c r="O28" s="32">
         <v>71.8</v>
       </c>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B29" s="7">
+      <c r="B29" s="30">
         <v>2013</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="31">
         <v>64.099999999999994</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="31">
         <v>61.8</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="31">
         <v>59</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F29" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="G29" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="H29" s="3" t="s">
+      <c r="H29" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="I29" s="3" t="s">
+      <c r="I29" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="J29" s="3" t="s">
+      <c r="J29" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="K29" s="3" t="s">
+      <c r="K29" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="L29" s="3" t="s">
+      <c r="L29" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="M29" s="3" t="s">
+      <c r="M29" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="N29" s="3" t="s">
+      <c r="N29" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="O29" s="8" t="s">
+      <c r="O29" s="32" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B30" s="7">
+      <c r="B30" s="30">
         <v>2014</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="31">
         <v>54.6</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="31">
         <v>62.9</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30" s="31">
         <v>63.6</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F30" s="31">
         <v>70.5</v>
       </c>
-      <c r="G30" s="3">
+      <c r="G30" s="31">
         <v>76.099999999999994</v>
       </c>
-      <c r="H30" s="3">
+      <c r="H30" s="31">
         <v>80.400000000000006</v>
       </c>
-      <c r="I30" s="3">
+      <c r="I30" s="31">
         <v>81.8</v>
       </c>
-      <c r="J30" s="3">
+      <c r="J30" s="31">
         <v>82.9</v>
       </c>
-      <c r="K30" s="3">
+      <c r="K30" s="31">
         <v>79.7</v>
       </c>
-      <c r="L30" s="3">
+      <c r="L30" s="31">
         <v>72.7</v>
       </c>
-      <c r="M30" s="3">
+      <c r="M30" s="31">
         <v>61.1</v>
       </c>
-      <c r="N30" s="3">
+      <c r="N30" s="31">
         <v>61.9</v>
       </c>
-      <c r="O30" s="8">
+      <c r="O30" s="32">
         <v>70.7</v>
       </c>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B31" s="7">
+      <c r="B31" s="30">
         <v>2015</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="31">
         <v>58.6</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="31">
         <v>56.6</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31" s="31">
         <v>69.599999999999994</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F31" s="31">
         <v>75.099999999999994</v>
       </c>
-      <c r="G31" s="3">
+      <c r="G31" s="31">
         <v>77.599999999999994</v>
       </c>
-      <c r="H31" s="3">
+      <c r="H31" s="31">
         <v>81.7</v>
       </c>
-      <c r="I31" s="3">
+      <c r="I31" s="31">
         <v>82.8</v>
       </c>
-      <c r="J31" s="3">
+      <c r="J31" s="31">
         <v>82.5</v>
       </c>
-      <c r="K31" s="3">
+      <c r="K31" s="31">
         <v>80</v>
       </c>
-      <c r="L31" s="3">
+      <c r="L31" s="31">
         <v>74.3</v>
       </c>
-      <c r="M31" s="3">
+      <c r="M31" s="31">
         <v>72.2</v>
       </c>
-      <c r="N31" s="3">
+      <c r="N31" s="31">
         <v>69.400000000000006</v>
       </c>
-      <c r="O31" s="8">
+      <c r="O31" s="32">
         <v>73.5</v>
       </c>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B32" s="7">
+      <c r="B32" s="30">
         <v>2016</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="31">
         <v>56.9</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="31">
         <v>59.3</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="31">
         <v>68.900000000000006</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="31">
         <v>71.099999999999994</v>
       </c>
-      <c r="G32" s="3">
+      <c r="G32" s="31">
         <v>76.099999999999994</v>
       </c>
-      <c r="H32" s="3">
+      <c r="H32" s="31">
         <v>81.900000000000006</v>
       </c>
-      <c r="I32" s="3">
+      <c r="I32" s="31">
         <v>84</v>
       </c>
-      <c r="J32" s="3">
+      <c r="J32" s="31">
         <v>83</v>
       </c>
-      <c r="K32" s="3">
+      <c r="K32" s="31">
         <v>81.2</v>
       </c>
-      <c r="L32" s="3">
+      <c r="L32" s="31">
         <v>74.599999999999994</v>
       </c>
-      <c r="M32" s="3">
+      <c r="M32" s="31">
         <v>66.7</v>
       </c>
-      <c r="N32" s="3">
+      <c r="N32" s="31">
         <v>66.099999999999994</v>
       </c>
-      <c r="O32" s="8">
+      <c r="O32" s="32">
         <v>72.5</v>
       </c>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B33" s="7">
+      <c r="B33" s="30">
         <v>2017</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="31">
         <v>64.7</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="31">
         <v>65.599999999999994</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33" s="31">
         <v>66</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F33" s="31">
         <v>72.3</v>
       </c>
-      <c r="G33" s="3">
+      <c r="G33" s="31">
         <v>77</v>
       </c>
-      <c r="H33" s="3">
+      <c r="H33" s="31">
         <v>79.900000000000006</v>
       </c>
-      <c r="I33" s="3">
+      <c r="I33" s="31">
         <v>82.6</v>
       </c>
-      <c r="J33" s="3">
+      <c r="J33" s="31">
         <v>82.6</v>
       </c>
-      <c r="K33" s="3">
+      <c r="K33" s="31">
         <v>80.2</v>
       </c>
-      <c r="L33" s="3">
+      <c r="L33" s="31">
         <v>74.8</v>
       </c>
-      <c r="M33" s="3">
+      <c r="M33" s="31">
         <v>67.3</v>
       </c>
-      <c r="N33" s="3">
+      <c r="N33" s="31">
         <v>61.9</v>
       </c>
-      <c r="O33" s="8">
+      <c r="O33" s="32">
         <v>72.7</v>
       </c>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B34" s="7">
+      <c r="B34" s="30">
         <v>2018</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="31">
         <v>54.8</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34" s="31">
         <v>69</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E34" s="31">
         <v>62.7</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F34" s="31">
         <v>70</v>
       </c>
-      <c r="G34" s="3">
+      <c r="G34" s="31">
         <v>76.099999999999994</v>
       </c>
-      <c r="H34" s="3">
+      <c r="H34" s="31">
         <v>81.5</v>
       </c>
-      <c r="I34" s="3">
+      <c r="I34" s="31">
         <v>82.4</v>
       </c>
-      <c r="J34" s="3">
+      <c r="J34" s="31">
         <v>82.3</v>
       </c>
-      <c r="K34" s="3">
+      <c r="K34" s="31">
         <v>82.4</v>
       </c>
-      <c r="L34" s="3">
+      <c r="L34" s="31">
         <v>76.5</v>
       </c>
-      <c r="M34" s="3">
+      <c r="M34" s="31">
         <v>66.7</v>
       </c>
-      <c r="N34" s="3">
+      <c r="N34" s="31">
         <v>61.7</v>
       </c>
-      <c r="O34" s="8">
+      <c r="O34" s="32">
         <v>72.3</v>
       </c>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B35" s="7">
+      <c r="B35" s="30">
         <v>2019</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="31">
         <v>58.4</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="31">
         <v>67.5</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35" s="31">
         <v>65.7</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F35" s="31">
         <v>71.2</v>
       </c>
-      <c r="G35" s="3">
+      <c r="G35" s="31">
         <v>78.8</v>
       </c>
-      <c r="H35" s="3">
+      <c r="H35" s="31">
         <v>82.3</v>
       </c>
-      <c r="I35" s="3">
+      <c r="I35" s="31">
         <v>82.8</v>
       </c>
-      <c r="J35" s="3">
+      <c r="J35" s="31">
         <v>82.9</v>
       </c>
-      <c r="K35" s="3">
+      <c r="K35" s="31">
         <v>81.900000000000006</v>
       </c>
-      <c r="L35" s="3">
+      <c r="L35" s="31">
         <v>77.900000000000006</v>
       </c>
-      <c r="M35" s="3">
+      <c r="M35" s="31">
         <v>64.900000000000006</v>
       </c>
-      <c r="N35" s="3">
+      <c r="N35" s="31">
         <v>63.9</v>
       </c>
-      <c r="O35" s="8">
+      <c r="O35" s="32">
         <v>73.2</v>
       </c>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B36" s="7">
+      <c r="B36" s="30">
         <v>2020</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36" s="31">
         <v>61.8</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D36" s="31">
         <v>63.6</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E36" s="31">
         <v>71</v>
       </c>
-      <c r="F36" s="3">
+      <c r="F36" s="31">
         <v>73.099999999999994</v>
       </c>
-      <c r="G36" s="3">
+      <c r="G36" s="31">
         <v>75.8</v>
       </c>
-      <c r="H36" s="3">
+      <c r="H36" s="31">
         <v>81</v>
       </c>
-      <c r="I36" s="3">
+      <c r="I36" s="31">
         <v>83</v>
       </c>
-      <c r="J36" s="3">
+      <c r="J36" s="31">
         <v>83.2</v>
       </c>
-      <c r="K36" s="3">
+      <c r="K36" s="31">
         <v>80.599999999999994</v>
       </c>
-      <c r="L36" s="3">
+      <c r="L36" s="31">
         <v>77.2</v>
       </c>
-      <c r="M36" s="3">
+      <c r="M36" s="31">
         <v>70.8</v>
       </c>
-      <c r="N36" s="3">
+      <c r="N36" s="31">
         <v>57.6</v>
       </c>
-      <c r="O36" s="8">
+      <c r="O36" s="32">
         <v>73.2</v>
       </c>
     </row>
     <row r="37" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="9">
+      <c r="B37" s="33">
         <v>2021</v>
       </c>
-      <c r="C37" s="10">
+      <c r="C37" s="34">
         <v>58.6</v>
       </c>
-      <c r="D37" s="10">
+      <c r="D37" s="34">
         <v>63.8</v>
       </c>
-      <c r="E37" s="10">
+      <c r="E37" s="34">
         <v>67.7</v>
       </c>
-      <c r="F37" s="10">
+      <c r="F37" s="34">
         <v>69.900000000000006</v>
       </c>
-      <c r="G37" s="10">
+      <c r="G37" s="34">
         <v>76.400000000000006</v>
       </c>
-      <c r="H37" s="10">
+      <c r="H37" s="34">
         <v>80.900000000000006</v>
       </c>
-      <c r="I37" s="10">
+      <c r="I37" s="34">
         <v>82.1</v>
       </c>
-      <c r="J37" s="10">
+      <c r="J37" s="34">
         <v>82.7</v>
       </c>
-      <c r="K37" s="10">
+      <c r="K37" s="34">
         <v>79.8</v>
       </c>
-      <c r="L37" s="10">
+      <c r="L37" s="34">
         <v>75.3</v>
       </c>
-      <c r="M37" s="10">
+      <c r="M37" s="34">
         <v>63.6</v>
       </c>
-      <c r="N37" s="10">
+      <c r="N37" s="34">
         <v>66.7</v>
       </c>
-      <c r="O37" s="11">
+      <c r="O37" s="35">
         <v>72.3</v>
       </c>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="O40">
+      <c r="O40" s="26">
         <f>AVERAGE(O17:O37)</f>
         <v>71.615000000000009</v>
       </c>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="N41" t="s">
+      <c r="N41" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="O41">
+      <c r="O41" s="3">
         <f>(O40-32)*(5/9)</f>
         <v>22.00833333333334</v>
       </c>
@@ -6099,10 +8600,10 @@
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:J67"/>
+  <dimension ref="A1:R124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView topLeftCell="A17" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q124" sqref="Q124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6110,12 +8611,13 @@
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="33.140625" customWidth="1"/>
     <col min="3" max="3" width="19.140625" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
     <col min="5" max="5" width="22.28515625" customWidth="1"/>
     <col min="6" max="6" width="27.28515625" customWidth="1"/>
+    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6135,18 +8637,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <f>10^3.4</f>
-        <v>2511.8864315095811</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="24">
+        <f>10^3.4*1000</f>
+        <v>2511886.4315095809</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -6178,7 +8675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15">
         <f xml:space="preserve"> 3.4*EXP(A14/-8.31)</f>
         <v>3.0145135931139957</v>
@@ -6220,70 +8717,76 @@
         <v>1.0206156230132855</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16">
-        <f>10^A15</f>
-        <v>1033.9834634362355</v>
+        <f>10^A15*(1000*A14)</f>
+        <v>1033983.4634362356</v>
       </c>
       <c r="B16">
-        <f>10^B15</f>
-        <v>470.68786410993704</v>
+        <f>10^B15*(1000*B14)</f>
+        <v>470687.86410993704</v>
       </c>
       <c r="C16">
-        <f t="shared" ref="C16:J16" si="1">10^C15</f>
-        <v>234.2625843215493</v>
+        <f t="shared" ref="C16:J16" si="1">10^C15*(1000*C14)</f>
+        <v>234262.58432154931</v>
       </c>
       <c r="D16">
         <f t="shared" si="1"/>
-        <v>126.19144401470525</v>
+        <v>126191.44401470525</v>
       </c>
       <c r="E16">
         <f t="shared" si="1"/>
-        <v>72.915287931742711</v>
+        <v>72915.287931742714</v>
       </c>
       <c r="F16">
         <f t="shared" si="1"/>
-        <v>44.834805202665621</v>
+        <v>44834.805202665622</v>
       </c>
       <c r="G16">
         <f t="shared" si="1"/>
-        <v>29.131165657955101</v>
+        <v>29131.165657955102</v>
       </c>
       <c r="H16">
         <f t="shared" si="1"/>
-        <v>19.876109346554582</v>
+        <v>19876.109346554582</v>
       </c>
       <c r="I16">
         <f t="shared" si="1"/>
-        <v>14.1621340733692</v>
+        <v>14162.134073369201</v>
       </c>
       <c r="J16">
         <f t="shared" si="1"/>
-        <v>10.486139308241533</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <f>10^5</f>
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>2511</v>
-      </c>
-      <c r="B19">
-        <f>A19/A18</f>
-        <v>2.511E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B21">
-        <f>10^3.4</f>
-        <v>2511.8864315095811</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+        <v>10486.139308241532</v>
+      </c>
+      <c r="R16" s="24">
+        <f>SUM(A16:J16)</f>
+        <v>2056530.9974029558</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>3.4</v>
+      </c>
+      <c r="D23" s="24">
+        <f>10^C23*250</f>
+        <v>627971.60787739523</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>3.4</v>
+      </c>
+      <c r="D24" s="24">
+        <f>10^C24*250</f>
+        <v>627971.60787739523</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>0.25</v>
       </c>
@@ -6291,7 +8794,7 @@
         <v>0.25</v>
       </c>
       <c r="C26">
-        <v>0.25</v>
+        <v>3.4</v>
       </c>
       <c r="D26">
         <v>0.25</v>
@@ -6315,7 +8818,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <f xml:space="preserve"> 3.4*EXP(A26/-8.31)</f>
         <v>3.2992368883014542</v>
@@ -6325,39 +8828,38 @@
         <v>3.201460013273254</v>
       </c>
       <c r="C27">
-        <f t="shared" ref="C27" si="2" xml:space="preserve"> B27*EXP(C26/-8.31)</f>
+        <v>3.4</v>
+      </c>
+      <c r="D27">
+        <f t="shared" ref="D27" si="2" xml:space="preserve"> C27*EXP(D26/-8.31)</f>
+        <v>3.2992368883014542</v>
+      </c>
+      <c r="E27">
+        <f t="shared" ref="E27" si="3" xml:space="preserve"> D27*EXP(E26/-8.31)</f>
+        <v>3.201460013273254</v>
+      </c>
+      <c r="F27">
+        <f t="shared" ref="F27" si="4" xml:space="preserve"> E27*EXP(F26/-8.31)</f>
         <v>3.1065808741803482</v>
       </c>
-      <c r="D27">
-        <f t="shared" ref="D27" si="3" xml:space="preserve"> C27*EXP(D26/-8.31)</f>
+      <c r="G27">
+        <f t="shared" ref="G27" si="5" xml:space="preserve"> F27*EXP(G26/-8.31)</f>
         <v>3.0145135931139952</v>
       </c>
-      <c r="E27">
-        <f t="shared" ref="E27" si="4" xml:space="preserve"> D27*EXP(E26/-8.31)</f>
+      <c r="H27">
+        <f t="shared" ref="H27" si="6" xml:space="preserve"> G27*EXP(H26/-8.31)</f>
         <v>2.9251748372611335</v>
       </c>
-      <c r="F27">
-        <f t="shared" ref="F27" si="5" xml:space="preserve"> E27*EXP(F26/-8.31)</f>
+      <c r="I27">
+        <f t="shared" ref="I27" si="7" xml:space="preserve"> H27*EXP(I26/-8.31)</f>
         <v>2.8384837434773926</v>
       </c>
-      <c r="G27">
-        <f t="shared" ref="G27" si="6" xml:space="preserve"> F27*EXP(G26/-8.31)</f>
+      <c r="J27">
+        <f t="shared" ref="J27" si="8" xml:space="preserve"> I27*EXP(J26/-8.31)</f>
         <v>2.7543618450954757</v>
       </c>
-      <c r="H27">
-        <f t="shared" ref="H27" si="7" xml:space="preserve"> G27*EXP(H26/-8.31)</f>
-        <v>2.6727330009026615</v>
-      </c>
-      <c r="I27">
-        <f t="shared" ref="I27" si="8" xml:space="preserve"> H27*EXP(I26/-8.31)</f>
-        <v>2.5935233262231487</v>
-      </c>
-      <c r="J27">
-        <f t="shared" ref="J27" si="9" xml:space="preserve"> I27*EXP(J26/-8.31)</f>
-        <v>2.5166611260428526</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <f>10^A27</f>
         <v>1991.7594588402533</v>
@@ -6367,58 +8869,60 @@
         <v>1590.2302600639791</v>
       </c>
       <c r="C28">
-        <f t="shared" ref="C28" si="10">10^C27</f>
+        <v>3.4</v>
+      </c>
+      <c r="D28">
+        <f t="shared" ref="D28" si="9">10^D27</f>
+        <v>1991.7594588402533</v>
+      </c>
+      <c r="E28">
+        <f t="shared" ref="E28" si="10">10^E27</f>
+        <v>1590.2302600639791</v>
+      </c>
+      <c r="F28">
+        <f t="shared" ref="F28" si="11">10^F27</f>
         <v>1278.147203571915</v>
       </c>
-      <c r="D28">
-        <f t="shared" ref="D28" si="11">10^D27</f>
+      <c r="G28">
+        <f t="shared" ref="G28" si="12">10^G27</f>
         <v>1033.9834634362346</v>
       </c>
-      <c r="E28">
-        <f t="shared" ref="E28" si="12">10^E27</f>
+      <c r="H28">
+        <f t="shared" ref="H28" si="13">10^H27</f>
         <v>841.73393673295914</v>
       </c>
-      <c r="F28">
-        <f t="shared" ref="F28" si="13">10^F27</f>
+      <c r="I28">
+        <f t="shared" ref="I28" si="14">10^I27</f>
         <v>689.41978630813094</v>
       </c>
-      <c r="G28">
-        <f t="shared" ref="G28" si="14">10^G27</f>
+      <c r="J28">
+        <f t="shared" ref="J28" si="15">10^J27</f>
         <v>568.01766877093269</v>
       </c>
-      <c r="H28">
-        <f t="shared" ref="H28" si="15">10^H27</f>
-        <v>470.68786410993619</v>
-      </c>
-      <c r="I28">
-        <f t="shared" ref="I28" si="16">10^I27</f>
-        <v>392.21421183294348</v>
-      </c>
-      <c r="J28">
-        <f t="shared" ref="J28" si="17">10^J27</f>
-        <v>328.59513259620854</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>3.4</v>
       </c>
       <c r="C30">
-        <f>10^B30*4</f>
-        <v>10047.545726038325</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>0.25</v>
       </c>
       <c r="B31">
-        <f xml:space="preserve"> B30*EXP(A31/-8.31)</f>
-        <v>3.2992368883014542</v>
+        <f xml:space="preserve"> 3.43*EXP(A31/-8.31)</f>
+        <v>3.3283478020217614</v>
       </c>
       <c r="C31">
-        <f>10^B31</f>
-        <v>1991.7594588402533</v>
+        <v>3.4</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -6428,57 +8932,54 @@
         <v>3.0145135931139957</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>0.5</v>
       </c>
       <c r="B32">
-        <f xml:space="preserve"> B31*EXP(A32/-8.31)</f>
-        <v>3.1065808741803482</v>
+        <f t="shared" ref="B32:B67" si="16" xml:space="preserve"> 3.43*EXP(A32/-8.31)</f>
+        <v>3.2297081898609594</v>
       </c>
       <c r="C32">
-        <f t="shared" ref="C32:C67" si="18">10^B32</f>
-        <v>1278.147203571915</v>
+        <v>3.4</v>
       </c>
       <c r="F32">
         <v>2</v>
       </c>
       <c r="G32">
-        <f t="shared" ref="G32:G40" si="19">3.4*EXP(F32/-8.31)</f>
+        <f t="shared" ref="G32:G40" si="17">3.4*EXP(F32/-8.31)</f>
         <v>2.6727330009026629</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>0.75</v>
       </c>
       <c r="B33">
-        <f t="shared" ref="B32:D42" si="20" xml:space="preserve"> B32*EXP(A33/-8.31)</f>
-        <v>2.8384837434773935</v>
+        <f t="shared" si="16"/>
+        <v>3.1339918818937047</v>
       </c>
       <c r="C33">
-        <f t="shared" si="18"/>
-        <v>689.41978630813287</v>
+        <v>3.4</v>
       </c>
       <c r="F33">
         <v>3</v>
       </c>
       <c r="G33">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>2.3697029299957171</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1</v>
       </c>
       <c r="B34">
-        <f t="shared" si="20"/>
-        <v>2.5166611260428535</v>
+        <f t="shared" si="16"/>
+        <v>3.0411122424650014</v>
       </c>
       <c r="C34">
-        <f t="shared" si="18"/>
-        <v>328.59513259620911</v>
+        <v>3.4</v>
       </c>
       <c r="D34">
         <f xml:space="preserve"> 3.4*EXP(1/-8.31)</f>
@@ -6492,486 +8993,1734 @@
         <v>4</v>
       </c>
       <c r="G34">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>2.1010299100335743</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1.25</v>
       </c>
       <c r="B35">
-        <f t="shared" si="20"/>
-        <v>2.1651981764158315</v>
+        <f t="shared" si="16"/>
+        <v>2.9509852034722619</v>
       </c>
       <c r="C35">
-        <f t="shared" si="18"/>
-        <v>146.2844544564561</v>
+        <v>3.4</v>
       </c>
       <c r="F35">
         <v>5</v>
       </c>
       <c r="G35">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>1.8628185950986134</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1.5</v>
       </c>
       <c r="B36">
-        <f t="shared" si="20"/>
-        <v>1.8076117132833045</v>
+        <f t="shared" si="16"/>
+        <v>2.8635291882727825</v>
       </c>
       <c r="C36">
-        <f t="shared" si="18"/>
-        <v>64.211337066559281</v>
+        <v>3.4</v>
       </c>
       <c r="F36">
         <v>6</v>
       </c>
       <c r="G36">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>1.6516152871853784</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1.75</v>
       </c>
       <c r="B37">
-        <f t="shared" si="20"/>
-        <v>1.464357862886823</v>
+        <f t="shared" si="16"/>
+        <v>2.7786650378463191</v>
       </c>
       <c r="C37">
-        <f t="shared" si="18"/>
-        <v>29.131165657955126</v>
+        <v>3.4</v>
       </c>
       <c r="F37">
         <v>7</v>
       </c>
       <c r="G37">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>1.4643578628868232</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2</v>
       </c>
       <c r="B38">
-        <f t="shared" si="20"/>
-        <v>1.1511287015496789</v>
+        <f t="shared" si="16"/>
+        <v>2.6963159391459217</v>
       </c>
       <c r="C38">
-        <f t="shared" si="18"/>
-        <v>14.162134073369213</v>
+        <v>3.4</v>
       </c>
       <c r="F38">
         <v>8</v>
       </c>
       <c r="G38">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>1.298331377310497</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2.25</v>
       </c>
       <c r="B39">
-        <f t="shared" si="20"/>
-        <v>0.87808209969237028</v>
+        <f t="shared" si="16"/>
+        <v>2.6164073555721776</v>
       </c>
       <c r="C39">
-        <f t="shared" si="18"/>
-        <v>7.5523498494687749</v>
+        <v>3.4</v>
       </c>
       <c r="F39">
         <v>9</v>
       </c>
       <c r="G39">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>1.1511287015496792</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2.5</v>
       </c>
       <c r="B40">
-        <f t="shared" si="20"/>
-        <v>0.64995149581466882</v>
+        <f t="shared" si="16"/>
+        <v>2.5388669595079381</v>
       </c>
       <c r="C40">
-        <f t="shared" si="18"/>
-        <v>4.466337070734391</v>
+        <v>3.4</v>
       </c>
       <c r="F40">
         <v>10</v>
       </c>
       <c r="G40">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>1.0206156230132859</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2.75</v>
       </c>
       <c r="B41">
-        <f t="shared" si="20"/>
-        <v>0.46683279077303741</v>
+        <f t="shared" si="16"/>
+        <v>2.4636245668524546</v>
       </c>
       <c r="C41">
-        <f t="shared" si="18"/>
-        <v>2.9297650290649111</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>3</v>
       </c>
       <c r="B42">
-        <f t="shared" si="20"/>
-        <v>0.32536912709204246</v>
+        <f t="shared" si="16"/>
+        <v>2.3906120734956797</v>
       </c>
       <c r="C42">
-        <f t="shared" si="18"/>
-        <v>2.1152861561506566</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>3.25</v>
       </c>
       <c r="B43">
-        <f xml:space="preserve"> B42*EXP(A43/-8.31)</f>
-        <v>0.22005230042570928</v>
+        <f t="shared" si="16"/>
+        <v>2.3197633936752275</v>
       </c>
       <c r="C43">
-        <f t="shared" si="18"/>
-        <v>1.6597867771847232</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>3.5</v>
       </c>
       <c r="B44">
-        <f t="shared" ref="B44:B67" si="21" xml:space="preserve"> B43*EXP(A44/-8.31)</f>
-        <v>0.14441425569873181</v>
+        <f t="shared" si="16"/>
+        <v>2.2510144001602002</v>
       </c>
       <c r="C44">
-        <f t="shared" si="18"/>
-        <v>1.3944863120767688</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>3.75</v>
       </c>
       <c r="B45">
-        <f t="shared" si="21"/>
-        <v>9.1966318555101123E-2</v>
+        <f t="shared" si="16"/>
+        <v>2.1843028662077364</v>
       </c>
       <c r="C45">
-        <f t="shared" si="18"/>
-        <v>1.235851584008431</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>4</v>
       </c>
       <c r="B46">
-        <f t="shared" si="21"/>
-        <v>5.6830584117630339E-2</v>
+        <f t="shared" si="16"/>
+        <v>2.1195684092397533</v>
       </c>
       <c r="C46">
-        <f t="shared" si="18"/>
-        <v>1.1398050691539598</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>4.25</v>
       </c>
       <c r="B47">
-        <f t="shared" si="21"/>
-        <v>3.4077679980750397E-2</v>
+        <f t="shared" si="16"/>
+        <v>2.0567524361888903</v>
       </c>
       <c r="C47">
-        <f t="shared" si="18"/>
-        <v>1.0816273990282326</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>4.5</v>
       </c>
       <c r="B48">
-        <f t="shared" si="21"/>
-        <v>1.9828620592720593E-2</v>
+        <f t="shared" si="16"/>
+        <v>1.9957980904641972</v>
       </c>
       <c r="C48">
-        <f t="shared" si="18"/>
-        <v>1.046715416238464</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>4.75</v>
       </c>
       <c r="B49">
-        <f t="shared" si="21"/>
-        <v>1.1195656573266415E-2</v>
+        <f t="shared" si="16"/>
+        <v>1.936650200488554</v>
       </c>
       <c r="C49">
-        <f t="shared" si="18"/>
-        <v>1.0261141028623695</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>5</v>
       </c>
       <c r="B50">
-        <f t="shared" si="21"/>
-        <v>6.1339638967702059E-3</v>
+        <f t="shared" si="16"/>
+        <v>1.8792552297612484</v>
       </c>
       <c r="C50">
-        <f t="shared" si="18"/>
-        <v>1.0142241884015266</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>5.25</v>
       </c>
       <c r="B51">
-        <f t="shared" si="21"/>
-        <v>3.2611249966643316E-3</v>
+        <f t="shared" si="16"/>
+        <v>1.8235612284005103</v>
       </c>
       <c r="C51">
-        <f t="shared" si="18"/>
-        <v>1.0075372811769989</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>5.5</v>
       </c>
       <c r="B52">
-        <f t="shared" si="21"/>
-        <v>1.6823961178906827E-3</v>
+        <f t="shared" si="16"/>
+        <v>1.7695177861221409</v>
       </c>
       <c r="C52">
-        <f t="shared" si="18"/>
-        <v>1.0038813733165015</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>5.75</v>
       </c>
       <c r="B53">
-        <f t="shared" si="21"/>
-        <v>8.4221631895008565E-4</v>
+        <f t="shared" si="16"/>
+        <v>1.7170759866116738</v>
       </c>
       <c r="C53">
-        <f t="shared" si="18"/>
-        <v>1.0019411563504741</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>6</v>
       </c>
       <c r="B54">
-        <f t="shared" si="21"/>
-        <v>4.0912274926322296E-4</v>
+        <f t="shared" si="16"/>
+        <v>1.6661883632487791</v>
       </c>
       <c r="C54">
-        <f t="shared" si="18"/>
-        <v>1.0009424838026526</v>
+        <v>3.4</v>
       </c>
       <c r="D54">
         <f>260/454</f>
         <v>0.57268722466960353</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>6.25</v>
       </c>
       <c r="B55">
-        <f t="shared" si="21"/>
-        <v>1.9284935401127907E-4</v>
+        <f t="shared" si="16"/>
+        <v>1.6168088561438219</v>
       </c>
       <c r="C55">
-        <f t="shared" si="18"/>
-        <v>1.0004441506534452</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>6.5</v>
       </c>
       <c r="B56">
-        <f t="shared" si="21"/>
-        <v>8.8209900085657369E-5</v>
+        <f t="shared" si="16"/>
+        <v>1.5688927704476994</v>
       </c>
       <c r="C56">
-        <f t="shared" si="18"/>
-        <v>1.0002031314293871</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>6.75</v>
       </c>
       <c r="B57">
-        <f t="shared" si="21"/>
-        <v>3.9151738765079837E-5</v>
+        <f t="shared" si="16"/>
+        <v>1.5223967358972106</v>
       </c>
       <c r="C57">
-        <f t="shared" si="18"/>
-        <v>1.0000901542736975</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>7</v>
       </c>
       <c r="B58">
-        <f t="shared" si="21"/>
-        <v>1.6862398972451619E-5</v>
+        <f t="shared" si="16"/>
+        <v>1.4772786675593541</v>
       </c>
       <c r="C58">
-        <f t="shared" si="18"/>
-        <v>1.000038827862288</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>7.25</v>
       </c>
       <c r="B59">
-        <f t="shared" si="21"/>
-        <v>7.0472917233930182E-6</v>
+        <f t="shared" si="16"/>
+        <v>1.4334977277390124</v>
       </c>
       <c r="C59">
-        <f t="shared" si="18"/>
-        <v>1.0000162271205266</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>7.5</v>
       </c>
       <c r="B60">
-        <f t="shared" si="21"/>
-        <v>2.8579835236445184E-6</v>
+        <f t="shared" si="16"/>
+        <v>1.3910142890155486</v>
       </c>
       <c r="C60">
-        <f t="shared" si="18"/>
-        <v>1.0000065807719107</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>7.75</v>
       </c>
       <c r="B61">
-        <f t="shared" si="21"/>
-        <v>1.1246872565414444E-6</v>
+        <f t="shared" si="16"/>
+        <v>1.3497898983748586</v>
       </c>
       <c r="C61">
-        <f t="shared" si="18"/>
-        <v>1.0000025896914644</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>8</v>
       </c>
       <c r="B62">
-        <f t="shared" si="21"/>
-        <v>4.294755161261817E-7</v>
+        <f t="shared" si="16"/>
+        <v>1.3097872424044132</v>
       </c>
       <c r="C62">
-        <f t="shared" si="18"/>
-        <v>1.0000009889044101</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>8.25</v>
       </c>
       <c r="B63">
-        <f t="shared" si="21"/>
-        <v>1.5914010072444976E-7</v>
+        <f t="shared" si="16"/>
+        <v>1.2709701135197879</v>
       </c>
       <c r="C63">
-        <f t="shared" si="18"/>
-        <v>1.0000003664336907</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>8.5</v>
       </c>
       <c r="B64">
-        <f t="shared" si="21"/>
-        <v>5.722099815456452E-8</v>
+        <f t="shared" si="16"/>
+        <v>1.2333033771921094</v>
       </c>
       <c r="C64">
-        <f t="shared" si="18"/>
-        <v>1.0000001317562259</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>8.75</v>
       </c>
       <c r="B65">
-        <f t="shared" si="21"/>
-        <v>1.9964839002800925E-8</v>
+        <f t="shared" si="16"/>
+        <v>1.1967529401467558</v>
       </c>
       <c r="C65">
-        <f t="shared" si="18"/>
-        <v>1.0000000459707417</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>9</v>
       </c>
       <c r="B66">
-        <f t="shared" si="21"/>
-        <v>6.7594409405713589E-9</v>
+        <f t="shared" si="16"/>
+        <v>1.1612857195045294</v>
       </c>
       <c r="C66">
-        <f t="shared" si="18"/>
-        <v>1.0000000155641882</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>9.25</v>
       </c>
       <c r="B67">
+        <f t="shared" si="16"/>
+        <v>1.1268696128373645</v>
+      </c>
+      <c r="C67">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C68">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C69">
+        <v>3.4</v>
+      </c>
+      <c r="D69" s="24">
+        <f>10^C69*250</f>
+        <v>627971.60787739523</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <v>3.4</v>
+      </c>
+      <c r="D70" s="24">
+        <f>10^C70*250</f>
+        <v>627971.60787739523</v>
+      </c>
+      <c r="E70" s="25">
+        <f>D70-D71</f>
+        <v>130031.74316733191</v>
+      </c>
+      <c r="F70" s="25">
+        <f>LOG10(E70/250)</f>
+        <v>2.7161093759392472</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>0.25</v>
+      </c>
+      <c r="B71">
+        <v>0.25</v>
+      </c>
+      <c r="C71">
+        <f xml:space="preserve"> 3.4*EXP(B71/-8.31)</f>
+        <v>3.2992368883014542</v>
+      </c>
+      <c r="D71" s="24">
+        <f>10^C71*(1000*B71)</f>
+        <v>497939.86471006332</v>
+      </c>
+      <c r="E71" s="25">
+        <f t="shared" ref="E71:E110" si="18">D71-D72</f>
+        <v>100382.29969406856</v>
+      </c>
+      <c r="F71" s="25">
+        <f t="shared" ref="F71:F110" si="19">LOG10(E71/250)</f>
+        <v>2.6037171321958539</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>0.5</v>
+      </c>
+      <c r="B72">
+        <v>0.25</v>
+      </c>
+      <c r="C72">
+        <f xml:space="preserve"> C71*EXP(B72/-8.31)</f>
+        <v>3.201460013273254</v>
+      </c>
+      <c r="D72" s="24">
+        <f>10^C72*(1000*B72)</f>
+        <v>397557.56501599477</v>
+      </c>
+      <c r="E72" s="25">
+        <f t="shared" si="18"/>
+        <v>78020.764123016037</v>
+      </c>
+      <c r="F72" s="25">
+        <f t="shared" si="19"/>
+        <v>2.4942701907359868</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>0.75</v>
+      </c>
+      <c r="B73">
+        <v>0.25</v>
+      </c>
+      <c r="C73">
+        <f t="shared" ref="C73:C110" si="20" xml:space="preserve"> C72*EXP(B73/-8.31)</f>
+        <v>3.1065808741803482</v>
+      </c>
+      <c r="D73" s="24">
+        <f t="shared" ref="D73:D110" si="21">10^C73*(1000*B73)</f>
+        <v>319536.80089297873</v>
+      </c>
+      <c r="E73" s="25">
+        <f t="shared" si="18"/>
+        <v>61040.935033920076</v>
+      </c>
+      <c r="F73" s="25">
+        <f t="shared" si="19"/>
+        <v>2.3876811689117732</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>1</v>
+      </c>
+      <c r="B74">
+        <v>0.25</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="20"/>
+        <v>3.0145135931139952</v>
+      </c>
+      <c r="D74" s="24">
         <f t="shared" si="21"/>
-        <v>2.2207022144894104E-9</v>
-      </c>
-      <c r="C67">
+        <v>258495.86585905866</v>
+      </c>
+      <c r="E74" s="25">
         <f t="shared" si="18"/>
-        <v>1.0000000051133557</v>
+        <v>48062.381675818877</v>
+      </c>
+      <c r="F74" s="25">
+        <f t="shared" si="19"/>
+        <v>2.283865279290588</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>1.25</v>
+      </c>
+      <c r="B75">
+        <v>0.25</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="20"/>
+        <v>2.9251748372611335</v>
+      </c>
+      <c r="D75" s="24">
+        <f t="shared" si="21"/>
+        <v>210433.48418323978</v>
+      </c>
+      <c r="E75" s="25">
+        <f t="shared" si="18"/>
+        <v>38078.537606207043</v>
+      </c>
+      <c r="F75" s="25">
+        <f t="shared" si="19"/>
+        <v>2.1827402524230126</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>1.5</v>
+      </c>
+      <c r="B76">
+        <v>0.25</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="20"/>
+        <v>2.8384837434773926</v>
+      </c>
+      <c r="D76" s="24">
+        <f t="shared" si="21"/>
+        <v>172354.94657703274</v>
+      </c>
+      <c r="E76" s="25">
+        <f t="shared" si="18"/>
+        <v>30350.52938429956</v>
+      </c>
+      <c r="F76" s="25">
+        <f t="shared" si="19"/>
+        <v>2.0842262619179874</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>1.75</v>
+      </c>
+      <c r="B77">
+        <v>0.25</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="20"/>
+        <v>2.7543618450954757</v>
+      </c>
+      <c r="D77" s="24">
+        <f t="shared" si="21"/>
+        <v>142004.41719273318</v>
+      </c>
+      <c r="E77" s="25">
+        <f t="shared" si="18"/>
+        <v>24332.451165249135</v>
+      </c>
+      <c r="F77" s="25">
+        <f t="shared" si="19"/>
+        <v>1.9882458517557706</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>2</v>
+      </c>
+      <c r="B78">
+        <v>0.25</v>
+      </c>
+      <c r="C78">
+        <f t="shared" si="20"/>
+        <v>2.6727330009026615</v>
+      </c>
+      <c r="D78" s="24">
+        <f t="shared" si="21"/>
+        <v>117671.96602748404</v>
+      </c>
+      <c r="E78" s="25">
+        <f t="shared" si="18"/>
+        <v>19618.41306924817</v>
+      </c>
+      <c r="F78" s="25">
+        <f t="shared" si="19"/>
+        <v>1.8947238657713628</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>2.25</v>
+      </c>
+      <c r="B79">
+        <v>0.25</v>
+      </c>
+      <c r="C79">
+        <f t="shared" si="20"/>
+        <v>2.5935233262231487</v>
+      </c>
+      <c r="D79" s="24">
+        <f t="shared" si="21"/>
+        <v>98053.552958235872</v>
+      </c>
+      <c r="E79" s="25">
+        <f t="shared" si="18"/>
+        <v>15904.769809183737</v>
+      </c>
+      <c r="F79" s="25">
+        <f t="shared" si="19"/>
+        <v>1.803587379243226</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>2.5</v>
+      </c>
+      <c r="B80">
+        <v>0.25</v>
+      </c>
+      <c r="C80">
+        <f t="shared" si="20"/>
+        <v>2.5166611260428526</v>
+      </c>
+      <c r="D80" s="24">
+        <f t="shared" si="21"/>
+        <v>82148.783149052135</v>
+      </c>
+      <c r="E80" s="25">
+        <f t="shared" si="18"/>
+        <v>12963.003586737614</v>
+      </c>
+      <c r="F80" s="25">
+        <f t="shared" si="19"/>
+        <v>1.7147656325239509</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>2.75</v>
+      </c>
+      <c r="B81">
+        <v>0.25</v>
+      </c>
+      <c r="C81">
+        <f t="shared" si="20"/>
+        <v>2.4420768301161342</v>
+      </c>
+      <c r="D81" s="24">
+        <f t="shared" si="21"/>
+        <v>69185.779562314521</v>
+      </c>
+      <c r="E81" s="25">
+        <f t="shared" si="18"/>
+        <v>10620.133481927303</v>
+      </c>
+      <c r="F81" s="25">
+        <f t="shared" si="19"/>
+        <v>1.6281899666515813</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>3</v>
+      </c>
+      <c r="B82">
+        <v>0.25</v>
+      </c>
+      <c r="C82">
+        <f t="shared" si="20"/>
+        <v>2.3697029299957157</v>
+      </c>
+      <c r="D82" s="24">
+        <f t="shared" si="21"/>
+        <v>58565.646080387218</v>
+      </c>
+      <c r="E82" s="25">
+        <f t="shared" si="18"/>
+        <v>8744.4755857162381</v>
+      </c>
+      <c r="F82" s="25">
+        <f t="shared" si="19"/>
+        <v>1.5437937608820826</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>3.25</v>
+      </c>
+      <c r="B83">
+        <v>0.25</v>
+      </c>
+      <c r="C83">
+        <f t="shared" si="20"/>
+        <v>2.2994739179287955</v>
+      </c>
+      <c r="D83" s="24">
+        <f t="shared" si="21"/>
+        <v>49821.17049467098</v>
+      </c>
+      <c r="E83" s="25">
+        <f t="shared" si="18"/>
+        <v>7235.230655380401</v>
+      </c>
+      <c r="F83" s="25">
+        <f t="shared" si="19"/>
+        <v>1.4615123720853256</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>3.5</v>
+      </c>
+      <c r="B84">
+        <v>0.25</v>
+      </c>
+      <c r="C84">
+        <f t="shared" si="20"/>
+        <v>2.2313262275640451</v>
+      </c>
+      <c r="D84" s="24">
+        <f t="shared" si="21"/>
+        <v>42585.939839290579</v>
+      </c>
+      <c r="E84" s="25">
+        <f t="shared" si="18"/>
+        <v>6014.8262251766209</v>
+      </c>
+      <c r="F84" s="25">
+        <f t="shared" si="19"/>
+        <v>1.3812830759486183</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>3.75</v>
+      </c>
+      <c r="B85">
+        <v>0.25</v>
+      </c>
+      <c r="C85">
+        <f t="shared" si="20"/>
+        <v>2.1651981764158306</v>
+      </c>
+      <c r="D85" s="24">
+        <f t="shared" si="21"/>
+        <v>36571.113614113958</v>
+      </c>
+      <c r="E85" s="25">
+        <f t="shared" si="18"/>
+        <v>5023.2526104376993</v>
+      </c>
+      <c r="F85" s="25">
+        <f t="shared" si="19"/>
+        <v>1.3030450099335849</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>4</v>
+      </c>
+      <c r="B86">
+        <v>0.25</v>
+      </c>
+      <c r="C86">
+        <f t="shared" si="20"/>
+        <v>2.101029910033573</v>
+      </c>
+      <c r="D86" s="24">
+        <f t="shared" si="21"/>
+        <v>31547.861003676258</v>
+      </c>
+      <c r="E86" s="25">
+        <f t="shared" si="18"/>
+        <v>4213.8505297326519</v>
+      </c>
+      <c r="F86" s="25">
+        <f t="shared" si="19"/>
+        <v>1.2267391179337899</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>4.25</v>
+      </c>
+      <c r="B87">
+        <v>0.25</v>
+      </c>
+      <c r="C87">
+        <f t="shared" si="20"/>
+        <v>2.0387633478257206</v>
+      </c>
+      <c r="D87" s="24">
+        <f t="shared" si="21"/>
+        <v>27334.010473943606</v>
+      </c>
+      <c r="E87" s="25">
+        <f t="shared" si="18"/>
+        <v>3550.1614616447987</v>
+      </c>
+      <c r="F87" s="25">
+        <f t="shared" si="19"/>
+        <v>1.1523080965821482</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>4.5</v>
+      </c>
+      <c r="B88">
+        <v>0.25</v>
+      </c>
+      <c r="C88">
+        <f t="shared" si="20"/>
+        <v>1.9783421304892901</v>
+      </c>
+      <c r="D88" s="24">
+        <f t="shared" si="21"/>
+        <v>23783.849012298808</v>
+      </c>
+      <c r="E88" s="25">
+        <f t="shared" si="18"/>
+        <v>3003.560275711945</v>
+      </c>
+      <c r="F88" s="25">
+        <f t="shared" si="19"/>
+        <v>1.0796963431586724</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>4.75</v>
+      </c>
+      <c r="B89">
+        <v>0.25</v>
+      </c>
+      <c r="C89">
+        <f t="shared" si="20"/>
+        <v>1.9197115689973987</v>
+      </c>
+      <c r="D89" s="24">
+        <f t="shared" si="21"/>
+        <v>20780.288736586863</v>
+      </c>
+      <c r="E89" s="25">
+        <f t="shared" si="18"/>
+        <v>2551.466753651217</v>
+      </c>
+      <c r="F89" s="25">
+        <f t="shared" si="19"/>
+        <v>1.0088499050505377</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>5</v>
+      </c>
+      <c r="B90">
+        <v>0.25</v>
+      </c>
+      <c r="C90">
+        <f t="shared" si="20"/>
+        <v>1.862818595098612</v>
+      </c>
+      <c r="D90" s="24">
+        <f t="shared" si="21"/>
+        <v>18228.821982935646</v>
+      </c>
+      <c r="E90" s="25">
+        <f t="shared" si="18"/>
+        <v>2175.9877162958546</v>
+      </c>
+      <c r="F90" s="25">
+        <f t="shared" si="19"/>
+        <v>0.93971643071808209</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>5.25</v>
+      </c>
+      <c r="B91">
+        <v>0.25</v>
+      </c>
+      <c r="C91">
+        <f t="shared" si="20"/>
+        <v>1.8076117132833034</v>
+      </c>
+      <c r="D91" s="24">
+        <f t="shared" si="21"/>
+        <v>16052.834266639791</v>
+      </c>
+      <c r="E91" s="25">
+        <f t="shared" si="18"/>
+        <v>1862.8810752684858</v>
+      </c>
+      <c r="F91" s="25">
+        <f t="shared" si="19"/>
+        <v>0.87224512212156591</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>5.5</v>
+      </c>
+      <c r="B92">
+        <v>0.25</v>
+      </c>
+      <c r="C92">
+        <f t="shared" si="20"/>
+        <v>1.7540409541735491</v>
+      </c>
+      <c r="D92" s="24">
+        <f t="shared" si="21"/>
+        <v>14189.953191371305</v>
+      </c>
+      <c r="E92" s="25">
+        <f t="shared" si="18"/>
+        <v>1600.7617459334324</v>
+      </c>
+      <c r="F92" s="25">
+        <f t="shared" si="19"/>
+        <v>0.80638668856498219</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>5.75</v>
+      </c>
+      <c r="B93">
+        <v>0.25</v>
+      </c>
+      <c r="C93">
+        <f t="shared" si="20"/>
+        <v>1.7020578292943689</v>
+      </c>
+      <c r="D93" s="24">
+        <f t="shared" si="21"/>
+        <v>12589.191445437873</v>
+      </c>
+      <c r="E93" s="25">
+        <f t="shared" si="18"/>
+        <v>1380.4901447714874</v>
+      </c>
+      <c r="F93" s="25">
+        <f t="shared" si="19"/>
+        <v>0.74209330191451683</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>6</v>
+      </c>
+      <c r="B94">
+        <v>0.25</v>
+      </c>
+      <c r="C94">
+        <f t="shared" si="20"/>
+        <v>1.6516152871853771</v>
+      </c>
+      <c r="D94" s="24">
+        <f t="shared" si="21"/>
+        <v>11208.701300666386</v>
+      </c>
+      <c r="E94" s="25">
+        <f t="shared" si="18"/>
+        <v>1194.6991695855395</v>
+      </c>
+      <c r="F94" s="25">
+        <f t="shared" si="19"/>
+        <v>0.67931855315053025</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>6.25</v>
+      </c>
+      <c r="B95">
+        <v>0.25</v>
+      </c>
+      <c r="C95">
+        <f t="shared" si="20"/>
+        <v>1.6026676708131167</v>
+      </c>
+      <c r="D95" s="24">
+        <f t="shared" si="21"/>
+        <v>10014.002131080846</v>
+      </c>
+      <c r="E95" s="25">
+        <f t="shared" si="18"/>
+        <v>1037.4266946295247</v>
+      </c>
+      <c r="F95" s="25">
+        <f t="shared" si="19"/>
+        <v>0.6180174102131557</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>6.5</v>
+      </c>
+      <c r="B96">
+        <v>0.25</v>
+      </c>
+      <c r="C96">
+        <f t="shared" si="20"/>
+        <v>1.5551706762455315</v>
+      </c>
+      <c r="D96" s="24">
+        <f t="shared" si="21"/>
+        <v>8976.5754364513214</v>
+      </c>
+      <c r="E96" s="25">
+        <f t="shared" si="18"/>
+        <v>903.8288208282238</v>
+      </c>
+      <c r="F96" s="25">
+        <f t="shared" si="19"/>
+        <v>0.55814617710284875</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>6.75</v>
+      </c>
+      <c r="B97">
+        <v>0.25</v>
+      </c>
+      <c r="C97">
+        <f t="shared" si="20"/>
+        <v>1.5090813125511695</v>
+      </c>
+      <c r="D97" s="24">
+        <f t="shared" si="21"/>
+        <v>8072.7466156230976</v>
+      </c>
+      <c r="E97" s="25">
+        <f t="shared" si="18"/>
+        <v>789.95520113433213</v>
+      </c>
+      <c r="F97" s="25">
+        <f t="shared" si="19"/>
+        <v>0.49966245419837479</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>7</v>
+      </c>
+      <c r="B98">
+        <v>0.25</v>
+      </c>
+      <c r="C98">
+        <f t="shared" si="20"/>
+        <v>1.4643578628868221</v>
+      </c>
+      <c r="D98" s="24">
+        <f t="shared" si="21"/>
+        <v>7282.7914144887654</v>
+      </c>
+      <c r="E98" s="25">
+        <f t="shared" si="18"/>
+        <v>692.57228538103391</v>
+      </c>
+      <c r="F98" s="25">
+        <f t="shared" si="19"/>
+        <v>0.44252509975579968</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>7.25</v>
+      </c>
+      <c r="B99">
+        <v>0.25</v>
+      </c>
+      <c r="C99">
+        <f t="shared" si="20"/>
+        <v>1.4209598467383786</v>
+      </c>
+      <c r="D99" s="24">
+        <f t="shared" si="21"/>
+        <v>6590.2191291077315</v>
+      </c>
+      <c r="E99" s="25">
+        <f t="shared" si="18"/>
+        <v>609.02371094656701</v>
+      </c>
+      <c r="F99" s="25">
+        <f t="shared" si="19"/>
+        <v>0.38669419255327897</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>7.5</v>
+      </c>
+      <c r="B100">
+        <v>0.25</v>
+      </c>
+      <c r="C100">
+        <f t="shared" si="20"/>
+        <v>1.3788479832807177</v>
+      </c>
+      <c r="D100" s="24">
+        <f t="shared" si="21"/>
+        <v>5981.1954181611645</v>
+      </c>
+      <c r="E100" s="25">
+        <f t="shared" si="18"/>
+        <v>537.11960474926764</v>
+      </c>
+      <c r="F100" s="25">
+        <f t="shared" si="19"/>
+        <v>0.3321309956473093</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>7.75</v>
+      </c>
+      <c r="B101">
+        <v>0.25</v>
+      </c>
+      <c r="C101">
+        <f t="shared" si="20"/>
+        <v>1.3379841558234737</v>
+      </c>
+      <c r="D101" s="24">
+        <f t="shared" si="21"/>
+        <v>5444.0758134118969</v>
+      </c>
+      <c r="E101" s="25">
+        <f t="shared" si="18"/>
+        <v>475.04847677326052</v>
+      </c>
+      <c r="F101" s="25">
+        <f t="shared" si="19"/>
+        <v>0.27879792120734331</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>8</v>
+      </c>
+      <c r="B102">
+        <v>0.25</v>
+      </c>
+      <c r="C102">
+        <f t="shared" si="20"/>
+        <v>1.2983313773104959</v>
+      </c>
+      <c r="D102" s="24">
+        <f t="shared" si="21"/>
+        <v>4969.0273366386364</v>
+      </c>
+      <c r="E102" s="25">
+        <f t="shared" si="18"/>
+        <v>421.30683517621856</v>
+      </c>
+      <c r="F102" s="25">
+        <f t="shared" si="19"/>
+        <v>0.22665849639650132</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>8.25</v>
+      </c>
+      <c r="B103">
+        <v>0.25</v>
+      </c>
+      <c r="C103">
+        <f t="shared" si="20"/>
+        <v>1.2598537568417711</v>
+      </c>
+      <c r="D103" s="24">
+        <f t="shared" si="21"/>
+        <v>4547.7205014624178</v>
+      </c>
+      <c r="E103" s="25">
+        <f t="shared" si="18"/>
+        <v>374.64275542631822</v>
+      </c>
+      <c r="F103" s="25">
+        <f t="shared" si="19"/>
+        <v>0.17567733026717022</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>8.5</v>
+      </c>
+      <c r="B104">
+        <v>0.25</v>
+      </c>
+      <c r="C104">
+        <f t="shared" si="20"/>
+        <v>1.2225164671875124</v>
+      </c>
+      <c r="D104" s="24">
+        <f t="shared" si="21"/>
+        <v>4173.0777460360996</v>
+      </c>
+      <c r="E104" s="25">
+        <f t="shared" si="18"/>
+        <v>334.01047750114139</v>
+      </c>
+      <c r="F104" s="25">
+        <f t="shared" si="19"/>
+        <v>0.12582008164120376</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>8.75</v>
+      </c>
+      <c r="B105">
+        <v>0.25</v>
+      </c>
+      <c r="C105">
+        <f t="shared" si="20"/>
+        <v>1.1862857132650046</v>
+      </c>
+      <c r="D105" s="24">
+        <f t="shared" si="21"/>
+        <v>3839.0672685349582</v>
+      </c>
+      <c r="E105" s="25">
+        <f t="shared" si="18"/>
+        <v>298.53375019266286</v>
+      </c>
+      <c r="F105" s="25">
+        <f t="shared" si="19"/>
+        <v>7.7053427945328851E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>9</v>
+      </c>
+      <c r="B106">
+        <v>0.25</v>
+      </c>
+      <c r="C106">
+        <f t="shared" si="20"/>
+        <v>1.1511287015496781</v>
+      </c>
+      <c r="D106" s="24">
+        <f t="shared" si="21"/>
+        <v>3540.5335183422953</v>
+      </c>
+      <c r="E106" s="25">
+        <f t="shared" si="18"/>
+        <v>267.47613781977589</v>
+      </c>
+      <c r="F106" s="25">
+        <f t="shared" si="19"/>
+        <v>2.934503497325755E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>9.25</v>
+      </c>
+      <c r="B107">
+        <v>0.25</v>
+      </c>
+      <c r="C107">
+        <f t="shared" si="20"/>
+        <v>1.1170136103927215</v>
+      </c>
+      <c r="D107" s="24">
+        <f t="shared" si="21"/>
+        <v>3273.0573805225195</v>
+      </c>
+      <c r="E107" s="25">
+        <f t="shared" si="18"/>
+        <v>240.21688789804602</v>
+      </c>
+      <c r="F107" s="25">
+        <f t="shared" si="19"/>
+        <v>-1.7336472453131333E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>9.5</v>
+      </c>
+      <c r="B108">
+        <v>0.25</v>
+      </c>
+      <c r="C108">
+        <f t="shared" si="20"/>
+        <v>1.0839095612183693</v>
+      </c>
+      <c r="D108" s="24">
+        <f t="shared" si="21"/>
+        <v>3032.8404926244734</v>
+      </c>
+      <c r="E108" s="25">
+        <f t="shared" si="18"/>
+        <v>216.23125538136173</v>
+      </c>
+      <c r="F108" s="25">
+        <f t="shared" si="19"/>
+        <v>-6.3021538950348441E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>9.75</v>
+      </c>
+      <c r="B109">
+        <v>0.25</v>
+      </c>
+      <c r="C109">
+        <f t="shared" si="20"/>
+        <v>1.0517865905747905</v>
+      </c>
+      <c r="D109" s="24">
+        <f t="shared" si="21"/>
+        <v>2816.6092372431117</v>
+      </c>
+      <c r="E109" s="25">
+        <f t="shared" si="18"/>
+        <v>195.07441018273403</v>
+      </c>
+      <c r="F109" s="25">
+        <f t="shared" si="19"/>
+        <v>-0.10773970619363409</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>10</v>
+      </c>
+      <c r="B110">
+        <v>0.25</v>
+      </c>
+      <c r="C110">
+        <f t="shared" si="20"/>
+        <v>1.0206156230132846</v>
+      </c>
+      <c r="D110" s="24">
+        <f t="shared" si="21"/>
+        <v>2621.5348270603777</v>
+      </c>
+      <c r="E110" s="25">
+        <f>D110-D111</f>
+        <v>2621.5348270603777</v>
+      </c>
+      <c r="F110" s="25">
+        <f t="shared" si="19"/>
+        <v>1.0206156230132846</v>
+      </c>
+    </row>
+    <row r="124" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q124">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC9B0D75-E632-4C45-8858-0E9889F8287D}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M33" sqref="M33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEEC1AF1-5AD4-4EF3-8E46-E6A561BE2E61}">
+  <dimension ref="A1:G22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.140625" customWidth="1"/>
+    <col min="2" max="2" width="32.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="24.5703125" customWidth="1"/>
+    <col min="6" max="7" width="29.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Model Parametrization.xlsx
+++ b/Model Parametrization.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gareyes3\Documents\GitHub\CPS-Farm-to-Facility_L_T\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D65CC2F3-E4E8-435C-A2F5-9C8471ABA954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62443B4A-61D9-44B0-9E49-7725A931F95D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="4" xr2:uid="{A7FC8448-A2FF-4BB1-802F-01EED4E56C52}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="5" xr2:uid="{A7FC8448-A2FF-4BB1-802F-01EED4E56C52}"/>
   </bookViews>
   <sheets>
     <sheet name="Flume Washing" sheetId="5" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Temperature &amp; RH Calculations" sheetId="3" r:id="rId5"/>
     <sheet name="Freshcut-Dicing" sheetId="7" r:id="rId6"/>
     <sheet name="FreshCut-CC" sheetId="8" r:id="rId7"/>
-    <sheet name="FreshCut-Washing" sheetId="9" r:id="rId8"/>
+    <sheet name="FreshCut-Flume Washing" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1015,7 +1015,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1044,27 +1044,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1100,6 +1081,24 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3861,8 +3860,8 @@
   </sheetPr>
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P47" sqref="P47"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4959,10 +4958,10 @@
       <c r="D12" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="F12" s="18" t="s">
+      <c r="F12" s="32" t="s">
         <v>85</v>
       </c>
       <c r="G12" s="1" t="s">
@@ -4979,8 +4978,8 @@
       <c r="D13" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
     </row>
     <row r="14" spans="1:7" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
@@ -4992,8 +4991,8 @@
       <c r="D14" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
@@ -5159,32 +5158,32 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="36" t="s">
         <v>171</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="33" t="s">
         <v>172</v>
       </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="19" t="s">
+      <c r="C13" s="34"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="33" t="s">
         <v>173</v>
       </c>
-      <c r="F13" s="20"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="19" t="s">
+      <c r="F13" s="34"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="33" t="s">
         <v>167</v>
       </c>
-      <c r="I13" s="20"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="19" t="s">
+      <c r="I13" s="34"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="33" t="s">
         <v>168</v>
       </c>
-      <c r="L13" s="20"/>
-      <c r="M13" s="21"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="35"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="23"/>
+      <c r="A14" s="37"/>
       <c r="B14" t="s">
         <v>174</v>
       </c>
@@ -5664,42 +5663,42 @@
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="22" t="s">
+      <c r="A27" s="36" t="s">
         <v>171</v>
       </c>
-      <c r="B27" s="19" t="s">
+      <c r="B27" s="33" t="s">
         <v>178</v>
       </c>
-      <c r="C27" s="20"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="19" t="s">
+      <c r="C27" s="34"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="33" t="s">
         <v>173</v>
       </c>
-      <c r="F27" s="20"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="19" t="s">
+      <c r="F27" s="34"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="33" t="s">
         <v>179</v>
       </c>
-      <c r="I27" s="20"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="19" t="s">
+      <c r="I27" s="34"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="33" t="s">
         <v>167</v>
       </c>
-      <c r="L27" s="20"/>
-      <c r="M27" s="21"/>
-      <c r="N27" s="19" t="s">
+      <c r="L27" s="34"/>
+      <c r="M27" s="35"/>
+      <c r="N27" s="33" t="s">
         <v>180</v>
       </c>
-      <c r="O27" s="20"/>
-      <c r="P27" s="21"/>
-      <c r="Q27" s="19" t="s">
+      <c r="O27" s="34"/>
+      <c r="P27" s="35"/>
+      <c r="Q27" s="33" t="s">
         <v>168</v>
       </c>
-      <c r="R27" s="20"/>
-      <c r="S27" s="21"/>
+      <c r="R27" s="34"/>
+      <c r="S27" s="35"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="23"/>
+      <c r="A28" s="37"/>
       <c r="B28" t="s">
         <v>177</v>
       </c>
@@ -6423,1226 +6422,1224 @@
   </sheetPr>
   <dimension ref="A1:AC41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+    <sheetView topLeftCell="B10" workbookViewId="0">
       <selection activeCell="AC39" sqref="AC39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="26"/>
-    <col min="2" max="2" width="5" style="26" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="4.5703125" style="26" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="6" max="12" width="5" style="26" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5" style="26" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12" style="26" bestFit="1" customWidth="1"/>
-    <col min="16" max="27" width="3" style="26" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12" style="26" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="3" style="26" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="26"/>
+    <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="12" width="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
+    <col min="16" max="27" width="3" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:29" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="28">
+      <c r="B2" s="21">
         <v>42</v>
       </c>
-      <c r="C2" s="28">
+      <c r="C2" s="21">
         <v>42</v>
       </c>
-      <c r="D2" s="28">
+      <c r="D2" s="21">
         <v>85</v>
       </c>
-      <c r="E2" s="28">
+      <c r="E2" s="21">
         <v>66</v>
       </c>
-      <c r="F2" s="28">
+      <c r="F2" s="21">
         <v>86</v>
       </c>
-      <c r="G2" s="28">
+      <c r="G2" s="21">
         <v>65</v>
       </c>
-      <c r="H2" s="28">
+      <c r="H2" s="21">
         <v>86</v>
       </c>
-      <c r="I2" s="28">
+      <c r="I2" s="21">
         <v>65</v>
       </c>
-      <c r="J2" s="28">
+      <c r="J2" s="21">
         <v>86</v>
       </c>
-      <c r="K2" s="28">
+      <c r="K2" s="21">
         <v>64</v>
       </c>
-      <c r="L2" s="28">
+      <c r="L2" s="21">
         <v>85</v>
       </c>
-      <c r="M2" s="28">
+      <c r="M2" s="21">
         <v>65</v>
       </c>
-      <c r="N2" s="28">
+      <c r="N2" s="21">
         <v>85</v>
       </c>
-      <c r="O2" s="28">
+      <c r="O2" s="21">
         <v>67</v>
       </c>
-      <c r="P2" s="28">
+      <c r="P2" s="21">
         <v>86</v>
       </c>
-      <c r="Q2" s="28">
+      <c r="Q2" s="21">
         <v>71</v>
       </c>
-      <c r="R2" s="28">
+      <c r="R2" s="21">
         <v>88</v>
       </c>
-      <c r="S2" s="28">
+      <c r="S2" s="21">
         <v>75</v>
       </c>
-      <c r="T2" s="28">
+      <c r="T2" s="21">
         <v>88</v>
       </c>
-      <c r="U2" s="28">
+      <c r="U2" s="21">
         <v>69</v>
       </c>
-      <c r="V2" s="28">
+      <c r="V2" s="21">
         <v>86</v>
       </c>
-      <c r="W2" s="28">
+      <c r="W2" s="21">
         <v>62</v>
       </c>
-      <c r="X2" s="28">
+      <c r="X2" s="21">
         <v>85</v>
       </c>
-      <c r="Y2" s="28">
+      <c r="Y2" s="21">
         <v>63</v>
       </c>
-      <c r="Z2" s="28">
+      <c r="Z2" s="21">
         <v>86</v>
       </c>
-      <c r="AA2" s="28">
+      <c r="AA2" s="21">
         <v>67</v>
       </c>
-      <c r="AB2" s="28">
+      <c r="AB2" s="21">
         <v>67</v>
       </c>
-      <c r="AC2" s="29">
+      <c r="AC2" s="22">
         <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:29" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="31">
+      <c r="B3" s="24">
         <v>61</v>
       </c>
-      <c r="C3" s="31">
+      <c r="C3" s="24">
         <v>61</v>
       </c>
-      <c r="D3" s="31">
+      <c r="D3" s="24">
         <v>88</v>
       </c>
-      <c r="E3" s="31">
+      <c r="E3" s="24">
         <v>59</v>
       </c>
-      <c r="F3" s="31">
+      <c r="F3" s="24">
         <v>87</v>
       </c>
-      <c r="G3" s="31">
+      <c r="G3" s="24">
         <v>57</v>
       </c>
-      <c r="H3" s="31">
+      <c r="H3" s="24">
         <v>87</v>
       </c>
-      <c r="I3" s="31">
+      <c r="I3" s="24">
         <v>56</v>
       </c>
-      <c r="J3" s="31">
+      <c r="J3" s="24">
         <v>86</v>
       </c>
-      <c r="K3" s="31">
+      <c r="K3" s="24">
         <v>53</v>
       </c>
-      <c r="L3" s="31">
+      <c r="L3" s="24">
         <v>85</v>
       </c>
-      <c r="M3" s="31">
+      <c r="M3" s="24">
         <v>57</v>
       </c>
-      <c r="N3" s="31">
+      <c r="N3" s="24">
         <v>87</v>
       </c>
-      <c r="O3" s="31">
+      <c r="O3" s="24">
         <v>63</v>
       </c>
-      <c r="P3" s="31">
+      <c r="P3" s="24">
         <v>89</v>
       </c>
-      <c r="Q3" s="31">
+      <c r="Q3" s="24">
         <v>64</v>
       </c>
-      <c r="R3" s="31">
+      <c r="R3" s="24">
         <v>91</v>
       </c>
-      <c r="S3" s="31">
+      <c r="S3" s="24">
         <v>67</v>
       </c>
-      <c r="T3" s="31">
+      <c r="T3" s="24">
         <v>90</v>
       </c>
-      <c r="U3" s="31">
+      <c r="U3" s="24">
         <v>67</v>
       </c>
-      <c r="V3" s="31">
+      <c r="V3" s="24">
         <v>87</v>
       </c>
-      <c r="W3" s="31">
+      <c r="W3" s="24">
         <v>63</v>
       </c>
-      <c r="X3" s="31">
+      <c r="X3" s="24">
         <v>88</v>
       </c>
-      <c r="Y3" s="31">
+      <c r="Y3" s="24">
         <v>60</v>
       </c>
-      <c r="Z3" s="31">
+      <c r="Z3" s="24">
         <v>88</v>
       </c>
-      <c r="AA3" s="31">
+      <c r="AA3" s="24">
         <v>61</v>
       </c>
-      <c r="AB3" s="31">
+      <c r="AB3" s="24">
         <v>88</v>
       </c>
-      <c r="AC3" s="32">
+      <c r="AC3" s="25">
         <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="31">
+      <c r="B4" s="24">
         <v>61</v>
       </c>
-      <c r="C4" s="31">
+      <c r="C4" s="24">
         <v>61</v>
       </c>
-      <c r="D4" s="31">
+      <c r="D4" s="24">
         <v>89</v>
       </c>
-      <c r="E4" s="31">
+      <c r="E4" s="24">
         <v>57</v>
       </c>
-      <c r="F4" s="31">
+      <c r="F4" s="24">
         <v>89</v>
       </c>
-      <c r="G4" s="31">
+      <c r="G4" s="24">
         <v>55</v>
       </c>
-      <c r="H4" s="31">
+      <c r="H4" s="24">
         <v>89</v>
       </c>
-      <c r="I4" s="31">
+      <c r="I4" s="24">
         <v>52</v>
       </c>
-      <c r="J4" s="31">
+      <c r="J4" s="24">
         <v>88</v>
       </c>
-      <c r="K4" s="31">
+      <c r="K4" s="24">
         <v>48</v>
       </c>
-      <c r="L4" s="31">
+      <c r="L4" s="24">
         <v>88</v>
       </c>
-      <c r="M4" s="31">
+      <c r="M4" s="24">
         <v>50</v>
       </c>
-      <c r="N4" s="31">
+      <c r="N4" s="24">
         <v>89</v>
       </c>
-      <c r="O4" s="31">
+      <c r="O4" s="24">
         <v>58</v>
       </c>
-      <c r="P4" s="31">
+      <c r="P4" s="24">
         <v>89</v>
       </c>
-      <c r="Q4" s="31">
+      <c r="Q4" s="24">
         <v>60</v>
       </c>
-      <c r="R4" s="31">
+      <c r="R4" s="24">
         <v>91</v>
       </c>
-      <c r="S4" s="31">
+      <c r="S4" s="24">
         <v>61</v>
       </c>
-      <c r="T4" s="31">
+      <c r="T4" s="24">
         <v>92</v>
       </c>
-      <c r="U4" s="31">
+      <c r="U4" s="24">
         <v>61</v>
       </c>
-      <c r="V4" s="31">
+      <c r="V4" s="24">
         <v>90</v>
       </c>
-      <c r="W4" s="31">
+      <c r="W4" s="24">
         <v>57</v>
       </c>
-      <c r="X4" s="31">
+      <c r="X4" s="24">
         <v>90</v>
       </c>
-      <c r="Y4" s="31">
+      <c r="Y4" s="24">
         <v>56</v>
       </c>
-      <c r="Z4" s="31">
+      <c r="Z4" s="24">
         <v>89</v>
       </c>
-      <c r="AA4" s="31">
+      <c r="AA4" s="24">
         <v>57</v>
       </c>
-      <c r="AB4" s="31">
+      <c r="AB4" s="24">
         <v>89</v>
       </c>
-      <c r="AC4" s="32">
+      <c r="AC4" s="25">
         <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:29" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="31">
+      <c r="B5" s="24">
         <v>22</v>
       </c>
-      <c r="C5" s="31">
+      <c r="C5" s="24">
         <v>22</v>
       </c>
-      <c r="D5" s="31">
+      <c r="D5" s="24">
         <v>89</v>
       </c>
-      <c r="E5" s="31">
+      <c r="E5" s="24">
         <v>59</v>
       </c>
-      <c r="F5" s="31">
+      <c r="F5" s="24">
         <v>89</v>
       </c>
-      <c r="G5" s="31">
+      <c r="G5" s="24">
         <v>56</v>
       </c>
-      <c r="H5" s="31">
+      <c r="H5" s="24">
         <v>91</v>
       </c>
-      <c r="I5" s="31">
+      <c r="I5" s="24">
         <v>53</v>
       </c>
-      <c r="J5" s="31">
+      <c r="J5" s="24">
         <v>90</v>
       </c>
-      <c r="K5" s="31">
+      <c r="K5" s="24">
         <v>49</v>
       </c>
-      <c r="L5" s="31">
+      <c r="L5" s="24">
         <v>91</v>
       </c>
-      <c r="M5" s="31">
+      <c r="M5" s="24">
         <v>50</v>
       </c>
-      <c r="N5" s="31">
+      <c r="N5" s="24">
         <v>89</v>
       </c>
-      <c r="O5" s="31">
+      <c r="O5" s="24">
         <v>57</v>
       </c>
-      <c r="P5" s="31">
+      <c r="P5" s="24">
         <v>89</v>
       </c>
-      <c r="Q5" s="31">
+      <c r="Q5" s="24">
         <v>60</v>
       </c>
-      <c r="R5" s="31">
+      <c r="R5" s="24">
         <v>91</v>
       </c>
-      <c r="S5" s="31">
+      <c r="S5" s="24">
         <v>61</v>
       </c>
-      <c r="T5" s="31">
+      <c r="T5" s="24">
         <v>95</v>
       </c>
-      <c r="U5" s="31">
+      <c r="U5" s="24">
         <v>64</v>
       </c>
-      <c r="V5" s="31">
+      <c r="V5" s="24">
         <v>93</v>
       </c>
-      <c r="W5" s="31">
+      <c r="W5" s="24">
         <v>61</v>
       </c>
-      <c r="X5" s="31">
+      <c r="X5" s="24">
         <v>93</v>
       </c>
-      <c r="Y5" s="31">
+      <c r="Y5" s="24">
         <v>59</v>
       </c>
-      <c r="Z5" s="31">
+      <c r="Z5" s="24">
         <v>91</v>
       </c>
-      <c r="AA5" s="31">
+      <c r="AA5" s="24">
         <v>60</v>
       </c>
-      <c r="AB5" s="31">
+      <c r="AB5" s="24">
         <v>91</v>
       </c>
-      <c r="AC5" s="32">
+      <c r="AC5" s="25">
         <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="31">
+      <c r="B6" s="24">
         <v>69</v>
       </c>
-      <c r="C6" s="31">
+      <c r="C6" s="24">
         <v>69</v>
       </c>
-      <c r="D6" s="31">
+      <c r="D6" s="24">
         <v>88</v>
       </c>
-      <c r="E6" s="31">
+      <c r="E6" s="24">
         <v>58</v>
       </c>
-      <c r="F6" s="31">
+      <c r="F6" s="24">
         <v>87</v>
       </c>
-      <c r="G6" s="31">
+      <c r="G6" s="24">
         <v>54</v>
       </c>
-      <c r="H6" s="31">
+      <c r="H6" s="24">
         <v>87</v>
       </c>
-      <c r="I6" s="31">
+      <c r="I6" s="24">
         <v>50</v>
       </c>
-      <c r="J6" s="31">
+      <c r="J6" s="24">
         <v>87</v>
       </c>
-      <c r="K6" s="31">
+      <c r="K6" s="24">
         <v>48</v>
       </c>
-      <c r="L6" s="31">
+      <c r="L6" s="24">
         <v>86</v>
       </c>
-      <c r="M6" s="31">
+      <c r="M6" s="24">
         <v>51</v>
       </c>
-      <c r="N6" s="31">
+      <c r="N6" s="24">
         <v>88</v>
       </c>
-      <c r="O6" s="31">
+      <c r="O6" s="24">
         <v>57</v>
       </c>
-      <c r="P6" s="31">
+      <c r="P6" s="24">
         <v>89</v>
       </c>
-      <c r="Q6" s="31">
+      <c r="Q6" s="24">
         <v>59</v>
       </c>
-      <c r="R6" s="31">
+      <c r="R6" s="24">
         <v>92</v>
       </c>
-      <c r="S6" s="31">
+      <c r="S6" s="24">
         <v>61</v>
       </c>
-      <c r="T6" s="31">
+      <c r="T6" s="24">
         <v>92</v>
       </c>
-      <c r="U6" s="31">
+      <c r="U6" s="24">
         <v>63</v>
       </c>
-      <c r="V6" s="31">
+      <c r="V6" s="24">
         <v>91</v>
       </c>
-      <c r="W6" s="31">
+      <c r="W6" s="24">
         <v>59</v>
       </c>
-      <c r="X6" s="31">
+      <c r="X6" s="24">
         <v>90</v>
       </c>
-      <c r="Y6" s="31">
+      <c r="Y6" s="24">
         <v>57</v>
       </c>
-      <c r="Z6" s="31">
+      <c r="Z6" s="24">
         <v>89</v>
       </c>
-      <c r="AA6" s="31">
+      <c r="AA6" s="24">
         <v>59</v>
       </c>
-      <c r="AB6" s="31">
+      <c r="AB6" s="24">
         <v>89</v>
       </c>
-      <c r="AC6" s="32">
+      <c r="AC6" s="25">
         <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:29" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="31">
+      <c r="B7" s="24">
         <v>57</v>
       </c>
-      <c r="C7" s="31">
+      <c r="C7" s="24">
         <v>57</v>
       </c>
-      <c r="D7" s="31">
+      <c r="D7" s="24">
         <v>82</v>
       </c>
-      <c r="E7" s="31">
+      <c r="E7" s="24">
         <v>69</v>
       </c>
-      <c r="F7" s="31">
+      <c r="F7" s="24">
         <v>81</v>
       </c>
-      <c r="G7" s="31">
+      <c r="G7" s="24">
         <v>67</v>
       </c>
-      <c r="H7" s="31">
+      <c r="H7" s="24">
         <v>80</v>
       </c>
-      <c r="I7" s="31">
+      <c r="I7" s="24">
         <v>66</v>
       </c>
-      <c r="J7" s="31">
+      <c r="J7" s="24">
         <v>77</v>
       </c>
-      <c r="K7" s="31">
+      <c r="K7" s="24">
         <v>64</v>
       </c>
-      <c r="L7" s="31">
+      <c r="L7" s="24">
         <v>77</v>
       </c>
-      <c r="M7" s="31">
+      <c r="M7" s="24">
         <v>66</v>
       </c>
-      <c r="N7" s="31">
+      <c r="N7" s="24">
         <v>78</v>
       </c>
-      <c r="O7" s="31">
+      <c r="O7" s="24">
         <v>69</v>
       </c>
-      <c r="P7" s="31">
+      <c r="P7" s="24">
         <v>77</v>
       </c>
-      <c r="Q7" s="31">
+      <c r="Q7" s="24">
         <v>67</v>
       </c>
-      <c r="R7" s="31">
+      <c r="R7" s="24">
         <v>78</v>
       </c>
-      <c r="S7" s="31">
+      <c r="S7" s="24">
         <v>67</v>
       </c>
-      <c r="T7" s="31">
+      <c r="T7" s="24">
         <v>81</v>
       </c>
-      <c r="U7" s="31">
+      <c r="U7" s="24">
         <v>70</v>
       </c>
-      <c r="V7" s="31">
+      <c r="V7" s="24">
         <v>82</v>
       </c>
-      <c r="W7" s="31">
+      <c r="W7" s="24">
         <v>69</v>
       </c>
-      <c r="X7" s="31">
+      <c r="X7" s="24">
         <v>83</v>
       </c>
-      <c r="Y7" s="31">
+      <c r="Y7" s="24">
         <v>69</v>
       </c>
-      <c r="Z7" s="31">
+      <c r="Z7" s="24">
         <v>83</v>
       </c>
-      <c r="AA7" s="31">
+      <c r="AA7" s="24">
         <v>70</v>
       </c>
-      <c r="AB7" s="31">
+      <c r="AB7" s="24">
         <v>80</v>
       </c>
-      <c r="AC7" s="32">
+      <c r="AC7" s="25">
         <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="31">
+      <c r="B8" s="24">
         <v>41</v>
       </c>
-      <c r="C8" s="31">
+      <c r="C8" s="24">
         <v>41</v>
       </c>
-      <c r="D8" s="31">
+      <c r="D8" s="24">
         <v>85</v>
       </c>
-      <c r="E8" s="31">
+      <c r="E8" s="24">
         <v>60</v>
       </c>
-      <c r="F8" s="31">
+      <c r="F8" s="24">
         <v>84</v>
       </c>
-      <c r="G8" s="31">
+      <c r="G8" s="24">
         <v>58</v>
       </c>
-      <c r="H8" s="31">
+      <c r="H8" s="24">
         <v>82</v>
       </c>
-      <c r="I8" s="31">
+      <c r="I8" s="24">
         <v>57</v>
       </c>
-      <c r="J8" s="31">
+      <c r="J8" s="24">
         <v>79</v>
       </c>
-      <c r="K8" s="31">
+      <c r="K8" s="24">
         <v>54</v>
       </c>
-      <c r="L8" s="31">
+      <c r="L8" s="24">
         <v>80</v>
       </c>
-      <c r="M8" s="31">
+      <c r="M8" s="24">
         <v>59</v>
       </c>
-      <c r="N8" s="31">
+      <c r="N8" s="24">
         <v>84</v>
       </c>
-      <c r="O8" s="31">
+      <c r="O8" s="24">
         <v>66</v>
       </c>
-      <c r="P8" s="31">
+      <c r="P8" s="24">
         <v>83</v>
       </c>
-      <c r="Q8" s="31">
+      <c r="Q8" s="24">
         <v>63</v>
       </c>
-      <c r="R8" s="31">
+      <c r="R8" s="24">
         <v>85</v>
       </c>
-      <c r="S8" s="31">
+      <c r="S8" s="24">
         <v>65</v>
       </c>
-      <c r="T8" s="31">
+      <c r="T8" s="24">
         <v>87</v>
       </c>
-      <c r="U8" s="31">
+      <c r="U8" s="24">
         <v>67</v>
       </c>
-      <c r="V8" s="31">
+      <c r="V8" s="24">
         <v>86</v>
       </c>
-      <c r="W8" s="31">
+      <c r="W8" s="24">
         <v>63</v>
       </c>
-      <c r="X8" s="31">
+      <c r="X8" s="24">
         <v>84</v>
       </c>
-      <c r="Y8" s="31">
+      <c r="Y8" s="24">
         <v>62</v>
       </c>
-      <c r="Z8" s="31">
+      <c r="Z8" s="24">
         <v>84</v>
       </c>
-      <c r="AA8" s="31">
+      <c r="AA8" s="24">
         <v>60</v>
       </c>
-      <c r="AB8" s="31">
+      <c r="AB8" s="24">
         <v>83</v>
       </c>
-      <c r="AC8" s="32">
+      <c r="AC8" s="25">
         <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:29" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="31">
+      <c r="B9" s="24">
         <v>42</v>
       </c>
-      <c r="C9" s="31">
+      <c r="C9" s="24">
         <v>42</v>
       </c>
-      <c r="D9" s="31">
+      <c r="D9" s="24">
         <v>88</v>
       </c>
-      <c r="E9" s="31">
+      <c r="E9" s="24">
         <v>57</v>
       </c>
-      <c r="F9" s="31">
+      <c r="F9" s="24">
         <v>88</v>
       </c>
-      <c r="G9" s="31">
+      <c r="G9" s="24">
         <v>53</v>
       </c>
-      <c r="H9" s="31">
+      <c r="H9" s="24">
         <v>89</v>
       </c>
-      <c r="I9" s="31">
+      <c r="I9" s="24">
         <v>51</v>
       </c>
-      <c r="J9" s="31">
+      <c r="J9" s="24">
         <v>88</v>
       </c>
-      <c r="K9" s="31">
+      <c r="K9" s="24">
         <v>47</v>
       </c>
-      <c r="L9" s="31">
+      <c r="L9" s="24">
         <v>88</v>
       </c>
-      <c r="M9" s="31">
+      <c r="M9" s="24">
         <v>50</v>
       </c>
-      <c r="N9" s="31">
+      <c r="N9" s="24">
         <v>90</v>
       </c>
-      <c r="O9" s="31">
+      <c r="O9" s="24">
         <v>58</v>
       </c>
-      <c r="P9" s="31">
+      <c r="P9" s="24">
         <v>91</v>
       </c>
-      <c r="Q9" s="31">
+      <c r="Q9" s="24">
         <v>59</v>
       </c>
-      <c r="R9" s="31">
+      <c r="R9" s="24">
         <v>93</v>
       </c>
-      <c r="S9" s="31">
+      <c r="S9" s="24">
         <v>60</v>
       </c>
-      <c r="T9" s="31">
+      <c r="T9" s="24">
         <v>92</v>
       </c>
-      <c r="U9" s="31">
+      <c r="U9" s="24">
         <v>61</v>
       </c>
-      <c r="V9" s="31">
+      <c r="V9" s="24">
         <v>90</v>
       </c>
-      <c r="W9" s="31">
+      <c r="W9" s="24">
         <v>57</v>
       </c>
-      <c r="X9" s="31">
+      <c r="X9" s="24">
         <v>90</v>
       </c>
-      <c r="Y9" s="31">
+      <c r="Y9" s="24">
         <v>56</v>
       </c>
-      <c r="Z9" s="31">
+      <c r="Z9" s="24">
         <v>89</v>
       </c>
-      <c r="AA9" s="31">
+      <c r="AA9" s="24">
         <v>58</v>
       </c>
-      <c r="AB9" s="31">
+      <c r="AB9" s="24">
         <v>90</v>
       </c>
-      <c r="AC9" s="32">
+      <c r="AC9" s="25">
         <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:29" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="31">
+      <c r="B10" s="24">
         <v>42</v>
       </c>
-      <c r="C10" s="31">
+      <c r="C10" s="24">
         <v>42</v>
       </c>
-      <c r="D10" s="31">
+      <c r="D10" s="24">
         <v>82</v>
       </c>
-      <c r="E10" s="31">
+      <c r="E10" s="24">
         <v>66</v>
       </c>
-      <c r="F10" s="31">
+      <c r="F10" s="24">
         <v>82</v>
       </c>
-      <c r="G10" s="31">
+      <c r="G10" s="24">
         <v>63</v>
       </c>
-      <c r="H10" s="31">
+      <c r="H10" s="24">
         <v>84</v>
       </c>
-      <c r="I10" s="31">
+      <c r="I10" s="24">
         <v>63</v>
       </c>
-      <c r="J10" s="31">
+      <c r="J10" s="24">
         <v>86</v>
       </c>
-      <c r="K10" s="31">
+      <c r="K10" s="24">
         <v>62</v>
       </c>
-      <c r="L10" s="31">
+      <c r="L10" s="24">
         <v>87</v>
       </c>
-      <c r="M10" s="31">
+      <c r="M10" s="24">
         <v>63</v>
       </c>
-      <c r="N10" s="31">
+      <c r="N10" s="24">
         <v>85</v>
       </c>
-      <c r="O10" s="31">
+      <c r="O10" s="24">
         <v>63</v>
       </c>
-      <c r="P10" s="31">
+      <c r="P10" s="24">
         <v>86</v>
       </c>
-      <c r="Q10" s="31">
+      <c r="Q10" s="24">
         <v>67</v>
       </c>
-      <c r="R10" s="31">
+      <c r="R10" s="24">
         <v>88</v>
       </c>
-      <c r="S10" s="31">
+      <c r="S10" s="24">
         <v>68</v>
       </c>
-      <c r="T10" s="31">
+      <c r="T10" s="24">
         <v>85</v>
       </c>
-      <c r="U10" s="31">
+      <c r="U10" s="24">
         <v>64</v>
       </c>
-      <c r="V10" s="31">
+      <c r="V10" s="24">
         <v>82</v>
       </c>
-      <c r="W10" s="31">
+      <c r="W10" s="24">
         <v>59</v>
       </c>
-      <c r="X10" s="31">
+      <c r="X10" s="24">
         <v>82</v>
       </c>
-      <c r="Y10" s="31">
+      <c r="Y10" s="24">
         <v>62</v>
       </c>
-      <c r="Z10" s="31">
+      <c r="Z10" s="24">
         <v>81</v>
       </c>
-      <c r="AA10" s="31">
+      <c r="AA10" s="24">
         <v>66</v>
       </c>
-      <c r="AB10" s="31">
+      <c r="AB10" s="24">
         <v>84</v>
       </c>
-      <c r="AC10" s="32">
+      <c r="AC10" s="25">
         <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:29" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="31">
+      <c r="B11" s="24">
         <v>44</v>
       </c>
-      <c r="C11" s="31">
+      <c r="C11" s="24">
         <v>44</v>
       </c>
-      <c r="D11" s="31">
+      <c r="D11" s="24">
         <v>87</v>
       </c>
-      <c r="E11" s="31">
+      <c r="E11" s="24">
         <v>57</v>
       </c>
-      <c r="F11" s="31">
+      <c r="F11" s="24">
         <v>87</v>
       </c>
-      <c r="G11" s="31">
+      <c r="G11" s="24">
         <v>54</v>
       </c>
-      <c r="H11" s="31">
+      <c r="H11" s="24">
         <v>89</v>
       </c>
-      <c r="I11" s="31">
+      <c r="I11" s="24">
         <v>51</v>
       </c>
-      <c r="J11" s="31">
+      <c r="J11" s="24">
         <v>91</v>
       </c>
-      <c r="K11" s="31">
+      <c r="K11" s="24">
         <v>47</v>
       </c>
-      <c r="L11" s="31">
+      <c r="L11" s="24">
         <v>90</v>
       </c>
-      <c r="M11" s="31">
+      <c r="M11" s="24">
         <v>50</v>
       </c>
-      <c r="N11" s="31">
+      <c r="N11" s="24">
         <v>91</v>
       </c>
-      <c r="O11" s="31">
+      <c r="O11" s="24">
         <v>56</v>
       </c>
-      <c r="P11" s="31">
+      <c r="P11" s="24">
         <v>93</v>
       </c>
-      <c r="Q11" s="31">
+      <c r="Q11" s="24">
         <v>61</v>
       </c>
-      <c r="R11" s="31">
+      <c r="R11" s="24">
         <v>94</v>
       </c>
-      <c r="S11" s="31">
+      <c r="S11" s="24">
         <v>61</v>
       </c>
-      <c r="T11" s="31">
+      <c r="T11" s="24">
         <v>93</v>
       </c>
-      <c r="U11" s="31">
+      <c r="U11" s="24">
         <v>58</v>
       </c>
-      <c r="V11" s="31">
+      <c r="V11" s="24">
         <v>91</v>
       </c>
-      <c r="W11" s="31">
+      <c r="W11" s="24">
         <v>53</v>
       </c>
-      <c r="X11" s="31">
+      <c r="X11" s="24">
         <v>90</v>
       </c>
-      <c r="Y11" s="31">
+      <c r="Y11" s="24">
         <v>54</v>
       </c>
-      <c r="Z11" s="31">
+      <c r="Z11" s="24">
         <v>88</v>
       </c>
-      <c r="AA11" s="31">
+      <c r="AA11" s="24">
         <v>57</v>
       </c>
-      <c r="AB11" s="31">
+      <c r="AB11" s="24">
         <v>90</v>
       </c>
-      <c r="AC11" s="32">
+      <c r="AC11" s="25">
         <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="31">
+      <c r="B12" s="24">
         <v>42</v>
       </c>
-      <c r="C12" s="31">
+      <c r="C12" s="24">
         <v>42</v>
       </c>
-      <c r="D12" s="31">
+      <c r="D12" s="24">
         <v>87</v>
       </c>
-      <c r="E12" s="31">
+      <c r="E12" s="24">
         <v>60</v>
       </c>
-      <c r="F12" s="31">
+      <c r="F12" s="24">
         <v>86</v>
       </c>
-      <c r="G12" s="31">
+      <c r="G12" s="24">
         <v>57</v>
       </c>
-      <c r="H12" s="31">
+      <c r="H12" s="24">
         <v>87</v>
       </c>
-      <c r="I12" s="31">
+      <c r="I12" s="24">
         <v>56</v>
       </c>
-      <c r="J12" s="31">
+      <c r="J12" s="24">
         <v>86</v>
       </c>
-      <c r="K12" s="31">
+      <c r="K12" s="24">
         <v>52</v>
       </c>
-      <c r="L12" s="31">
+      <c r="L12" s="24">
         <v>85</v>
       </c>
-      <c r="M12" s="31">
+      <c r="M12" s="24">
         <v>53</v>
       </c>
-      <c r="N12" s="31">
+      <c r="N12" s="24">
         <v>86</v>
       </c>
-      <c r="O12" s="31">
+      <c r="O12" s="24">
         <v>61</v>
       </c>
-      <c r="P12" s="31">
+      <c r="P12" s="24">
         <v>87</v>
       </c>
-      <c r="Q12" s="31">
+      <c r="Q12" s="24">
         <v>64</v>
       </c>
-      <c r="R12" s="31">
+      <c r="R12" s="24">
         <v>90</v>
       </c>
-      <c r="S12" s="31">
+      <c r="S12" s="24">
         <v>65</v>
       </c>
-      <c r="T12" s="31">
+      <c r="T12" s="24">
         <v>91</v>
       </c>
-      <c r="U12" s="31">
+      <c r="U12" s="24">
         <v>63</v>
       </c>
-      <c r="V12" s="31">
+      <c r="V12" s="24">
         <v>89</v>
       </c>
-      <c r="W12" s="31">
+      <c r="W12" s="24">
         <v>58</v>
       </c>
-      <c r="X12" s="31">
+      <c r="X12" s="24">
         <v>88</v>
       </c>
-      <c r="Y12" s="31">
+      <c r="Y12" s="24">
         <v>58</v>
       </c>
-      <c r="Z12" s="31">
+      <c r="Z12" s="24">
         <v>87</v>
       </c>
-      <c r="AA12" s="31">
+      <c r="AA12" s="24">
         <v>60</v>
       </c>
-      <c r="AB12" s="31">
+      <c r="AB12" s="24">
         <v>87</v>
       </c>
-      <c r="AC12" s="32">
+      <c r="AC12" s="25">
         <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:29" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="31">
+      <c r="B13" s="24">
         <v>42</v>
       </c>
-      <c r="C13" s="31">
+      <c r="C13" s="24">
         <v>42</v>
       </c>
-      <c r="D13" s="31">
+      <c r="D13" s="24">
         <v>88</v>
       </c>
-      <c r="E13" s="31">
+      <c r="E13" s="24">
         <v>60</v>
       </c>
-      <c r="F13" s="31">
+      <c r="F13" s="24">
         <v>88</v>
       </c>
-      <c r="G13" s="31">
+      <c r="G13" s="24">
         <v>56</v>
       </c>
-      <c r="H13" s="31">
+      <c r="H13" s="24">
         <v>86</v>
       </c>
-      <c r="I13" s="31">
+      <c r="I13" s="24">
         <v>56</v>
       </c>
-      <c r="J13" s="31">
+      <c r="J13" s="24">
         <v>84</v>
       </c>
-      <c r="K13" s="31">
+      <c r="K13" s="24">
         <v>55</v>
       </c>
-      <c r="L13" s="31">
+      <c r="L13" s="24">
         <v>84</v>
       </c>
-      <c r="M13" s="31">
+      <c r="M13" s="24">
         <v>58</v>
       </c>
-      <c r="N13" s="31">
+      <c r="N13" s="24">
         <v>81</v>
       </c>
-      <c r="O13" s="31">
+      <c r="O13" s="24">
         <v>60</v>
       </c>
-      <c r="P13" s="31">
+      <c r="P13" s="24">
         <v>83</v>
       </c>
-      <c r="Q13" s="31">
+      <c r="Q13" s="24">
         <v>60</v>
       </c>
-      <c r="R13" s="31">
+      <c r="R13" s="24">
         <v>85</v>
       </c>
-      <c r="S13" s="31">
+      <c r="S13" s="24">
         <v>60</v>
       </c>
-      <c r="T13" s="31">
+      <c r="T13" s="24">
         <v>82</v>
       </c>
-      <c r="U13" s="31">
+      <c r="U13" s="24">
         <v>59</v>
       </c>
-      <c r="V13" s="31">
+      <c r="V13" s="24">
         <v>81</v>
       </c>
-      <c r="W13" s="31">
+      <c r="W13" s="24">
         <v>59</v>
       </c>
-      <c r="X13" s="31">
+      <c r="X13" s="24">
         <v>79</v>
       </c>
-      <c r="Y13" s="31">
+      <c r="Y13" s="24">
         <v>57</v>
       </c>
-      <c r="Z13" s="31">
+      <c r="Z13" s="24">
         <v>82</v>
       </c>
-      <c r="AA13" s="31">
+      <c r="AA13" s="24">
         <v>56</v>
       </c>
-      <c r="AB13" s="31">
+      <c r="AB13" s="24">
         <v>84</v>
       </c>
-      <c r="AC13" s="32">
+      <c r="AC13" s="25">
         <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:29" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="34">
+      <c r="B14" s="27">
         <v>41</v>
       </c>
-      <c r="C14" s="34">
+      <c r="C14" s="27">
         <v>41</v>
       </c>
-      <c r="D14" s="34">
+      <c r="D14" s="27">
         <v>84</v>
       </c>
-      <c r="E14" s="34">
+      <c r="E14" s="27">
         <v>59</v>
       </c>
-      <c r="F14" s="34">
+      <c r="F14" s="27">
         <v>84</v>
       </c>
-      <c r="G14" s="34">
+      <c r="G14" s="27">
         <v>57</v>
       </c>
-      <c r="H14" s="34">
+      <c r="H14" s="27">
         <v>83</v>
       </c>
-      <c r="I14" s="34">
+      <c r="I14" s="27">
         <v>56</v>
       </c>
-      <c r="J14" s="34">
+      <c r="J14" s="27">
         <v>79</v>
       </c>
-      <c r="K14" s="34">
+      <c r="K14" s="27">
         <v>55</v>
       </c>
-      <c r="L14" s="34">
+      <c r="L14" s="27">
         <v>80</v>
       </c>
-      <c r="M14" s="34">
+      <c r="M14" s="27">
         <v>59</v>
       </c>
-      <c r="N14" s="34">
+      <c r="N14" s="27">
         <v>84</v>
       </c>
-      <c r="O14" s="34">
+      <c r="O14" s="27">
         <v>66</v>
       </c>
-      <c r="P14" s="34">
+      <c r="P14" s="27">
         <v>85</v>
       </c>
-      <c r="Q14" s="34">
+      <c r="Q14" s="27">
         <v>64</v>
       </c>
-      <c r="R14" s="34">
+      <c r="R14" s="27">
         <v>86</v>
       </c>
-      <c r="S14" s="34">
+      <c r="S14" s="27">
         <v>65</v>
       </c>
-      <c r="T14" s="34">
+      <c r="T14" s="27">
         <v>87</v>
       </c>
-      <c r="U14" s="34">
+      <c r="U14" s="27">
         <v>66</v>
       </c>
-      <c r="V14" s="34">
+      <c r="V14" s="27">
         <v>84</v>
       </c>
-      <c r="W14" s="34">
+      <c r="W14" s="27">
         <v>63</v>
       </c>
-      <c r="X14" s="34">
+      <c r="X14" s="27">
         <v>83</v>
       </c>
-      <c r="Y14" s="34">
+      <c r="Y14" s="27">
         <v>61</v>
       </c>
-      <c r="Z14" s="34">
+      <c r="Z14" s="27">
         <v>84</v>
       </c>
-      <c r="AA14" s="34">
+      <c r="AA14" s="27">
         <v>60</v>
       </c>
-      <c r="AB14" s="34">
+      <c r="AB14" s="27">
         <v>84</v>
       </c>
-      <c r="AC14" s="35">
+      <c r="AC14" s="28">
         <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="37" t="s">
+      <c r="C16" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="37" t="s">
+      <c r="D16" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="E16" s="37" t="s">
+      <c r="E16" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="F16" s="37" t="s">
+      <c r="F16" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="G16" s="37" t="s">
+      <c r="G16" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="H16" s="37" t="s">
+      <c r="H16" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="I16" s="37" t="s">
+      <c r="I16" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="J16" s="37" t="s">
+      <c r="J16" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="K16" s="37" t="s">
+      <c r="K16" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="L16" s="37" t="s">
+      <c r="L16" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="M16" s="37" t="s">
+      <c r="M16" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="N16" s="37" t="s">
+      <c r="N16" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="O16" s="38" t="s">
+      <c r="O16" s="31" t="s">
         <v>65</v>
       </c>
       <c r="AB16" s="3">
@@ -7651,937 +7648,937 @@
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="27">
+      <c r="B17" s="20">
         <v>2001</v>
       </c>
-      <c r="C17" s="28">
+      <c r="C17" s="21">
         <v>53.1</v>
       </c>
-      <c r="D17" s="28">
+      <c r="D17" s="21">
         <v>65.099999999999994</v>
       </c>
-      <c r="E17" s="28">
+      <c r="E17" s="21">
         <v>64.2</v>
       </c>
-      <c r="F17" s="28">
+      <c r="F17" s="21">
         <v>70</v>
       </c>
-      <c r="G17" s="28">
+      <c r="G17" s="21">
         <v>74.7</v>
       </c>
-      <c r="H17" s="28">
+      <c r="H17" s="21">
         <v>80.099999999999994</v>
       </c>
-      <c r="I17" s="28">
+      <c r="I17" s="21">
         <v>81.2</v>
       </c>
-      <c r="J17" s="28">
+      <c r="J17" s="21">
         <v>81.3</v>
       </c>
-      <c r="K17" s="28">
+      <c r="K17" s="21">
         <v>77.599999999999994</v>
       </c>
-      <c r="L17" s="28">
+      <c r="L17" s="21">
         <v>71.5</v>
       </c>
-      <c r="M17" s="28">
+      <c r="M17" s="21">
         <v>68</v>
       </c>
-      <c r="N17" s="28">
+      <c r="N17" s="21">
         <v>64.400000000000006</v>
       </c>
-      <c r="O17" s="29">
+      <c r="O17" s="22">
         <v>70.900000000000006</v>
       </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B18" s="30">
+      <c r="B18" s="23">
         <v>2002</v>
       </c>
-      <c r="C18" s="31">
+      <c r="C18" s="24">
         <v>59.3</v>
       </c>
-      <c r="D18" s="31">
+      <c r="D18" s="24">
         <v>59.6</v>
       </c>
-      <c r="E18" s="31">
+      <c r="E18" s="24">
         <v>66.7</v>
       </c>
-      <c r="F18" s="31">
+      <c r="F18" s="24">
         <v>73.599999999999994</v>
       </c>
-      <c r="G18" s="31">
+      <c r="G18" s="24">
         <v>76.599999999999994</v>
       </c>
-      <c r="H18" s="31">
+      <c r="H18" s="24">
         <v>79.599999999999994</v>
       </c>
-      <c r="I18" s="31">
+      <c r="I18" s="24">
         <v>81.5</v>
       </c>
-      <c r="J18" s="31">
+      <c r="J18" s="24">
         <v>81.2</v>
       </c>
-      <c r="K18" s="31">
+      <c r="K18" s="24">
         <v>81.099999999999994</v>
       </c>
-      <c r="L18" s="31">
+      <c r="L18" s="24">
         <v>76.3</v>
       </c>
-      <c r="M18" s="31">
+      <c r="M18" s="24">
         <v>63.2</v>
       </c>
-      <c r="N18" s="31">
+      <c r="N18" s="24">
         <v>57.5</v>
       </c>
-      <c r="O18" s="32">
+      <c r="O18" s="25">
         <v>71.400000000000006</v>
       </c>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B19" s="30">
+      <c r="B19" s="23">
         <v>2003</v>
       </c>
-      <c r="C19" s="31">
+      <c r="C19" s="24">
         <v>52.4</v>
       </c>
-      <c r="D19" s="31">
+      <c r="D19" s="24">
         <v>61.5</v>
       </c>
-      <c r="E19" s="31">
+      <c r="E19" s="24">
         <v>70.2</v>
       </c>
-      <c r="F19" s="31">
+      <c r="F19" s="24">
         <v>69.5</v>
       </c>
-      <c r="G19" s="31">
+      <c r="G19" s="24">
         <v>78.2</v>
       </c>
-      <c r="H19" s="31">
+      <c r="H19" s="24">
         <v>80.099999999999994</v>
       </c>
-      <c r="I19" s="31">
+      <c r="I19" s="24">
         <v>81.3</v>
       </c>
-      <c r="J19" s="31">
+      <c r="J19" s="24">
         <v>81</v>
       </c>
-      <c r="K19" s="31">
+      <c r="K19" s="24">
         <v>78.900000000000006</v>
       </c>
-      <c r="L19" s="31">
+      <c r="L19" s="24">
         <v>73.400000000000006</v>
       </c>
-      <c r="M19" s="31">
+      <c r="M19" s="24">
         <v>68.7</v>
       </c>
-      <c r="N19" s="31">
+      <c r="N19" s="24">
         <v>56.4</v>
       </c>
-      <c r="O19" s="32">
+      <c r="O19" s="25">
         <v>71</v>
       </c>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B20" s="30">
+      <c r="B20" s="23">
         <v>2004</v>
       </c>
-      <c r="C20" s="31">
+      <c r="C20" s="24">
         <v>56.9</v>
       </c>
-      <c r="D20" s="31">
+      <c r="D20" s="24">
         <v>59.4</v>
       </c>
-      <c r="E20" s="31">
+      <c r="E20" s="24">
         <v>65.8</v>
       </c>
-      <c r="F20" s="31">
+      <c r="F20" s="24">
         <v>67.5</v>
       </c>
-      <c r="G20" s="31">
+      <c r="G20" s="24">
         <v>76.099999999999994</v>
       </c>
-      <c r="H20" s="31">
+      <c r="H20" s="24">
         <v>81.3</v>
       </c>
-      <c r="I20" s="31">
+      <c r="I20" s="24">
         <v>81.8</v>
       </c>
-      <c r="J20" s="31">
+      <c r="J20" s="24">
         <v>81.400000000000006</v>
       </c>
-      <c r="K20" s="31">
+      <c r="K20" s="24">
         <v>79.900000000000006</v>
       </c>
-      <c r="L20" s="31">
+      <c r="L20" s="24">
         <v>74.5</v>
       </c>
-      <c r="M20" s="31">
+      <c r="M20" s="24">
         <v>67.3</v>
       </c>
-      <c r="N20" s="31">
+      <c r="N20" s="24">
         <v>58</v>
       </c>
-      <c r="O20" s="32">
+      <c r="O20" s="25">
         <v>70.8</v>
       </c>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B21" s="30">
+      <c r="B21" s="23">
         <v>2005</v>
       </c>
-      <c r="C21" s="31">
+      <c r="C21" s="24">
         <v>60</v>
       </c>
-      <c r="D21" s="31">
+      <c r="D21" s="24">
         <v>60.6</v>
       </c>
-      <c r="E21" s="31">
+      <c r="E21" s="24">
         <v>62.9</v>
       </c>
-      <c r="F21" s="31">
+      <c r="F21" s="24">
         <v>66.599999999999994</v>
       </c>
-      <c r="G21" s="31">
+      <c r="G21" s="24">
         <v>74.2</v>
       </c>
-      <c r="H21" s="31">
+      <c r="H21" s="24">
         <v>79.8</v>
       </c>
-      <c r="I21" s="31">
+      <c r="I21" s="24">
         <v>83.1</v>
       </c>
-      <c r="J21" s="31">
+      <c r="J21" s="24">
         <v>83.1</v>
       </c>
-      <c r="K21" s="31">
+      <c r="K21" s="24">
         <v>80.599999999999994</v>
       </c>
-      <c r="L21" s="31">
+      <c r="L21" s="24">
         <v>73.5</v>
       </c>
-      <c r="M21" s="31">
+      <c r="M21" s="24">
         <v>67.099999999999994</v>
       </c>
-      <c r="N21" s="31">
+      <c r="N21" s="24">
         <v>56.9</v>
       </c>
-      <c r="O21" s="32">
+      <c r="O21" s="25">
         <v>70.7</v>
       </c>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B22" s="30">
+      <c r="B22" s="23">
         <v>2006</v>
       </c>
-      <c r="C22" s="31">
+      <c r="C22" s="24">
         <v>60.6</v>
       </c>
-      <c r="D22" s="31">
+      <c r="D22" s="24">
         <v>58.2</v>
       </c>
-      <c r="E22" s="31">
+      <c r="E22" s="24">
         <v>64.599999999999994</v>
       </c>
-      <c r="F22" s="31">
+      <c r="F22" s="24">
         <v>72.3</v>
       </c>
-      <c r="G22" s="31">
+      <c r="G22" s="24">
         <v>75.400000000000006</v>
       </c>
-      <c r="H22" s="31">
+      <c r="H22" s="24">
         <v>80.3</v>
       </c>
-      <c r="I22" s="31">
+      <c r="I22" s="24">
         <v>81.7</v>
       </c>
-      <c r="J22" s="31">
+      <c r="J22" s="24">
         <v>82.5</v>
       </c>
-      <c r="K22" s="31">
+      <c r="K22" s="24">
         <v>79.2</v>
       </c>
-      <c r="L22" s="31">
+      <c r="L22" s="24">
         <v>71.900000000000006</v>
       </c>
-      <c r="M22" s="31">
+      <c r="M22" s="24">
         <v>63.4</v>
       </c>
-      <c r="N22" s="31">
+      <c r="N22" s="24">
         <v>64.3</v>
       </c>
-      <c r="O22" s="32">
+      <c r="O22" s="25">
         <v>71.2</v>
       </c>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B23" s="30">
+      <c r="B23" s="23">
         <v>2007</v>
       </c>
-      <c r="C23" s="31">
+      <c r="C23" s="24">
         <v>61.3</v>
       </c>
-      <c r="D23" s="31">
+      <c r="D23" s="24">
         <v>58</v>
       </c>
-      <c r="E23" s="31">
+      <c r="E23" s="24">
         <v>66.2</v>
       </c>
-      <c r="F23" s="31">
+      <c r="F23" s="24">
         <v>68.2</v>
       </c>
-      <c r="G23" s="31">
+      <c r="G23" s="24">
         <v>74.7</v>
       </c>
-      <c r="H23" s="31">
+      <c r="H23" s="24">
         <v>79.8</v>
       </c>
-      <c r="I23" s="31">
+      <c r="I23" s="24">
         <v>82</v>
       </c>
-      <c r="J23" s="31">
+      <c r="J23" s="24">
         <v>83.5</v>
       </c>
-      <c r="K23" s="31">
+      <c r="K23" s="24">
         <v>80.3</v>
       </c>
-      <c r="L23" s="31">
+      <c r="L23" s="24">
         <v>76.099999999999994</v>
       </c>
-      <c r="M23" s="31">
+      <c r="M23" s="24">
         <v>64.7</v>
       </c>
-      <c r="N23" s="31">
+      <c r="N23" s="24">
         <v>64.3</v>
       </c>
-      <c r="O23" s="32">
+      <c r="O23" s="25">
         <v>71.599999999999994</v>
       </c>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B24" s="30">
+      <c r="B24" s="23">
         <v>2008</v>
       </c>
-      <c r="C24" s="31">
+      <c r="C24" s="24">
         <v>58.1</v>
       </c>
-      <c r="D24" s="31">
+      <c r="D24" s="24">
         <v>62.9</v>
       </c>
-      <c r="E24" s="31">
+      <c r="E24" s="24">
         <v>64.400000000000006</v>
       </c>
-      <c r="F24" s="31">
+      <c r="F24" s="24">
         <v>69.2</v>
       </c>
-      <c r="G24" s="31">
+      <c r="G24" s="24">
         <v>75.900000000000006</v>
       </c>
-      <c r="H24" s="31">
+      <c r="H24" s="24">
         <v>80.5</v>
       </c>
-      <c r="I24" s="31">
+      <c r="I24" s="24">
         <v>81</v>
       </c>
-      <c r="J24" s="31">
+      <c r="J24" s="24">
         <v>81.2</v>
       </c>
-      <c r="K24" s="31">
+      <c r="K24" s="24">
         <v>79.599999999999994</v>
       </c>
-      <c r="L24" s="31">
+      <c r="L24" s="24">
         <v>71.3</v>
       </c>
-      <c r="M24" s="31">
+      <c r="M24" s="24">
         <v>61.4</v>
       </c>
-      <c r="N24" s="31">
+      <c r="N24" s="24">
         <v>62</v>
       </c>
-      <c r="O24" s="32">
+      <c r="O24" s="25">
         <v>70.599999999999994</v>
       </c>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B25" s="30">
+      <c r="B25" s="23">
         <v>2009</v>
       </c>
-      <c r="C25" s="31">
+      <c r="C25" s="24">
         <v>57.4</v>
       </c>
-      <c r="D25" s="31">
+      <c r="D25" s="24">
         <v>57.8</v>
       </c>
-      <c r="E25" s="31">
+      <c r="E25" s="24">
         <v>65.5</v>
       </c>
-      <c r="F25" s="31">
+      <c r="F25" s="24">
         <v>69.7</v>
       </c>
-      <c r="G25" s="31">
+      <c r="G25" s="24">
         <v>76.7</v>
       </c>
-      <c r="H25" s="31">
+      <c r="H25" s="24">
         <v>81.8</v>
       </c>
-      <c r="I25" s="31">
+      <c r="I25" s="24">
         <v>81.599999999999994</v>
       </c>
-      <c r="J25" s="31">
+      <c r="J25" s="24">
         <v>82</v>
       </c>
-      <c r="K25" s="31">
+      <c r="K25" s="24">
         <v>84.4</v>
       </c>
-      <c r="L25" s="31">
+      <c r="L25" s="24">
         <v>75.2</v>
       </c>
-      <c r="M25" s="31">
+      <c r="M25" s="24">
         <v>66</v>
       </c>
-      <c r="N25" s="31">
+      <c r="N25" s="24">
         <v>60.5</v>
       </c>
-      <c r="O25" s="32">
+      <c r="O25" s="25">
         <v>71.099999999999994</v>
       </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B26" s="30">
+      <c r="B26" s="23">
         <v>2010</v>
       </c>
-      <c r="C26" s="31">
+      <c r="C26" s="24">
         <v>52.4</v>
       </c>
-      <c r="D26" s="31">
+      <c r="D26" s="24">
         <v>52.3</v>
       </c>
-      <c r="E26" s="31">
+      <c r="E26" s="24">
         <v>58.7</v>
       </c>
-      <c r="F26" s="31">
+      <c r="F26" s="24">
         <v>69.5</v>
       </c>
-      <c r="G26" s="31">
+      <c r="G26" s="24">
         <v>78.3</v>
       </c>
-      <c r="H26" s="31">
+      <c r="H26" s="24">
         <v>83</v>
       </c>
-      <c r="I26" s="31">
+      <c r="I26" s="24">
         <v>83.3</v>
       </c>
-      <c r="J26" s="31">
+      <c r="J26" s="24">
         <v>83.6</v>
       </c>
-      <c r="K26" s="31">
+      <c r="K26" s="24">
         <v>81.099999999999994</v>
       </c>
-      <c r="L26" s="31">
+      <c r="L26" s="24">
         <v>72.2</v>
       </c>
-      <c r="M26" s="31">
+      <c r="M26" s="24">
         <v>64.900000000000006</v>
       </c>
-      <c r="N26" s="31">
+      <c r="N26" s="24">
         <v>50</v>
       </c>
-      <c r="O26" s="32">
+      <c r="O26" s="25">
         <v>69.099999999999994</v>
       </c>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B27" s="30">
+      <c r="B27" s="23">
         <v>2011</v>
       </c>
-      <c r="C27" s="31">
+      <c r="C27" s="24">
         <v>55.1</v>
       </c>
-      <c r="D27" s="31">
+      <c r="D27" s="24">
         <v>61.7</v>
       </c>
-      <c r="E27" s="31">
+      <c r="E27" s="24">
         <v>66.5</v>
       </c>
-      <c r="F27" s="31">
+      <c r="F27" s="24">
         <v>73</v>
       </c>
-      <c r="G27" s="31">
+      <c r="G27" s="24">
         <v>76</v>
       </c>
-      <c r="H27" s="31">
+      <c r="H27" s="24">
         <v>81.900000000000006</v>
       </c>
-      <c r="I27" s="31">
+      <c r="I27" s="24">
         <v>82.4</v>
       </c>
-      <c r="J27" s="31">
+      <c r="J27" s="24">
         <v>83.6</v>
       </c>
-      <c r="K27" s="31">
+      <c r="K27" s="24">
         <v>79.7</v>
       </c>
-      <c r="L27" s="31">
+      <c r="L27" s="24">
         <v>70.599999999999994</v>
       </c>
-      <c r="M27" s="31">
+      <c r="M27" s="24">
         <v>66.7</v>
       </c>
-      <c r="N27" s="31">
+      <c r="N27" s="24">
         <v>63.7</v>
       </c>
-      <c r="O27" s="32">
+      <c r="O27" s="25">
         <v>71.7</v>
       </c>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B28" s="30">
+      <c r="B28" s="23">
         <v>2012</v>
       </c>
-      <c r="C28" s="31">
+      <c r="C28" s="24">
         <v>59.3</v>
       </c>
-      <c r="D28" s="31">
+      <c r="D28" s="24">
         <v>63.9</v>
       </c>
-      <c r="E28" s="31">
+      <c r="E28" s="24">
         <v>70.2</v>
       </c>
-      <c r="F28" s="31">
+      <c r="F28" s="24">
         <v>71.099999999999994</v>
       </c>
-      <c r="G28" s="31">
+      <c r="G28" s="24">
         <v>77.400000000000006</v>
       </c>
-      <c r="H28" s="31">
+      <c r="H28" s="24">
         <v>79.400000000000006</v>
       </c>
-      <c r="I28" s="31">
+      <c r="I28" s="24">
         <v>82.2</v>
       </c>
-      <c r="J28" s="31">
+      <c r="J28" s="24">
         <v>81.599999999999994</v>
       </c>
-      <c r="K28" s="31">
+      <c r="K28" s="24">
         <v>79.5</v>
       </c>
-      <c r="L28" s="31">
+      <c r="L28" s="24">
         <v>73.3</v>
       </c>
-      <c r="M28" s="31">
+      <c r="M28" s="24">
         <v>62.3</v>
       </c>
-      <c r="N28" s="31">
+      <c r="N28" s="24">
         <v>62.2</v>
       </c>
-      <c r="O28" s="32">
+      <c r="O28" s="25">
         <v>71.8</v>
       </c>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B29" s="30">
+      <c r="B29" s="23">
         <v>2013</v>
       </c>
-      <c r="C29" s="31">
+      <c r="C29" s="24">
         <v>64.099999999999994</v>
       </c>
-      <c r="D29" s="31">
+      <c r="D29" s="24">
         <v>61.8</v>
       </c>
-      <c r="E29" s="31">
+      <c r="E29" s="24">
         <v>59</v>
       </c>
-      <c r="F29" s="31" t="s">
+      <c r="F29" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="G29" s="31" t="s">
+      <c r="G29" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="H29" s="31" t="s">
+      <c r="H29" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="I29" s="31" t="s">
+      <c r="I29" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="J29" s="31" t="s">
+      <c r="J29" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="K29" s="31" t="s">
+      <c r="K29" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="L29" s="31" t="s">
+      <c r="L29" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="M29" s="31" t="s">
+      <c r="M29" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="N29" s="31" t="s">
+      <c r="N29" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="O29" s="32" t="s">
+      <c r="O29" s="25" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B30" s="30">
+      <c r="B30" s="23">
         <v>2014</v>
       </c>
-      <c r="C30" s="31">
+      <c r="C30" s="24">
         <v>54.6</v>
       </c>
-      <c r="D30" s="31">
+      <c r="D30" s="24">
         <v>62.9</v>
       </c>
-      <c r="E30" s="31">
+      <c r="E30" s="24">
         <v>63.6</v>
       </c>
-      <c r="F30" s="31">
+      <c r="F30" s="24">
         <v>70.5</v>
       </c>
-      <c r="G30" s="31">
+      <c r="G30" s="24">
         <v>76.099999999999994</v>
       </c>
-      <c r="H30" s="31">
+      <c r="H30" s="24">
         <v>80.400000000000006</v>
       </c>
-      <c r="I30" s="31">
+      <c r="I30" s="24">
         <v>81.8</v>
       </c>
-      <c r="J30" s="31">
+      <c r="J30" s="24">
         <v>82.9</v>
       </c>
-      <c r="K30" s="31">
+      <c r="K30" s="24">
         <v>79.7</v>
       </c>
-      <c r="L30" s="31">
+      <c r="L30" s="24">
         <v>72.7</v>
       </c>
-      <c r="M30" s="31">
+      <c r="M30" s="24">
         <v>61.1</v>
       </c>
-      <c r="N30" s="31">
+      <c r="N30" s="24">
         <v>61.9</v>
       </c>
-      <c r="O30" s="32">
+      <c r="O30" s="25">
         <v>70.7</v>
       </c>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B31" s="30">
+      <c r="B31" s="23">
         <v>2015</v>
       </c>
-      <c r="C31" s="31">
+      <c r="C31" s="24">
         <v>58.6</v>
       </c>
-      <c r="D31" s="31">
+      <c r="D31" s="24">
         <v>56.6</v>
       </c>
-      <c r="E31" s="31">
+      <c r="E31" s="24">
         <v>69.599999999999994</v>
       </c>
-      <c r="F31" s="31">
+      <c r="F31" s="24">
         <v>75.099999999999994</v>
       </c>
-      <c r="G31" s="31">
+      <c r="G31" s="24">
         <v>77.599999999999994</v>
       </c>
-      <c r="H31" s="31">
+      <c r="H31" s="24">
         <v>81.7</v>
       </c>
-      <c r="I31" s="31">
+      <c r="I31" s="24">
         <v>82.8</v>
       </c>
-      <c r="J31" s="31">
+      <c r="J31" s="24">
         <v>82.5</v>
       </c>
-      <c r="K31" s="31">
+      <c r="K31" s="24">
         <v>80</v>
       </c>
-      <c r="L31" s="31">
+      <c r="L31" s="24">
         <v>74.3</v>
       </c>
-      <c r="M31" s="31">
+      <c r="M31" s="24">
         <v>72.2</v>
       </c>
-      <c r="N31" s="31">
+      <c r="N31" s="24">
         <v>69.400000000000006</v>
       </c>
-      <c r="O31" s="32">
+      <c r="O31" s="25">
         <v>73.5</v>
       </c>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B32" s="30">
+      <c r="B32" s="23">
         <v>2016</v>
       </c>
-      <c r="C32" s="31">
+      <c r="C32" s="24">
         <v>56.9</v>
       </c>
-      <c r="D32" s="31">
+      <c r="D32" s="24">
         <v>59.3</v>
       </c>
-      <c r="E32" s="31">
+      <c r="E32" s="24">
         <v>68.900000000000006</v>
       </c>
-      <c r="F32" s="31">
+      <c r="F32" s="24">
         <v>71.099999999999994</v>
       </c>
-      <c r="G32" s="31">
+      <c r="G32" s="24">
         <v>76.099999999999994</v>
       </c>
-      <c r="H32" s="31">
+      <c r="H32" s="24">
         <v>81.900000000000006</v>
       </c>
-      <c r="I32" s="31">
+      <c r="I32" s="24">
         <v>84</v>
       </c>
-      <c r="J32" s="31">
+      <c r="J32" s="24">
         <v>83</v>
       </c>
-      <c r="K32" s="31">
+      <c r="K32" s="24">
         <v>81.2</v>
       </c>
-      <c r="L32" s="31">
+      <c r="L32" s="24">
         <v>74.599999999999994</v>
       </c>
-      <c r="M32" s="31">
+      <c r="M32" s="24">
         <v>66.7</v>
       </c>
-      <c r="N32" s="31">
+      <c r="N32" s="24">
         <v>66.099999999999994</v>
       </c>
-      <c r="O32" s="32">
+      <c r="O32" s="25">
         <v>72.5</v>
       </c>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B33" s="30">
+      <c r="B33" s="23">
         <v>2017</v>
       </c>
-      <c r="C33" s="31">
+      <c r="C33" s="24">
         <v>64.7</v>
       </c>
-      <c r="D33" s="31">
+      <c r="D33" s="24">
         <v>65.599999999999994</v>
       </c>
-      <c r="E33" s="31">
+      <c r="E33" s="24">
         <v>66</v>
       </c>
-      <c r="F33" s="31">
+      <c r="F33" s="24">
         <v>72.3</v>
       </c>
-      <c r="G33" s="31">
+      <c r="G33" s="24">
         <v>77</v>
       </c>
-      <c r="H33" s="31">
+      <c r="H33" s="24">
         <v>79.900000000000006</v>
       </c>
-      <c r="I33" s="31">
+      <c r="I33" s="24">
         <v>82.6</v>
       </c>
-      <c r="J33" s="31">
+      <c r="J33" s="24">
         <v>82.6</v>
       </c>
-      <c r="K33" s="31">
+      <c r="K33" s="24">
         <v>80.2</v>
       </c>
-      <c r="L33" s="31">
+      <c r="L33" s="24">
         <v>74.8</v>
       </c>
-      <c r="M33" s="31">
+      <c r="M33" s="24">
         <v>67.3</v>
       </c>
-      <c r="N33" s="31">
+      <c r="N33" s="24">
         <v>61.9</v>
       </c>
-      <c r="O33" s="32">
+      <c r="O33" s="25">
         <v>72.7</v>
       </c>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B34" s="30">
+      <c r="B34" s="23">
         <v>2018</v>
       </c>
-      <c r="C34" s="31">
+      <c r="C34" s="24">
         <v>54.8</v>
       </c>
-      <c r="D34" s="31">
+      <c r="D34" s="24">
         <v>69</v>
       </c>
-      <c r="E34" s="31">
+      <c r="E34" s="24">
         <v>62.7</v>
       </c>
-      <c r="F34" s="31">
+      <c r="F34" s="24">
         <v>70</v>
       </c>
-      <c r="G34" s="31">
+      <c r="G34" s="24">
         <v>76.099999999999994</v>
       </c>
-      <c r="H34" s="31">
+      <c r="H34" s="24">
         <v>81.5</v>
       </c>
-      <c r="I34" s="31">
+      <c r="I34" s="24">
         <v>82.4</v>
       </c>
-      <c r="J34" s="31">
+      <c r="J34" s="24">
         <v>82.3</v>
       </c>
-      <c r="K34" s="31">
+      <c r="K34" s="24">
         <v>82.4</v>
       </c>
-      <c r="L34" s="31">
+      <c r="L34" s="24">
         <v>76.5</v>
       </c>
-      <c r="M34" s="31">
+      <c r="M34" s="24">
         <v>66.7</v>
       </c>
-      <c r="N34" s="31">
+      <c r="N34" s="24">
         <v>61.7</v>
       </c>
-      <c r="O34" s="32">
+      <c r="O34" s="25">
         <v>72.3</v>
       </c>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B35" s="30">
+      <c r="B35" s="23">
         <v>2019</v>
       </c>
-      <c r="C35" s="31">
+      <c r="C35" s="24">
         <v>58.4</v>
       </c>
-      <c r="D35" s="31">
+      <c r="D35" s="24">
         <v>67.5</v>
       </c>
-      <c r="E35" s="31">
+      <c r="E35" s="24">
         <v>65.7</v>
       </c>
-      <c r="F35" s="31">
+      <c r="F35" s="24">
         <v>71.2</v>
       </c>
-      <c r="G35" s="31">
+      <c r="G35" s="24">
         <v>78.8</v>
       </c>
-      <c r="H35" s="31">
+      <c r="H35" s="24">
         <v>82.3</v>
       </c>
-      <c r="I35" s="31">
+      <c r="I35" s="24">
         <v>82.8</v>
       </c>
-      <c r="J35" s="31">
+      <c r="J35" s="24">
         <v>82.9</v>
       </c>
-      <c r="K35" s="31">
+      <c r="K35" s="24">
         <v>81.900000000000006</v>
       </c>
-      <c r="L35" s="31">
+      <c r="L35" s="24">
         <v>77.900000000000006</v>
       </c>
-      <c r="M35" s="31">
+      <c r="M35" s="24">
         <v>64.900000000000006</v>
       </c>
-      <c r="N35" s="31">
+      <c r="N35" s="24">
         <v>63.9</v>
       </c>
-      <c r="O35" s="32">
+      <c r="O35" s="25">
         <v>73.2</v>
       </c>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B36" s="30">
+      <c r="B36" s="23">
         <v>2020</v>
       </c>
-      <c r="C36" s="31">
+      <c r="C36" s="24">
         <v>61.8</v>
       </c>
-      <c r="D36" s="31">
+      <c r="D36" s="24">
         <v>63.6</v>
       </c>
-      <c r="E36" s="31">
+      <c r="E36" s="24">
         <v>71</v>
       </c>
-      <c r="F36" s="31">
+      <c r="F36" s="24">
         <v>73.099999999999994</v>
       </c>
-      <c r="G36" s="31">
+      <c r="G36" s="24">
         <v>75.8</v>
       </c>
-      <c r="H36" s="31">
+      <c r="H36" s="24">
         <v>81</v>
       </c>
-      <c r="I36" s="31">
+      <c r="I36" s="24">
         <v>83</v>
       </c>
-      <c r="J36" s="31">
+      <c r="J36" s="24">
         <v>83.2</v>
       </c>
-      <c r="K36" s="31">
+      <c r="K36" s="24">
         <v>80.599999999999994</v>
       </c>
-      <c r="L36" s="31">
+      <c r="L36" s="24">
         <v>77.2</v>
       </c>
-      <c r="M36" s="31">
+      <c r="M36" s="24">
         <v>70.8</v>
       </c>
-      <c r="N36" s="31">
+      <c r="N36" s="24">
         <v>57.6</v>
       </c>
-      <c r="O36" s="32">
+      <c r="O36" s="25">
         <v>73.2</v>
       </c>
     </row>
     <row r="37" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="33">
+      <c r="B37" s="26">
         <v>2021</v>
       </c>
-      <c r="C37" s="34">
+      <c r="C37" s="27">
         <v>58.6</v>
       </c>
-      <c r="D37" s="34">
+      <c r="D37" s="27">
         <v>63.8</v>
       </c>
-      <c r="E37" s="34">
+      <c r="E37" s="27">
         <v>67.7</v>
       </c>
-      <c r="F37" s="34">
+      <c r="F37" s="27">
         <v>69.900000000000006</v>
       </c>
-      <c r="G37" s="34">
+      <c r="G37" s="27">
         <v>76.400000000000006</v>
       </c>
-      <c r="H37" s="34">
+      <c r="H37" s="27">
         <v>80.900000000000006</v>
       </c>
-      <c r="I37" s="34">
+      <c r="I37" s="27">
         <v>82.1</v>
       </c>
-      <c r="J37" s="34">
+      <c r="J37" s="27">
         <v>82.7</v>
       </c>
-      <c r="K37" s="34">
+      <c r="K37" s="27">
         <v>79.8</v>
       </c>
-      <c r="L37" s="34">
+      <c r="L37" s="27">
         <v>75.3</v>
       </c>
-      <c r="M37" s="34">
+      <c r="M37" s="27">
         <v>63.6</v>
       </c>
-      <c r="N37" s="34">
+      <c r="N37" s="27">
         <v>66.7</v>
       </c>
-      <c r="O37" s="35">
+      <c r="O37" s="28">
         <v>72.3</v>
       </c>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="O40" s="26">
+      <c r="O40">
         <f>AVERAGE(O17:O37)</f>
         <v>71.615000000000009</v>
       </c>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="N41" s="26" t="s">
+      <c r="N41" t="s">
         <v>66</v>
       </c>
       <c r="O41" s="3">
@@ -8602,7 +8599,7 @@
   </sheetPr>
   <dimension ref="A1:R124"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A74" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="Q124" sqref="Q124"/>
     </sheetView>
   </sheetViews>
@@ -8638,7 +8635,7 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="24">
+      <c r="A12" s="18">
         <f>10^3.4*1000</f>
         <v>2511886.4315095809</v>
       </c>
@@ -8758,7 +8755,7 @@
         <f t="shared" si="1"/>
         <v>10486.139308241532</v>
       </c>
-      <c r="R16" s="24">
+      <c r="R16" s="18">
         <f>SUM(A16:J16)</f>
         <v>2056530.9974029558</v>
       </c>
@@ -8767,7 +8764,7 @@
       <c r="C23">
         <v>3.4</v>
       </c>
-      <c r="D23" s="24">
+      <c r="D23" s="18">
         <f>10^C23*250</f>
         <v>627971.60787739523</v>
       </c>
@@ -8776,7 +8773,7 @@
       <c r="C24">
         <v>3.4</v>
       </c>
-      <c r="D24" s="24">
+      <c r="D24" s="18">
         <f>10^C24*250</f>
         <v>627971.60787739523</v>
       </c>
@@ -9448,7 +9445,7 @@
       <c r="C69">
         <v>3.4</v>
       </c>
-      <c r="D69" s="24">
+      <c r="D69" s="18">
         <f>10^C69*250</f>
         <v>627971.60787739523</v>
       </c>
@@ -9460,15 +9457,15 @@
       <c r="C70">
         <v>3.4</v>
       </c>
-      <c r="D70" s="24">
+      <c r="D70" s="18">
         <f>10^C70*250</f>
         <v>627971.60787739523</v>
       </c>
-      <c r="E70" s="25">
+      <c r="E70" s="19">
         <f>D70-D71</f>
         <v>130031.74316733191</v>
       </c>
-      <c r="F70" s="25">
+      <c r="F70" s="19">
         <f>LOG10(E70/250)</f>
         <v>2.7161093759392472</v>
       </c>
@@ -9484,15 +9481,15 @@
         <f xml:space="preserve"> 3.4*EXP(B71/-8.31)</f>
         <v>3.2992368883014542</v>
       </c>
-      <c r="D71" s="24">
+      <c r="D71" s="18">
         <f>10^C71*(1000*B71)</f>
         <v>497939.86471006332</v>
       </c>
-      <c r="E71" s="25">
-        <f t="shared" ref="E71:E110" si="18">D71-D72</f>
+      <c r="E71" s="19">
+        <f t="shared" ref="E71:E109" si="18">D71-D72</f>
         <v>100382.29969406856</v>
       </c>
-      <c r="F71" s="25">
+      <c r="F71" s="19">
         <f t="shared" ref="F71:F110" si="19">LOG10(E71/250)</f>
         <v>2.6037171321958539</v>
       </c>
@@ -9508,15 +9505,15 @@
         <f xml:space="preserve"> C71*EXP(B72/-8.31)</f>
         <v>3.201460013273254</v>
       </c>
-      <c r="D72" s="24">
+      <c r="D72" s="18">
         <f>10^C72*(1000*B72)</f>
         <v>397557.56501599477</v>
       </c>
-      <c r="E72" s="25">
+      <c r="E72" s="19">
         <f t="shared" si="18"/>
         <v>78020.764123016037</v>
       </c>
-      <c r="F72" s="25">
+      <c r="F72" s="19">
         <f t="shared" si="19"/>
         <v>2.4942701907359868</v>
       </c>
@@ -9532,15 +9529,15 @@
         <f t="shared" ref="C73:C110" si="20" xml:space="preserve"> C72*EXP(B73/-8.31)</f>
         <v>3.1065808741803482</v>
       </c>
-      <c r="D73" s="24">
+      <c r="D73" s="18">
         <f t="shared" ref="D73:D110" si="21">10^C73*(1000*B73)</f>
         <v>319536.80089297873</v>
       </c>
-      <c r="E73" s="25">
+      <c r="E73" s="19">
         <f t="shared" si="18"/>
         <v>61040.935033920076</v>
       </c>
-      <c r="F73" s="25">
+      <c r="F73" s="19">
         <f t="shared" si="19"/>
         <v>2.3876811689117732</v>
       </c>
@@ -9556,15 +9553,15 @@
         <f t="shared" si="20"/>
         <v>3.0145135931139952</v>
       </c>
-      <c r="D74" s="24">
+      <c r="D74" s="18">
         <f t="shared" si="21"/>
         <v>258495.86585905866</v>
       </c>
-      <c r="E74" s="25">
+      <c r="E74" s="19">
         <f t="shared" si="18"/>
         <v>48062.381675818877</v>
       </c>
-      <c r="F74" s="25">
+      <c r="F74" s="19">
         <f t="shared" si="19"/>
         <v>2.283865279290588</v>
       </c>
@@ -9580,15 +9577,15 @@
         <f t="shared" si="20"/>
         <v>2.9251748372611335</v>
       </c>
-      <c r="D75" s="24">
+      <c r="D75" s="18">
         <f t="shared" si="21"/>
         <v>210433.48418323978</v>
       </c>
-      <c r="E75" s="25">
+      <c r="E75" s="19">
         <f t="shared" si="18"/>
         <v>38078.537606207043</v>
       </c>
-      <c r="F75" s="25">
+      <c r="F75" s="19">
         <f t="shared" si="19"/>
         <v>2.1827402524230126</v>
       </c>
@@ -9604,15 +9601,15 @@
         <f t="shared" si="20"/>
         <v>2.8384837434773926</v>
       </c>
-      <c r="D76" s="24">
+      <c r="D76" s="18">
         <f t="shared" si="21"/>
         <v>172354.94657703274</v>
       </c>
-      <c r="E76" s="25">
+      <c r="E76" s="19">
         <f t="shared" si="18"/>
         <v>30350.52938429956</v>
       </c>
-      <c r="F76" s="25">
+      <c r="F76" s="19">
         <f t="shared" si="19"/>
         <v>2.0842262619179874</v>
       </c>
@@ -9628,15 +9625,15 @@
         <f t="shared" si="20"/>
         <v>2.7543618450954757</v>
       </c>
-      <c r="D77" s="24">
+      <c r="D77" s="18">
         <f t="shared" si="21"/>
         <v>142004.41719273318</v>
       </c>
-      <c r="E77" s="25">
+      <c r="E77" s="19">
         <f t="shared" si="18"/>
         <v>24332.451165249135</v>
       </c>
-      <c r="F77" s="25">
+      <c r="F77" s="19">
         <f t="shared" si="19"/>
         <v>1.9882458517557706</v>
       </c>
@@ -9652,15 +9649,15 @@
         <f t="shared" si="20"/>
         <v>2.6727330009026615</v>
       </c>
-      <c r="D78" s="24">
+      <c r="D78" s="18">
         <f t="shared" si="21"/>
         <v>117671.96602748404</v>
       </c>
-      <c r="E78" s="25">
+      <c r="E78" s="19">
         <f t="shared" si="18"/>
         <v>19618.41306924817</v>
       </c>
-      <c r="F78" s="25">
+      <c r="F78" s="19">
         <f t="shared" si="19"/>
         <v>1.8947238657713628</v>
       </c>
@@ -9676,15 +9673,15 @@
         <f t="shared" si="20"/>
         <v>2.5935233262231487</v>
       </c>
-      <c r="D79" s="24">
+      <c r="D79" s="18">
         <f t="shared" si="21"/>
         <v>98053.552958235872</v>
       </c>
-      <c r="E79" s="25">
+      <c r="E79" s="19">
         <f t="shared" si="18"/>
         <v>15904.769809183737</v>
       </c>
-      <c r="F79" s="25">
+      <c r="F79" s="19">
         <f t="shared" si="19"/>
         <v>1.803587379243226</v>
       </c>
@@ -9700,15 +9697,15 @@
         <f t="shared" si="20"/>
         <v>2.5166611260428526</v>
       </c>
-      <c r="D80" s="24">
+      <c r="D80" s="18">
         <f t="shared" si="21"/>
         <v>82148.783149052135</v>
       </c>
-      <c r="E80" s="25">
+      <c r="E80" s="19">
         <f t="shared" si="18"/>
         <v>12963.003586737614</v>
       </c>
-      <c r="F80" s="25">
+      <c r="F80" s="19">
         <f t="shared" si="19"/>
         <v>1.7147656325239509</v>
       </c>
@@ -9724,15 +9721,15 @@
         <f t="shared" si="20"/>
         <v>2.4420768301161342</v>
       </c>
-      <c r="D81" s="24">
+      <c r="D81" s="18">
         <f t="shared" si="21"/>
         <v>69185.779562314521</v>
       </c>
-      <c r="E81" s="25">
+      <c r="E81" s="19">
         <f t="shared" si="18"/>
         <v>10620.133481927303</v>
       </c>
-      <c r="F81" s="25">
+      <c r="F81" s="19">
         <f t="shared" si="19"/>
         <v>1.6281899666515813</v>
       </c>
@@ -9748,15 +9745,15 @@
         <f t="shared" si="20"/>
         <v>2.3697029299957157</v>
       </c>
-      <c r="D82" s="24">
+      <c r="D82" s="18">
         <f t="shared" si="21"/>
         <v>58565.646080387218</v>
       </c>
-      <c r="E82" s="25">
+      <c r="E82" s="19">
         <f t="shared" si="18"/>
         <v>8744.4755857162381</v>
       </c>
-      <c r="F82" s="25">
+      <c r="F82" s="19">
         <f t="shared" si="19"/>
         <v>1.5437937608820826</v>
       </c>
@@ -9772,15 +9769,15 @@
         <f t="shared" si="20"/>
         <v>2.2994739179287955</v>
       </c>
-      <c r="D83" s="24">
+      <c r="D83" s="18">
         <f t="shared" si="21"/>
         <v>49821.17049467098</v>
       </c>
-      <c r="E83" s="25">
+      <c r="E83" s="19">
         <f t="shared" si="18"/>
         <v>7235.230655380401</v>
       </c>
-      <c r="F83" s="25">
+      <c r="F83" s="19">
         <f t="shared" si="19"/>
         <v>1.4615123720853256</v>
       </c>
@@ -9796,15 +9793,15 @@
         <f t="shared" si="20"/>
         <v>2.2313262275640451</v>
       </c>
-      <c r="D84" s="24">
+      <c r="D84" s="18">
         <f t="shared" si="21"/>
         <v>42585.939839290579</v>
       </c>
-      <c r="E84" s="25">
+      <c r="E84" s="19">
         <f t="shared" si="18"/>
         <v>6014.8262251766209</v>
       </c>
-      <c r="F84" s="25">
+      <c r="F84" s="19">
         <f t="shared" si="19"/>
         <v>1.3812830759486183</v>
       </c>
@@ -9820,15 +9817,15 @@
         <f t="shared" si="20"/>
         <v>2.1651981764158306</v>
       </c>
-      <c r="D85" s="24">
+      <c r="D85" s="18">
         <f t="shared" si="21"/>
         <v>36571.113614113958</v>
       </c>
-      <c r="E85" s="25">
+      <c r="E85" s="19">
         <f t="shared" si="18"/>
         <v>5023.2526104376993</v>
       </c>
-      <c r="F85" s="25">
+      <c r="F85" s="19">
         <f t="shared" si="19"/>
         <v>1.3030450099335849</v>
       </c>
@@ -9844,15 +9841,15 @@
         <f t="shared" si="20"/>
         <v>2.101029910033573</v>
       </c>
-      <c r="D86" s="24">
+      <c r="D86" s="18">
         <f t="shared" si="21"/>
         <v>31547.861003676258</v>
       </c>
-      <c r="E86" s="25">
+      <c r="E86" s="19">
         <f t="shared" si="18"/>
         <v>4213.8505297326519</v>
       </c>
-      <c r="F86" s="25">
+      <c r="F86" s="19">
         <f t="shared" si="19"/>
         <v>1.2267391179337899</v>
       </c>
@@ -9868,15 +9865,15 @@
         <f t="shared" si="20"/>
         <v>2.0387633478257206</v>
       </c>
-      <c r="D87" s="24">
+      <c r="D87" s="18">
         <f t="shared" si="21"/>
         <v>27334.010473943606</v>
       </c>
-      <c r="E87" s="25">
+      <c r="E87" s="19">
         <f t="shared" si="18"/>
         <v>3550.1614616447987</v>
       </c>
-      <c r="F87" s="25">
+      <c r="F87" s="19">
         <f t="shared" si="19"/>
         <v>1.1523080965821482</v>
       </c>
@@ -9892,15 +9889,15 @@
         <f t="shared" si="20"/>
         <v>1.9783421304892901</v>
       </c>
-      <c r="D88" s="24">
+      <c r="D88" s="18">
         <f t="shared" si="21"/>
         <v>23783.849012298808</v>
       </c>
-      <c r="E88" s="25">
+      <c r="E88" s="19">
         <f t="shared" si="18"/>
         <v>3003.560275711945</v>
       </c>
-      <c r="F88" s="25">
+      <c r="F88" s="19">
         <f t="shared" si="19"/>
         <v>1.0796963431586724</v>
       </c>
@@ -9916,15 +9913,15 @@
         <f t="shared" si="20"/>
         <v>1.9197115689973987</v>
       </c>
-      <c r="D89" s="24">
+      <c r="D89" s="18">
         <f t="shared" si="21"/>
         <v>20780.288736586863</v>
       </c>
-      <c r="E89" s="25">
+      <c r="E89" s="19">
         <f t="shared" si="18"/>
         <v>2551.466753651217</v>
       </c>
-      <c r="F89" s="25">
+      <c r="F89" s="19">
         <f t="shared" si="19"/>
         <v>1.0088499050505377</v>
       </c>
@@ -9940,15 +9937,15 @@
         <f t="shared" si="20"/>
         <v>1.862818595098612</v>
       </c>
-      <c r="D90" s="24">
+      <c r="D90" s="18">
         <f t="shared" si="21"/>
         <v>18228.821982935646</v>
       </c>
-      <c r="E90" s="25">
+      <c r="E90" s="19">
         <f t="shared" si="18"/>
         <v>2175.9877162958546</v>
       </c>
-      <c r="F90" s="25">
+      <c r="F90" s="19">
         <f t="shared" si="19"/>
         <v>0.93971643071808209</v>
       </c>
@@ -9964,15 +9961,15 @@
         <f t="shared" si="20"/>
         <v>1.8076117132833034</v>
       </c>
-      <c r="D91" s="24">
+      <c r="D91" s="18">
         <f t="shared" si="21"/>
         <v>16052.834266639791</v>
       </c>
-      <c r="E91" s="25">
+      <c r="E91" s="19">
         <f t="shared" si="18"/>
         <v>1862.8810752684858</v>
       </c>
-      <c r="F91" s="25">
+      <c r="F91" s="19">
         <f t="shared" si="19"/>
         <v>0.87224512212156591</v>
       </c>
@@ -9988,15 +9985,15 @@
         <f t="shared" si="20"/>
         <v>1.7540409541735491</v>
       </c>
-      <c r="D92" s="24">
+      <c r="D92" s="18">
         <f t="shared" si="21"/>
         <v>14189.953191371305</v>
       </c>
-      <c r="E92" s="25">
+      <c r="E92" s="19">
         <f t="shared" si="18"/>
         <v>1600.7617459334324</v>
       </c>
-      <c r="F92" s="25">
+      <c r="F92" s="19">
         <f t="shared" si="19"/>
         <v>0.80638668856498219</v>
       </c>
@@ -10012,15 +10009,15 @@
         <f t="shared" si="20"/>
         <v>1.7020578292943689</v>
       </c>
-      <c r="D93" s="24">
+      <c r="D93" s="18">
         <f t="shared" si="21"/>
         <v>12589.191445437873</v>
       </c>
-      <c r="E93" s="25">
+      <c r="E93" s="19">
         <f t="shared" si="18"/>
         <v>1380.4901447714874</v>
       </c>
-      <c r="F93" s="25">
+      <c r="F93" s="19">
         <f t="shared" si="19"/>
         <v>0.74209330191451683</v>
       </c>
@@ -10036,15 +10033,15 @@
         <f t="shared" si="20"/>
         <v>1.6516152871853771</v>
       </c>
-      <c r="D94" s="24">
+      <c r="D94" s="18">
         <f t="shared" si="21"/>
         <v>11208.701300666386</v>
       </c>
-      <c r="E94" s="25">
+      <c r="E94" s="19">
         <f t="shared" si="18"/>
         <v>1194.6991695855395</v>
       </c>
-      <c r="F94" s="25">
+      <c r="F94" s="19">
         <f t="shared" si="19"/>
         <v>0.67931855315053025</v>
       </c>
@@ -10060,15 +10057,15 @@
         <f t="shared" si="20"/>
         <v>1.6026676708131167</v>
       </c>
-      <c r="D95" s="24">
+      <c r="D95" s="18">
         <f t="shared" si="21"/>
         <v>10014.002131080846</v>
       </c>
-      <c r="E95" s="25">
+      <c r="E95" s="19">
         <f t="shared" si="18"/>
         <v>1037.4266946295247</v>
       </c>
-      <c r="F95" s="25">
+      <c r="F95" s="19">
         <f t="shared" si="19"/>
         <v>0.6180174102131557</v>
       </c>
@@ -10084,15 +10081,15 @@
         <f t="shared" si="20"/>
         <v>1.5551706762455315</v>
       </c>
-      <c r="D96" s="24">
+      <c r="D96" s="18">
         <f t="shared" si="21"/>
         <v>8976.5754364513214</v>
       </c>
-      <c r="E96" s="25">
+      <c r="E96" s="19">
         <f t="shared" si="18"/>
         <v>903.8288208282238</v>
       </c>
-      <c r="F96" s="25">
+      <c r="F96" s="19">
         <f t="shared" si="19"/>
         <v>0.55814617710284875</v>
       </c>
@@ -10108,15 +10105,15 @@
         <f t="shared" si="20"/>
         <v>1.5090813125511695</v>
       </c>
-      <c r="D97" s="24">
+      <c r="D97" s="18">
         <f t="shared" si="21"/>
         <v>8072.7466156230976</v>
       </c>
-      <c r="E97" s="25">
+      <c r="E97" s="19">
         <f t="shared" si="18"/>
         <v>789.95520113433213</v>
       </c>
-      <c r="F97" s="25">
+      <c r="F97" s="19">
         <f t="shared" si="19"/>
         <v>0.49966245419837479</v>
       </c>
@@ -10132,15 +10129,15 @@
         <f t="shared" si="20"/>
         <v>1.4643578628868221</v>
       </c>
-      <c r="D98" s="24">
+      <c r="D98" s="18">
         <f t="shared" si="21"/>
         <v>7282.7914144887654</v>
       </c>
-      <c r="E98" s="25">
+      <c r="E98" s="19">
         <f t="shared" si="18"/>
         <v>692.57228538103391</v>
       </c>
-      <c r="F98" s="25">
+      <c r="F98" s="19">
         <f t="shared" si="19"/>
         <v>0.44252509975579968</v>
       </c>
@@ -10156,15 +10153,15 @@
         <f t="shared" si="20"/>
         <v>1.4209598467383786</v>
       </c>
-      <c r="D99" s="24">
+      <c r="D99" s="18">
         <f t="shared" si="21"/>
         <v>6590.2191291077315</v>
       </c>
-      <c r="E99" s="25">
+      <c r="E99" s="19">
         <f t="shared" si="18"/>
         <v>609.02371094656701</v>
       </c>
-      <c r="F99" s="25">
+      <c r="F99" s="19">
         <f t="shared" si="19"/>
         <v>0.38669419255327897</v>
       </c>
@@ -10180,15 +10177,15 @@
         <f t="shared" si="20"/>
         <v>1.3788479832807177</v>
       </c>
-      <c r="D100" s="24">
+      <c r="D100" s="18">
         <f t="shared" si="21"/>
         <v>5981.1954181611645</v>
       </c>
-      <c r="E100" s="25">
+      <c r="E100" s="19">
         <f t="shared" si="18"/>
         <v>537.11960474926764</v>
       </c>
-      <c r="F100" s="25">
+      <c r="F100" s="19">
         <f t="shared" si="19"/>
         <v>0.3321309956473093</v>
       </c>
@@ -10204,15 +10201,15 @@
         <f t="shared" si="20"/>
         <v>1.3379841558234737</v>
       </c>
-      <c r="D101" s="24">
+      <c r="D101" s="18">
         <f t="shared" si="21"/>
         <v>5444.0758134118969</v>
       </c>
-      <c r="E101" s="25">
+      <c r="E101" s="19">
         <f t="shared" si="18"/>
         <v>475.04847677326052</v>
       </c>
-      <c r="F101" s="25">
+      <c r="F101" s="19">
         <f t="shared" si="19"/>
         <v>0.27879792120734331</v>
       </c>
@@ -10228,15 +10225,15 @@
         <f t="shared" si="20"/>
         <v>1.2983313773104959</v>
       </c>
-      <c r="D102" s="24">
+      <c r="D102" s="18">
         <f t="shared" si="21"/>
         <v>4969.0273366386364</v>
       </c>
-      <c r="E102" s="25">
+      <c r="E102" s="19">
         <f t="shared" si="18"/>
         <v>421.30683517621856</v>
       </c>
-      <c r="F102" s="25">
+      <c r="F102" s="19">
         <f t="shared" si="19"/>
         <v>0.22665849639650132</v>
       </c>
@@ -10252,15 +10249,15 @@
         <f t="shared" si="20"/>
         <v>1.2598537568417711</v>
       </c>
-      <c r="D103" s="24">
+      <c r="D103" s="18">
         <f t="shared" si="21"/>
         <v>4547.7205014624178</v>
       </c>
-      <c r="E103" s="25">
+      <c r="E103" s="19">
         <f t="shared" si="18"/>
         <v>374.64275542631822</v>
       </c>
-      <c r="F103" s="25">
+      <c r="F103" s="19">
         <f t="shared" si="19"/>
         <v>0.17567733026717022</v>
       </c>
@@ -10276,15 +10273,15 @@
         <f t="shared" si="20"/>
         <v>1.2225164671875124</v>
       </c>
-      <c r="D104" s="24">
+      <c r="D104" s="18">
         <f t="shared" si="21"/>
         <v>4173.0777460360996</v>
       </c>
-      <c r="E104" s="25">
+      <c r="E104" s="19">
         <f t="shared" si="18"/>
         <v>334.01047750114139</v>
       </c>
-      <c r="F104" s="25">
+      <c r="F104" s="19">
         <f t="shared" si="19"/>
         <v>0.12582008164120376</v>
       </c>
@@ -10300,15 +10297,15 @@
         <f t="shared" si="20"/>
         <v>1.1862857132650046</v>
       </c>
-      <c r="D105" s="24">
+      <c r="D105" s="18">
         <f t="shared" si="21"/>
         <v>3839.0672685349582</v>
       </c>
-      <c r="E105" s="25">
+      <c r="E105" s="19">
         <f t="shared" si="18"/>
         <v>298.53375019266286</v>
       </c>
-      <c r="F105" s="25">
+      <c r="F105" s="19">
         <f t="shared" si="19"/>
         <v>7.7053427945328851E-2</v>
       </c>
@@ -10324,15 +10321,15 @@
         <f t="shared" si="20"/>
         <v>1.1511287015496781</v>
       </c>
-      <c r="D106" s="24">
+      <c r="D106" s="18">
         <f t="shared" si="21"/>
         <v>3540.5335183422953</v>
       </c>
-      <c r="E106" s="25">
+      <c r="E106" s="19">
         <f t="shared" si="18"/>
         <v>267.47613781977589</v>
       </c>
-      <c r="F106" s="25">
+      <c r="F106" s="19">
         <f t="shared" si="19"/>
         <v>2.934503497325755E-2</v>
       </c>
@@ -10348,15 +10345,15 @@
         <f t="shared" si="20"/>
         <v>1.1170136103927215</v>
       </c>
-      <c r="D107" s="24">
+      <c r="D107" s="18">
         <f t="shared" si="21"/>
         <v>3273.0573805225195</v>
       </c>
-      <c r="E107" s="25">
+      <c r="E107" s="19">
         <f t="shared" si="18"/>
         <v>240.21688789804602</v>
       </c>
-      <c r="F107" s="25">
+      <c r="F107" s="19">
         <f t="shared" si="19"/>
         <v>-1.7336472453131333E-2</v>
       </c>
@@ -10372,15 +10369,15 @@
         <f t="shared" si="20"/>
         <v>1.0839095612183693</v>
       </c>
-      <c r="D108" s="24">
+      <c r="D108" s="18">
         <f t="shared" si="21"/>
         <v>3032.8404926244734</v>
       </c>
-      <c r="E108" s="25">
+      <c r="E108" s="19">
         <f t="shared" si="18"/>
         <v>216.23125538136173</v>
       </c>
-      <c r="F108" s="25">
+      <c r="F108" s="19">
         <f t="shared" si="19"/>
         <v>-6.3021538950348441E-2</v>
       </c>
@@ -10396,15 +10393,15 @@
         <f t="shared" si="20"/>
         <v>1.0517865905747905</v>
       </c>
-      <c r="D109" s="24">
+      <c r="D109" s="18">
         <f t="shared" si="21"/>
         <v>2816.6092372431117</v>
       </c>
-      <c r="E109" s="25">
+      <c r="E109" s="19">
         <f t="shared" si="18"/>
         <v>195.07441018273403</v>
       </c>
-      <c r="F109" s="25">
+      <c r="F109" s="19">
         <f t="shared" si="19"/>
         <v>-0.10773970619363409</v>
       </c>
@@ -10420,15 +10417,15 @@
         <f t="shared" si="20"/>
         <v>1.0206156230132846</v>
       </c>
-      <c r="D110" s="24">
+      <c r="D110" s="18">
         <f t="shared" si="21"/>
         <v>2621.5348270603777</v>
       </c>
-      <c r="E110" s="25">
+      <c r="E110" s="19">
         <f>D110-D111</f>
         <v>2621.5348270603777</v>
       </c>
-      <c r="F110" s="25">
+      <c r="F110" s="19">
         <f t="shared" si="19"/>
         <v>1.0206156230132846</v>
       </c>

--- a/Model Parametrization.xlsx
+++ b/Model Parametrization.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gareyes3\Documents\GitHub\CPS-Farm-to-Facility_L_T\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62443B4A-61D9-44B0-9E49-7725A931F95D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA53B577-B45F-491D-8405-1CF47BCFB402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="5" xr2:uid="{A7FC8448-A2FF-4BB1-802F-01EED4E56C52}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="7" xr2:uid="{A7FC8448-A2FF-4BB1-802F-01EED4E56C52}"/>
   </bookViews>
   <sheets>
     <sheet name="Flume Washing" sheetId="5" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="208">
   <si>
     <t>Parameters</t>
   </si>
@@ -624,6 +624,54 @@
   </si>
   <si>
     <t>2.31  ± 0.35</t>
+  </si>
+  <si>
+    <t>Diced tomatoes used</t>
+  </si>
+  <si>
+    <t>PAA 40 s wash, no organic load</t>
+  </si>
+  <si>
+    <t>PAA-SS 40s wash, no organic load</t>
+  </si>
+  <si>
+    <t>PAA 60 s wash, no organic load</t>
+  </si>
+  <si>
+    <t>PAA-SS 60s wash, no organic load</t>
+  </si>
+  <si>
+    <t>PAA 40 s wash, w organic load</t>
+  </si>
+  <si>
+    <t>PAA-SS 40s wash,w organic load</t>
+  </si>
+  <si>
+    <t>PAA 60 s wash, w organic load</t>
+  </si>
+  <si>
+    <t>PAA-SS 60s wash, w organic load</t>
+  </si>
+  <si>
+    <t>2.47+-40</t>
+  </si>
+  <si>
+    <t>2.06+-0.31</t>
+  </si>
+  <si>
+    <t>Kang et al. 2020</t>
+  </si>
+  <si>
+    <t>1.65+-0.83</t>
+  </si>
+  <si>
+    <t>Overall PAA, with load</t>
+  </si>
+  <si>
+    <t>Overall PAA-SS, with load</t>
+  </si>
+  <si>
+    <t>2.17+-32</t>
   </si>
 </sst>
 </file>
@@ -8599,7 +8647,7 @@
   </sheetPr>
   <dimension ref="A1:R124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="Q124" sqref="Q124"/>
     </sheetView>
   </sheetViews>
@@ -10462,8 +10510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEEC1AF1-5AD4-4EF3-8E46-E6A561BE2E61}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10565,80 +10613,146 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1.63</v>
+      </c>
       <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>192</v>
+      </c>
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1.85</v>
+      </c>
       <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>192</v>
+      </c>
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C8" s="2">
+        <f>C6+0.96</f>
+        <v>2.59</v>
+      </c>
       <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>192</v>
+      </c>
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C9" s="2">
+        <f>C7+0.71</f>
+        <v>2.56</v>
+      </c>
       <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>192</v>
+      </c>
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
+      <c r="B10" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>192</v>
+      </c>
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>202</v>
+      </c>
       <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>192</v>
+      </c>
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>199</v>
+      </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>192</v>
+      </c>
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>200</v>
+      </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="E13" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>192</v>
+      </c>
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
+      <c r="B14" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>204</v>
+      </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -10646,8 +10760,12 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
+      <c r="B15" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>207</v>
+      </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
